--- a/LOCATION SHEETS/1820sLOCATIONS.xlsx
+++ b/LOCATION SHEETS/1820sLOCATIONS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/WR4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E55D1D-564C-E246-B7A1-0C15A98862D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99421D0-FAEF-BF45-9D1D-5EFCF143C6BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="460" windowWidth="28100" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="590">
   <si>
     <t>LOCATIONS IN 1820s onwards</t>
   </si>
@@ -256,9 +256,6 @@
     <t>360</t>
   </si>
   <si>
-    <t>EPPING</t>
-  </si>
-  <si>
     <t>1822 to end decade</t>
   </si>
   <si>
@@ -275,9 +272,6 @@
   </si>
   <si>
     <t>1820 to July 1827</t>
-  </si>
-  <si>
-    <t>TAVISTOCK</t>
   </si>
   <si>
     <t>SX481746</t>
@@ -674,6 +668,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">. note says that this sheet should be 100 years earlier! </t>
     </r>
@@ -737,7 +732,7 @@
     <t>1825-1828 incl</t>
   </si>
   <si>
-    <t>POINT OF AYRE, ISLE OF MAN</t>
+    <t>POINT OF AYRE</t>
   </si>
   <si>
     <t>June 1822 to end of decade</t>
@@ -746,7 +741,7 @@
     <t>CALF OF MAN LOW STATION</t>
   </si>
   <si>
-    <t>RR75 possibly</t>
+    <t>RR75</t>
   </si>
   <si>
     <t>1825 to end of decade</t>
@@ -848,6 +843,9 @@
   </si>
   <si>
     <t>1827-1829</t>
+  </si>
+  <si>
+    <t>CORSEWALL</t>
   </si>
   <si>
     <r>
@@ -1014,6 +1012,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Hyd Stn No 76-667495 NGR NS (26) 109596 alt 30m</t>
     </r>
@@ -1051,6 +1050,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Hyd Stn No 76-667443 NGR (26) 093649 alt 3m</t>
     </r>
@@ -1139,8 +1139,9 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> also on sheet Hyd Stn No 77-666925, NGR: NS (26) 115681, alt: 36m</t>
+      <t xml:space="preserve"> also on sheet is Hyd Stn No 77-666925, NGR: NS (26) 115681, alt: 36m</t>
     </r>
   </si>
   <si>
@@ -1229,13 +1230,31 @@
     <t>BUCHANNESS, ABERDEEN</t>
   </si>
   <si>
+    <t>JacsHu/IanScrim</t>
+  </si>
+  <si>
     <t>RR157</t>
   </si>
   <si>
-    <t>May 1827 to end decade</t>
+    <t>May 1827 to end decade IanScrim Lighthouse established 1827 https://www.nlb.org.uk/lighthouses/buchan-ness/</t>
   </si>
   <si>
     <t>Kinnairdhead</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">full decade IanScrim Established1787 </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.nlb.org.uk/lighthouses/kinnaird-head/?hilite=%27kinnaird%27</t>
+    </r>
   </si>
   <si>
     <t>HUNTLY LODGE, ABERDEEN</t>
@@ -1380,6 +1399,9 @@
   </si>
   <si>
     <t>YORK</t>
+  </si>
+  <si>
+    <t>RR195</t>
   </si>
   <si>
     <t>1831 to 1839 Observer John Ford</t>
@@ -1509,6 +1531,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>SK(43)564743</t>
     </r>
@@ -2092,12 +2115,55 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 1835 to 1939</t>
     </r>
   </si>
   <si>
-    <t>CORSEWALL</t>
+    <t>TAVISTOCK WEST STREET</t>
+  </si>
+  <si>
+    <t>RR203</t>
+  </si>
+  <si>
+    <t>RR213</t>
+  </si>
+  <si>
+    <t>RR216</t>
+  </si>
+  <si>
+    <t>RR217</t>
+  </si>
+  <si>
+    <t>RR218</t>
+  </si>
+  <si>
+    <t>RR219</t>
+  </si>
+  <si>
+    <t>RR220</t>
+  </si>
+  <si>
+    <t>RR222</t>
+  </si>
+  <si>
+    <t>RR211</t>
+  </si>
+  <si>
+    <t>RR118</t>
+  </si>
+  <si>
+    <t>RR225</t>
+  </si>
+  <si>
+    <t>EPPING ESSEX</t>
+  </si>
+  <si>
+    <t>RR233</t>
+  </si>
+  <si>
+    <t>RR237</t>
   </si>
 </sst>
 </file>
@@ -2167,16 +2233,16 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -2271,7 +2337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2340,7 +2406,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2351,10 +2417,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2363,6 +2429,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2700,8 +2767,8 @@
   <dimension ref="A1:AB1006"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D96" sqref="D96"/>
+      <pane ySplit="6" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -2714,7 +2781,7 @@
     <col min="11" max="11" width="67.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" ht="16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2728,7 +2795,7 @@
       </c>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:28" ht="15">
       <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
@@ -2872,6 +2939,9 @@
       <c r="G8" s="28">
         <v>1820</v>
       </c>
+      <c r="H8" t="s">
+        <v>584</v>
+      </c>
       <c r="K8" s="27" t="s">
         <v>23</v>
       </c>
@@ -3171,6 +3241,9 @@
       <c r="G20" s="28">
         <v>1820</v>
       </c>
+      <c r="H20" t="s">
+        <v>581</v>
+      </c>
       <c r="K20" s="27" t="s">
         <v>50</v>
       </c>
@@ -3193,6 +3266,9 @@
       <c r="G21" s="28">
         <v>1820</v>
       </c>
+      <c r="H21" t="s">
+        <v>581</v>
+      </c>
       <c r="K21" s="27" t="s">
         <v>52</v>
       </c>
@@ -3451,8 +3527,8 @@
       <c r="C32" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="25" t="s">
-        <v>78</v>
+      <c r="D32" s="13" t="s">
+        <v>587</v>
       </c>
       <c r="E32" s="10"/>
       <c r="F32" s="27" t="s">
@@ -3461,8 +3537,11 @@
       <c r="G32" s="28">
         <v>1820</v>
       </c>
+      <c r="H32" t="s">
+        <v>588</v>
+      </c>
       <c r="K32" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.75" customHeight="1">
@@ -3473,10 +3552,10 @@
         <v>28</v>
       </c>
       <c r="C33" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="25" t="s">
         <v>80</v>
-      </c>
-      <c r="D33" s="25" t="s">
-        <v>81</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="27" t="s">
@@ -3497,7 +3576,7 @@
         <v>29</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D34" s="25" t="s">
         <v>27</v>
@@ -3510,10 +3589,10 @@
         <v>1820</v>
       </c>
       <c r="I34" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="K34" s="27" t="s">
         <v>83</v>
-      </c>
-      <c r="K34" s="27" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.75" customHeight="1">
@@ -3524,23 +3603,23 @@
         <v>30</v>
       </c>
       <c r="C35" s="10"/>
-      <c r="D35" s="25" t="s">
+      <c r="D35" s="13" t="s">
+        <v>575</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="F35" s="27" t="s">
         <v>85</v>
-      </c>
-      <c r="E35" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="F35" s="27" t="s">
-        <v>87</v>
       </c>
       <c r="G35" s="28">
         <v>1820</v>
       </c>
       <c r="H35" s="27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K35" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75" customHeight="1">
@@ -3554,7 +3633,7 @@
         <v>39</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="27" t="s">
@@ -3563,6 +3642,9 @@
       <c r="G36" s="28">
         <v>1820</v>
       </c>
+      <c r="H36" t="s">
+        <v>576</v>
+      </c>
       <c r="K36" s="27" t="s">
         <v>31</v>
       </c>
@@ -3575,10 +3657,10 @@
         <v>32</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="27" t="s">
@@ -3602,10 +3684,10 @@
         <v>33</v>
       </c>
       <c r="C38" s="29" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="27" t="s">
@@ -3615,7 +3697,7 @@
         <v>1820</v>
       </c>
       <c r="K38" s="27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="15.75" customHeight="1">
@@ -3630,7 +3712,7 @@
         <v>27</v>
       </c>
       <c r="E39" s="31" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F39" s="27" t="s">
         <v>20</v>
@@ -3639,10 +3721,10 @@
         <v>1820</v>
       </c>
       <c r="I39" s="27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K39" s="27" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.75" customHeight="1">
@@ -3653,13 +3735,13 @@
         <v>35</v>
       </c>
       <c r="C40" s="29" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D40" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F40" s="27" t="s">
         <v>20</v>
@@ -3668,10 +3750,10 @@
         <v>1820</v>
       </c>
       <c r="I40" s="27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K40" s="27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.75" customHeight="1">
@@ -3682,10 +3764,10 @@
         <v>36</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E41" s="10"/>
       <c r="F41" s="27" t="s">
@@ -3695,7 +3777,7 @@
         <v>1820</v>
       </c>
       <c r="K41" s="27" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1">
@@ -3707,7 +3789,7 @@
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E42" s="10"/>
       <c r="F42" s="27" t="s">
@@ -3717,7 +3799,7 @@
         <v>1820</v>
       </c>
       <c r="K42" s="27" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="15.75" customHeight="1">
@@ -3741,10 +3823,10 @@
         <v>1820</v>
       </c>
       <c r="I43" s="27" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J43" s="27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="15.75" customHeight="1">
@@ -3755,23 +3837,23 @@
         <v>39</v>
       </c>
       <c r="C44" s="31" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E44" s="10"/>
       <c r="F44" s="27" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G44" s="28">
         <v>1820</v>
       </c>
       <c r="J44" s="27" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K44" s="27" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="15.75" customHeight="1">
@@ -3783,7 +3865,7 @@
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E45" s="10"/>
       <c r="F45" s="27" t="s">
@@ -3793,7 +3875,7 @@
         <v>1820</v>
       </c>
       <c r="K45" s="27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="15.75" customHeight="1">
@@ -3815,10 +3897,10 @@
         <v>1820</v>
       </c>
       <c r="I46" s="27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K46" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="15.75" customHeight="1">
@@ -3840,10 +3922,10 @@
         <v>1820</v>
       </c>
       <c r="I47" s="27" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K47" s="27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="15.75" customHeight="1">
@@ -3855,7 +3937,7 @@
       </c>
       <c r="C48" s="10"/>
       <c r="D48" s="25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E48" s="10"/>
       <c r="F48" s="27" t="s">
@@ -3865,7 +3947,7 @@
         <v>1820</v>
       </c>
       <c r="H48" s="27" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K48" s="27" t="s">
         <v>31</v>
@@ -3879,10 +3961,10 @@
         <v>44</v>
       </c>
       <c r="C49" s="29" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E49" s="10"/>
       <c r="F49" s="27" t="s">
@@ -3895,7 +3977,7 @@
         <v>2529</v>
       </c>
       <c r="K49" s="27" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="15.75" customHeight="1">
@@ -3907,7 +3989,7 @@
       </c>
       <c r="C50" s="10"/>
       <c r="D50" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E50" s="10"/>
       <c r="F50" s="27" t="s">
@@ -3917,7 +3999,7 @@
         <v>1820</v>
       </c>
       <c r="K50" s="27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="15.75" customHeight="1">
@@ -3939,10 +4021,10 @@
         <v>1820</v>
       </c>
       <c r="I51" s="27" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K51" s="27" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="15.75" customHeight="1">
@@ -3953,7 +4035,7 @@
         <v>47</v>
       </c>
       <c r="C52" s="29" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D52" s="25" t="s">
         <v>27</v>
@@ -3966,10 +4048,10 @@
         <v>1820</v>
       </c>
       <c r="I52" s="27" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K52" s="27" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="15.75" customHeight="1">
@@ -3981,7 +4063,7 @@
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="25" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E53" s="10"/>
       <c r="F53" s="27" t="s">
@@ -3994,10 +4076,10 @@
         <v>2630</v>
       </c>
       <c r="J53" s="27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K53" s="27" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="15.75" customHeight="1">
@@ -4009,7 +4091,7 @@
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E54" s="10"/>
       <c r="F54" s="27" t="s">
@@ -4019,7 +4101,7 @@
         <v>1820</v>
       </c>
       <c r="K54" s="27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="15.75" customHeight="1">
@@ -4041,10 +4123,10 @@
         <v>1820</v>
       </c>
       <c r="I55" s="30" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K55" s="27" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="15.75" customHeight="1">
@@ -4056,7 +4138,7 @@
       </c>
       <c r="C56" s="10"/>
       <c r="D56" s="25" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E56" s="10"/>
       <c r="F56" s="27" t="s">
@@ -4066,7 +4148,7 @@
         <v>1820</v>
       </c>
       <c r="K56" s="27" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="15.75" customHeight="1">
@@ -4078,7 +4160,7 @@
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="25" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E57" s="10"/>
       <c r="F57" s="27" t="s">
@@ -4087,8 +4169,11 @@
       <c r="G57" s="28">
         <v>1820</v>
       </c>
+      <c r="H57" t="s">
+        <v>583</v>
+      </c>
       <c r="K57" s="27" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="13">
@@ -4099,10 +4184,10 @@
         <v>53</v>
       </c>
       <c r="C58" s="29" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E58" s="10"/>
       <c r="F58" s="27" t="s">
@@ -4112,7 +4197,7 @@
         <v>1820</v>
       </c>
       <c r="J58" s="27" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K58" s="27" t="s">
         <v>31</v>
@@ -4127,7 +4212,7 @@
       </c>
       <c r="C59" s="10"/>
       <c r="D59" s="25" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E59" s="10"/>
       <c r="F59" s="27" t="s">
@@ -4137,7 +4222,7 @@
         <v>1820</v>
       </c>
       <c r="K59" s="27" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="13">
@@ -4149,7 +4234,7 @@
       </c>
       <c r="C60" s="10"/>
       <c r="D60" s="25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E60" s="10"/>
       <c r="F60" s="27" t="s">
@@ -4159,7 +4244,7 @@
         <v>1820</v>
       </c>
       <c r="K60" s="27" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="13">
@@ -4170,7 +4255,7 @@
         <v>56</v>
       </c>
       <c r="C61" s="29" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D61" s="25" t="s">
         <v>27</v>
@@ -4183,10 +4268,10 @@
         <v>1820</v>
       </c>
       <c r="I61" s="27" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K61" s="27" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="13">
@@ -4197,7 +4282,7 @@
         <v>57</v>
       </c>
       <c r="C62" s="29" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D62" s="25" t="s">
         <v>27</v>
@@ -4210,13 +4295,13 @@
         <v>1820</v>
       </c>
       <c r="I62" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="J62" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="K62" s="27" t="s">
         <v>151</v>
-      </c>
-      <c r="J62" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="K62" s="27" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="13">
@@ -4227,10 +4312,10 @@
         <v>58</v>
       </c>
       <c r="C63" s="31" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D63" s="25" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E63" s="10"/>
       <c r="F63" s="27" t="s">
@@ -4239,8 +4324,11 @@
       <c r="G63" s="28">
         <v>1820</v>
       </c>
+      <c r="H63" t="s">
+        <v>580</v>
+      </c>
       <c r="K63" s="27" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="13">
@@ -4251,23 +4339,23 @@
         <v>59</v>
       </c>
       <c r="C64" s="29" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D64" s="25" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E64" s="10"/>
       <c r="F64" s="27" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G64" s="28">
         <v>1820</v>
       </c>
       <c r="J64" s="27" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K64" s="27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="13">
@@ -4278,10 +4366,10 @@
         <v>60</v>
       </c>
       <c r="C65" s="29" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D65" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E65" s="10"/>
       <c r="F65" s="27" t="s">
@@ -4290,8 +4378,11 @@
       <c r="G65" s="28">
         <v>1820</v>
       </c>
+      <c r="H65" t="s">
+        <v>577</v>
+      </c>
       <c r="K65" s="27" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="13">
@@ -4302,10 +4393,10 @@
         <v>61</v>
       </c>
       <c r="C66" s="29" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E66" s="10"/>
       <c r="F66" s="27" t="s">
@@ -4315,13 +4406,13 @@
         <v>1820</v>
       </c>
       <c r="H66" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="J66" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="K66" s="27" t="s">
         <v>165</v>
-      </c>
-      <c r="J66" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="K66" s="27" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="13">
@@ -4332,10 +4423,10 @@
         <v>62</v>
       </c>
       <c r="C67" s="29" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D67" s="25" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E67" s="10"/>
       <c r="F67" s="27" t="s">
@@ -4344,6 +4435,9 @@
       <c r="G67" s="28">
         <v>1820</v>
       </c>
+      <c r="H67" t="s">
+        <v>579</v>
+      </c>
       <c r="K67" s="27" t="s">
         <v>76</v>
       </c>
@@ -4356,10 +4450,10 @@
         <v>63</v>
       </c>
       <c r="C68" s="29" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D68" s="25" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E68" s="10"/>
       <c r="F68" s="27" t="s">
@@ -4369,7 +4463,7 @@
         <v>1820</v>
       </c>
       <c r="K68" s="27" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="13">
@@ -4381,7 +4475,7 @@
       </c>
       <c r="C69" s="10"/>
       <c r="D69" s="25" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E69" s="10"/>
       <c r="F69" s="27" t="s">
@@ -4394,7 +4488,7 @@
         <v>3176</v>
       </c>
       <c r="K69" s="27" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="13">
@@ -4406,7 +4500,7 @@
       </c>
       <c r="C70" s="10"/>
       <c r="D70" s="25" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E70" s="10"/>
       <c r="F70" s="27" t="s">
@@ -4416,7 +4510,7 @@
         <v>1820</v>
       </c>
       <c r="K70" s="27" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="13">
@@ -4428,7 +4522,7 @@
       </c>
       <c r="C71" s="10"/>
       <c r="D71" s="25" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E71" s="10"/>
       <c r="F71" s="27" t="s">
@@ -4450,7 +4544,7 @@
       </c>
       <c r="C72" s="10"/>
       <c r="D72" s="25" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E72" s="10"/>
       <c r="F72" s="27" t="s">
@@ -4472,7 +4566,7 @@
       </c>
       <c r="C73" s="10"/>
       <c r="D73" s="25" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E73" s="10"/>
       <c r="F73" s="27" t="s">
@@ -4482,7 +4576,7 @@
         <v>1820</v>
       </c>
       <c r="K73" s="27" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="13">
@@ -4494,7 +4588,7 @@
       </c>
       <c r="C74" s="10"/>
       <c r="D74" s="25" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E74" s="10"/>
       <c r="F74" s="27" t="s">
@@ -4504,7 +4598,7 @@
         <v>1820</v>
       </c>
       <c r="K74" s="27" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="13">
@@ -4516,7 +4610,7 @@
       </c>
       <c r="C75" s="10"/>
       <c r="D75" s="25" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E75" s="10"/>
       <c r="F75" s="27" t="s">
@@ -4526,7 +4620,7 @@
         <v>1820</v>
       </c>
       <c r="K75" s="27" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="13">
@@ -4537,10 +4631,10 @@
         <v>71</v>
       </c>
       <c r="C76" s="29" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E76" s="10"/>
       <c r="F76" s="27" t="s">
@@ -4550,10 +4644,10 @@
         <v>1820</v>
       </c>
       <c r="J76" s="27" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K76" s="27" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="13">
@@ -4565,7 +4659,7 @@
       </c>
       <c r="C77" s="10"/>
       <c r="D77" s="25" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E77" s="10"/>
       <c r="F77" s="27" t="s">
@@ -4575,10 +4669,10 @@
         <v>1820</v>
       </c>
       <c r="J77" s="27" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K77" s="27" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="13">
@@ -4589,10 +4683,10 @@
         <v>73</v>
       </c>
       <c r="C78" s="29" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D78" s="25" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E78" s="10"/>
       <c r="F78" s="27" t="s">
@@ -4602,7 +4696,7 @@
         <v>1820</v>
       </c>
       <c r="J78" s="27" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K78" s="27" t="s">
         <v>31</v>
@@ -4617,7 +4711,7 @@
       </c>
       <c r="C79" s="10"/>
       <c r="D79" s="25" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E79" s="10"/>
       <c r="F79" s="27" t="s">
@@ -4627,7 +4721,7 @@
         <v>1820</v>
       </c>
       <c r="K79" s="27" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="13">
@@ -4649,10 +4743,10 @@
         <v>1770</v>
       </c>
       <c r="I80" s="27" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K80" s="27" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="13">
@@ -4663,10 +4757,10 @@
         <v>76</v>
       </c>
       <c r="C81" s="29" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D81" s="25" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E81" s="10"/>
       <c r="F81" s="27" t="s">
@@ -4676,10 +4770,10 @@
         <v>1820</v>
       </c>
       <c r="H81" s="27" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J81" s="27" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K81" s="27" t="s">
         <v>76</v>
@@ -4693,26 +4787,26 @@
         <v>77</v>
       </c>
       <c r="C82" s="29" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D82" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E82" s="10"/>
       <c r="F82" s="27" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G82" s="28">
         <v>1820</v>
       </c>
       <c r="I82" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="J82" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="K82" s="27" t="s">
         <v>205</v>
-      </c>
-      <c r="J82" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="K82" s="27" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="13">
@@ -4723,10 +4817,10 @@
         <v>78</v>
       </c>
       <c r="C83" s="29" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D83" s="25" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E83" s="10"/>
       <c r="F83" s="27" t="s">
@@ -4735,8 +4829,11 @@
       <c r="G83" s="28">
         <v>1820</v>
       </c>
+      <c r="H83" s="47" t="s">
+        <v>586</v>
+      </c>
       <c r="K83" s="27" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="13">
@@ -4748,7 +4845,7 @@
       </c>
       <c r="C84" s="10"/>
       <c r="D84" s="25" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E84" s="10"/>
       <c r="F84" s="27" t="s">
@@ -4761,7 +4858,7 @@
         <v>920991</v>
       </c>
       <c r="K84" s="27" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="13">
@@ -4773,7 +4870,7 @@
       </c>
       <c r="C85" s="10"/>
       <c r="D85" s="25" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E85" s="10"/>
       <c r="F85" s="27" t="s">
@@ -4783,10 +4880,10 @@
         <v>1820</v>
       </c>
       <c r="H85" s="27" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K85" s="27" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="13">
@@ -4807,11 +4904,14 @@
       <c r="G86" s="28">
         <v>1820</v>
       </c>
+      <c r="H86" s="27" t="s">
+        <v>212</v>
+      </c>
       <c r="I86" s="27" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K86" s="27" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="13">
@@ -4823,7 +4923,7 @@
       </c>
       <c r="C87" s="10"/>
       <c r="D87" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E87" s="10"/>
       <c r="F87" s="27" t="s">
@@ -4833,7 +4933,7 @@
         <v>1820</v>
       </c>
       <c r="K87" s="27" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="13">
@@ -4844,7 +4944,7 @@
         <v>83</v>
       </c>
       <c r="C88" s="29" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D88" s="25" t="s">
         <v>27</v>
@@ -4860,10 +4960,10 @@
         <v>5673</v>
       </c>
       <c r="I88" s="27" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K88" s="27" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="13">
@@ -4874,7 +4974,7 @@
         <v>84</v>
       </c>
       <c r="C89" s="29" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D89" s="25" t="s">
         <v>27</v>
@@ -4887,13 +4987,13 @@
         <v>1820</v>
       </c>
       <c r="H89" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="I89" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="J89" s="30" t="s">
         <v>224</v>
-      </c>
-      <c r="I89" s="27" t="s">
-        <v>225</v>
-      </c>
-      <c r="J89" s="30" t="s">
-        <v>226</v>
       </c>
       <c r="K89" s="27" t="s">
         <v>31</v>
@@ -4901,29 +5001,29 @@
     </row>
     <row r="90" spans="1:11" ht="13">
       <c r="A90" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B90" s="26">
         <v>1</v>
       </c>
       <c r="C90" s="10"/>
       <c r="D90" s="25" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E90" s="10"/>
       <c r="F90" s="27" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G90" s="28">
         <v>1820</v>
       </c>
       <c r="K90" s="27" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="13">
       <c r="A91" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B91" s="26">
         <v>2</v>
@@ -4932,22 +5032,22 @@
         <v>59</v>
       </c>
       <c r="D91" s="25" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E91" s="10"/>
       <c r="F91" s="27" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G91" s="28">
         <v>1820</v>
       </c>
       <c r="K91" s="27" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="13">
       <c r="A92" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B92" s="26">
         <v>3</v>
@@ -4958,108 +5058,108 @@
       </c>
       <c r="E92" s="10"/>
       <c r="F92" s="27" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G92" s="28">
         <v>1820</v>
       </c>
       <c r="I92" s="27" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K92" s="27" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="13">
       <c r="A93" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B93" s="26">
         <v>4</v>
       </c>
       <c r="C93" s="29" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D93" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E93" s="10"/>
       <c r="F93" s="27" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G93" s="28">
         <v>1820</v>
       </c>
       <c r="I93" s="27" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K93" s="27" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="13">
       <c r="A94" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B94" s="26">
         <v>5</v>
       </c>
       <c r="C94" s="10"/>
       <c r="D94" s="25" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E94" s="10"/>
       <c r="F94" s="27" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G94" s="28">
         <v>1820</v>
       </c>
       <c r="K94" s="27" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="13">
       <c r="A95" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B95" s="26">
         <v>6</v>
       </c>
       <c r="C95" s="29" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D95" s="25" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E95" s="10"/>
       <c r="F95" s="27" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G95" s="28">
         <v>1820</v>
       </c>
       <c r="J95" s="33" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K95" s="27" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="13">
       <c r="A96" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B96" s="26">
         <v>7</v>
       </c>
       <c r="C96" s="10"/>
-      <c r="D96" s="13" t="s">
-        <v>573</v>
+      <c r="D96" s="25" t="s">
+        <v>243</v>
       </c>
       <c r="E96" s="10"/>
       <c r="F96" s="27" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G96" s="28">
         <v>1820</v>
@@ -5068,248 +5168,251 @@
         <v>5004</v>
       </c>
       <c r="J96" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="K96" s="27" t="s">
         <v>246</v>
-      </c>
-      <c r="K96" s="27" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="13">
       <c r="A97" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B97" s="26">
         <v>8</v>
       </c>
       <c r="C97" s="31" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D97" s="25" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E97" s="10"/>
       <c r="F97" s="27" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G97" s="28">
         <v>1820</v>
       </c>
       <c r="K97" s="27" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="13">
       <c r="A98" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B98" s="26">
         <v>9</v>
       </c>
       <c r="C98" s="29" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D98" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E98" s="10"/>
       <c r="F98" s="27" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G98" s="28">
         <v>1820</v>
       </c>
       <c r="H98" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="I98" s="27" t="s">
         <v>252</v>
       </c>
-      <c r="I98" s="27" t="s">
-        <v>253</v>
-      </c>
       <c r="K98" s="27" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="13">
       <c r="A99" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B99" s="26">
         <v>10</v>
       </c>
       <c r="C99" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="D99" s="25" t="s">
         <v>254</v>
-      </c>
-      <c r="D99" s="25" t="s">
-        <v>255</v>
       </c>
       <c r="E99" s="10"/>
       <c r="F99" s="27" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G99" s="28">
         <v>1820</v>
       </c>
       <c r="K99" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="13">
       <c r="A100" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B100" s="26">
         <v>11</v>
       </c>
       <c r="C100" s="31" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D100" s="25" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E100" s="10"/>
       <c r="F100" s="27" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G100" s="28">
         <v>1820</v>
       </c>
       <c r="K100" s="27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="13">
       <c r="A101" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B101" s="26">
         <v>12</v>
       </c>
       <c r="C101" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="D101" s="25" t="s">
         <v>259</v>
-      </c>
-      <c r="D101" s="25" t="s">
-        <v>260</v>
       </c>
       <c r="E101" s="10"/>
       <c r="F101" s="27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G101" s="28">
         <v>1820</v>
       </c>
+      <c r="H101" t="s">
+        <v>589</v>
+      </c>
       <c r="J101" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="K101" s="27" t="s">
         <v>262</v>
-      </c>
-      <c r="K101" s="27" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="13">
       <c r="A102" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B102" s="26">
         <v>13</v>
       </c>
       <c r="C102" s="31" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D102" s="25" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E102" s="10"/>
       <c r="F102" s="27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G102" s="28">
         <v>1820</v>
       </c>
       <c r="H102" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="J102" s="33" t="s">
         <v>266</v>
       </c>
-      <c r="J102" s="33" t="s">
+      <c r="K102" s="27" t="s">
         <v>267</v>
-      </c>
-      <c r="K102" s="27" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="13">
       <c r="A103" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B103" s="26">
         <v>14</v>
       </c>
       <c r="C103" s="31" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D103" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E103" s="10"/>
       <c r="F103" s="27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G103" s="28">
         <v>1820</v>
       </c>
       <c r="I103" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="J103" s="33" t="s">
         <v>270</v>
       </c>
-      <c r="J103" s="33" t="s">
+      <c r="K103" s="27" t="s">
         <v>271</v>
-      </c>
-      <c r="K103" s="27" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="13">
       <c r="A104" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B104" s="26">
         <v>15</v>
       </c>
       <c r="C104" s="29" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D104" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E104" s="10"/>
       <c r="F104" s="27" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G104" s="28">
         <v>1820</v>
       </c>
       <c r="H104" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="I104" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="I104" s="27" t="s">
+      <c r="J104" s="33" t="s">
         <v>276</v>
       </c>
-      <c r="J104" s="33" t="s">
+      <c r="K104" s="27" t="s">
         <v>277</v>
-      </c>
-      <c r="K104" s="27" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="13">
       <c r="A105" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B105" s="26">
         <v>16</v>
       </c>
       <c r="C105" s="10"/>
       <c r="D105" s="25" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E105" s="10"/>
       <c r="F105" s="27" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G105" s="28">
         <v>1820</v>
@@ -5318,26 +5421,26 @@
         <v>5385</v>
       </c>
       <c r="J105" s="27" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K105" s="27" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="13">
       <c r="A106" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B106" s="26">
         <v>17</v>
       </c>
       <c r="C106" s="10"/>
       <c r="D106" s="25" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E106" s="10"/>
       <c r="F106" s="27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G106" s="28">
         <v>1820</v>
@@ -5346,52 +5449,55 @@
         <v>5415</v>
       </c>
       <c r="K106" s="27" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="107" spans="1:11" ht="13">
       <c r="A107" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B107" s="26">
         <v>18</v>
       </c>
       <c r="C107" s="29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D107" s="25" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E107" s="10"/>
       <c r="F107" s="27" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G107" s="28">
         <v>1820</v>
       </c>
+      <c r="H107" t="s">
+        <v>582</v>
+      </c>
       <c r="J107" s="33" t="s">
+        <v>285</v>
+      </c>
+      <c r="K107" s="27" t="s">
         <v>286</v>
-      </c>
-      <c r="K107" s="27" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="13">
       <c r="A108" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B108" s="26">
         <v>19</v>
       </c>
       <c r="C108" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D108" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E108" s="10"/>
       <c r="F108" s="27" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G108" s="28">
         <v>1820</v>
@@ -5400,18 +5506,18 @@
         <v>5440</v>
       </c>
       <c r="I108" s="27" t="s">
+        <v>289</v>
+      </c>
+      <c r="J108" s="33" t="s">
         <v>290</v>
       </c>
-      <c r="J108" s="33" t="s">
+      <c r="K108" s="27" t="s">
         <v>291</v>
-      </c>
-      <c r="K108" s="27" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="13">
       <c r="A109" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B109" s="26">
         <v>20</v>
@@ -5422,7 +5528,7 @@
       </c>
       <c r="E109" s="10"/>
       <c r="F109" s="27" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G109" s="28">
         <v>1820</v>
@@ -5431,22 +5537,22 @@
         <v>5504</v>
       </c>
       <c r="I109" s="27" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K109" s="27" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="13">
       <c r="A110" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B110" s="26">
         <v>21</v>
       </c>
       <c r="C110" s="10"/>
       <c r="D110" s="25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E110" s="10"/>
       <c r="F110" s="27" t="s">
@@ -5464,7 +5570,7 @@
     </row>
     <row r="111" spans="1:11" ht="13">
       <c r="A111" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B111" s="26">
         <v>22</v>
@@ -5481,24 +5587,24 @@
         <v>1820</v>
       </c>
       <c r="I111" s="27" t="s">
+        <v>295</v>
+      </c>
+      <c r="K111" s="27" t="s">
         <v>296</v>
-      </c>
-      <c r="K111" s="27" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="112" spans="1:11" ht="13">
       <c r="A112" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B112" s="26">
         <v>23</v>
       </c>
       <c r="C112" s="29" t="s">
+        <v>297</v>
+      </c>
+      <c r="D112" s="25" t="s">
         <v>298</v>
-      </c>
-      <c r="D112" s="25" t="s">
-        <v>299</v>
       </c>
       <c r="E112" s="10"/>
       <c r="F112" s="27" t="s">
@@ -5508,21 +5614,21 @@
         <v>1820</v>
       </c>
       <c r="K112" s="27" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="113" spans="1:11" ht="13">
       <c r="A113" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B113" s="26">
         <v>24</v>
       </c>
       <c r="C113" s="29" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D113" s="25" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E113" s="10"/>
       <c r="F113" s="27" t="s">
@@ -5532,21 +5638,21 @@
         <v>1820</v>
       </c>
       <c r="K113" s="27" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="114" spans="1:11" ht="13">
       <c r="A114" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B114" s="26">
         <v>25</v>
       </c>
       <c r="C114" s="29" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D114" s="25" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E114" s="10"/>
       <c r="F114" s="27" t="s">
@@ -5556,12 +5662,12 @@
         <v>1820</v>
       </c>
       <c r="K114" s="27" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="13">
       <c r="A115" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B115" s="26">
         <v>26</v>
@@ -5577,8 +5683,11 @@
       <c r="G115" s="28">
         <v>1820</v>
       </c>
+      <c r="H115" t="s">
+        <v>578</v>
+      </c>
       <c r="I115" s="27" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K115" s="27" t="s">
         <v>76</v>
@@ -5586,7 +5695,7 @@
     </row>
     <row r="116" spans="1:11" ht="13">
       <c r="A116" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B116" s="26">
         <v>27</v>
@@ -5608,26 +5717,26 @@
         <v>5643</v>
       </c>
       <c r="I116" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="K116" s="27" t="s">
         <v>306</v>
-      </c>
-      <c r="K116" s="27" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="13">
       <c r="A117" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B117" s="26">
         <v>28</v>
       </c>
       <c r="C117" s="10"/>
       <c r="D117" s="25" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E117" s="10"/>
       <c r="F117" s="27" t="s">
-        <v>20</v>
+        <v>308</v>
       </c>
       <c r="G117" s="28">
         <v>1820</v>
@@ -5641,7 +5750,7 @@
     </row>
     <row r="118" spans="1:11" ht="13">
       <c r="A118" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B118" s="26">
         <v>29</v>
@@ -5652,7 +5761,7 @@
       </c>
       <c r="E118" s="10"/>
       <c r="F118" s="27" t="s">
-        <v>20</v>
+        <v>308</v>
       </c>
       <c r="G118" s="28">
         <v>1820</v>
@@ -5663,20 +5772,20 @@
       <c r="I118" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="K118" s="27" t="s">
-        <v>31</v>
+      <c r="K118" s="35" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="13">
       <c r="A119" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B119" s="26">
         <v>30</v>
       </c>
       <c r="C119" s="10"/>
       <c r="D119" s="25" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E119" s="10"/>
       <c r="F119" s="27" t="s">
@@ -5686,19 +5795,19 @@
         <v>1820</v>
       </c>
       <c r="K119" s="27" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="13">
       <c r="A120" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B120" s="26">
         <v>31</v>
       </c>
       <c r="C120" s="10"/>
       <c r="D120" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E120" s="10"/>
       <c r="F120" s="27" t="s">
@@ -5708,7 +5817,7 @@
         <v>1820</v>
       </c>
       <c r="H120" s="27" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K120" s="27" t="s">
         <v>31</v>
@@ -5716,17 +5825,17 @@
     </row>
     <row r="121" spans="1:11" ht="13">
       <c r="A121" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B121" s="26">
         <v>32</v>
       </c>
       <c r="C121" s="10"/>
       <c r="D121" s="25" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E121" s="31" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F121" s="27" t="s">
         <v>20</v>
@@ -5738,19 +5847,19 @@
         <v>5804</v>
       </c>
       <c r="K121" s="27" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="122" spans="1:11" ht="13">
       <c r="A122" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B122" s="26">
         <v>33</v>
       </c>
       <c r="C122" s="10"/>
       <c r="D122" s="25" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E122" s="10"/>
       <c r="F122" s="27" t="s">
@@ -5768,14 +5877,14 @@
     </row>
     <row r="123" spans="1:11" ht="13">
       <c r="A123" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B123" s="26">
         <v>34</v>
       </c>
       <c r="C123" s="10"/>
       <c r="D123" s="25" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E123" s="10"/>
       <c r="F123" s="27" t="s">
@@ -5788,19 +5897,19 @@
         <v>5828</v>
       </c>
       <c r="K123" s="27" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="124" spans="1:11" ht="13">
       <c r="A124" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B124" s="26">
         <v>35</v>
       </c>
       <c r="C124" s="10"/>
       <c r="D124" s="25" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E124" s="10"/>
       <c r="F124" s="27" t="s">
@@ -5810,15 +5919,15 @@
         <v>1820</v>
       </c>
       <c r="H124" s="27" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K124" s="27" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="13">
       <c r="A125" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B125" s="26">
         <v>36</v>
@@ -5835,18 +5944,18 @@
         <v>1820</v>
       </c>
       <c r="H125" s="27" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I125" s="27" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K125" s="27" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="126" spans="1:11" ht="13">
       <c r="A126" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B126" s="26">
         <v>37</v>
@@ -5863,15 +5972,15 @@
         <v>1820</v>
       </c>
       <c r="I126" s="27" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K126" s="27" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="127" spans="1:11" ht="13">
       <c r="A127" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B127" s="26">
         <v>38</v>
@@ -5893,14 +6002,14 @@
     </row>
     <row r="128" spans="1:11" ht="13">
       <c r="A128" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B128" s="26">
         <v>39</v>
       </c>
       <c r="C128" s="10"/>
       <c r="D128" s="25" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E128" s="10"/>
       <c r="F128" s="27" t="s">
@@ -5909,13 +6018,16 @@
       <c r="G128" s="28">
         <v>1830</v>
       </c>
+      <c r="H128" t="s">
+        <v>584</v>
+      </c>
       <c r="K128" s="27" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="129" spans="1:11" ht="13">
       <c r="A129" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B129" s="26">
         <v>40</v>
@@ -5932,12 +6044,12 @@
         <v>1830</v>
       </c>
       <c r="K129" s="27" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="130" spans="1:11" ht="15">
       <c r="A130" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B130" s="26">
         <v>41</v>
@@ -5948,21 +6060,21 @@
       </c>
       <c r="E130" s="10"/>
       <c r="F130" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G130" s="28">
         <v>1830</v>
       </c>
-      <c r="I130" s="35" t="s">
-        <v>332</v>
-      </c>
-      <c r="K130" s="35" t="s">
+      <c r="I130" s="36" t="s">
         <v>333</v>
+      </c>
+      <c r="K130" s="36" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="131" spans="1:11" ht="13">
       <c r="A131" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B131" s="26">
         <v>42</v>
@@ -5987,14 +6099,14 @@
     </row>
     <row r="132" spans="1:11" ht="13">
       <c r="A132" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B132" s="26">
         <v>43</v>
       </c>
       <c r="C132" s="10"/>
       <c r="D132" s="25" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E132" s="10"/>
       <c r="F132" s="27" t="s">
@@ -6004,19 +6116,19 @@
         <v>1830</v>
       </c>
       <c r="K132" s="27" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="133" spans="1:11" ht="13">
       <c r="A133" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B133" s="26">
         <v>44</v>
       </c>
       <c r="C133" s="10"/>
       <c r="D133" s="25" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E133" s="10"/>
       <c r="F133" s="27" t="s">
@@ -6026,12 +6138,12 @@
         <v>1830</v>
       </c>
       <c r="K133" s="27" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="134" spans="1:11" ht="13">
       <c r="A134" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B134" s="26">
         <v>45</v>
@@ -6042,145 +6154,145 @@
       </c>
       <c r="E134" s="10"/>
       <c r="F134" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G134" s="28">
         <v>1830</v>
       </c>
       <c r="I134" s="27" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="J134" s="27" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K134" s="27" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="135" spans="1:11" ht="13">
       <c r="A135" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B135" s="26">
         <v>46</v>
       </c>
       <c r="C135" s="10"/>
       <c r="D135" s="25" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E135" s="10"/>
       <c r="F135" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G135" s="28">
         <v>1830</v>
       </c>
       <c r="J135" s="27" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K135" s="27" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="136" spans="1:11" ht="13">
       <c r="A136" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B136" s="26">
         <v>47</v>
       </c>
       <c r="C136" s="29" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D136" s="25" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E136" s="10"/>
       <c r="F136" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G136" s="28">
         <v>1830</v>
       </c>
       <c r="K136" s="27" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="137" spans="1:11" ht="15">
       <c r="A137" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B137" s="26">
         <v>48</v>
       </c>
       <c r="C137" s="29" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D137" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E137" s="10"/>
       <c r="F137" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G137" s="28">
         <v>1830</v>
       </c>
-      <c r="I137" s="35" t="s">
-        <v>162</v>
+      <c r="I137" s="36" t="s">
+        <v>160</v>
       </c>
       <c r="J137" s="27"/>
-      <c r="K137" s="36" t="s">
-        <v>346</v>
+      <c r="K137" s="35" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="138" spans="1:11" ht="13">
       <c r="A138" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B138" s="26">
         <v>49</v>
       </c>
       <c r="C138" s="10"/>
       <c r="D138" s="25" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E138" s="10"/>
       <c r="F138" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G138" s="28">
         <v>1830</v>
       </c>
       <c r="K138" s="27" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="139" spans="1:11" ht="13">
       <c r="A139" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B139" s="26">
         <v>50</v>
       </c>
       <c r="C139" s="10"/>
       <c r="D139" s="25" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E139" s="10"/>
       <c r="F139" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G139" s="28">
         <v>1830</v>
       </c>
       <c r="K139" s="27" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="140" spans="1:11" ht="15">
       <c r="A140" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B140" s="26">
         <v>51</v>
@@ -6191,47 +6303,47 @@
       </c>
       <c r="E140" s="10"/>
       <c r="F140" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G140" s="28">
         <v>1830</v>
       </c>
-      <c r="I140" s="35" t="s">
-        <v>350</v>
+      <c r="I140" s="36" t="s">
+        <v>351</v>
       </c>
       <c r="K140" s="27" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="141" spans="1:11" ht="13">
       <c r="A141" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B141" s="26">
         <v>52</v>
       </c>
       <c r="C141" s="31" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D141" s="25" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E141" s="31" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F141" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G141" s="28">
         <v>1830</v>
       </c>
       <c r="K141" s="27" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="142" spans="1:11" ht="13">
       <c r="A142" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B142" s="26">
         <v>53</v>
@@ -6240,86 +6352,89 @@
         <v>39</v>
       </c>
       <c r="D142" s="25" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E142" s="10"/>
       <c r="F142" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G142" s="28">
         <v>1830</v>
       </c>
+      <c r="H142" s="27" t="s">
+        <v>357</v>
+      </c>
       <c r="K142" s="27" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="143" spans="1:11" ht="15">
       <c r="A143" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B143" s="26">
         <v>54</v>
       </c>
       <c r="C143" s="29" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D143" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E143" s="10"/>
       <c r="F143" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G143" s="28">
         <v>1830</v>
       </c>
-      <c r="I143" s="35" t="s">
-        <v>358</v>
+      <c r="I143" s="36" t="s">
+        <v>360</v>
       </c>
       <c r="K143" s="27" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="144" spans="1:11" ht="13">
       <c r="A144" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B144" s="26">
         <v>55</v>
       </c>
       <c r="C144" s="29" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D144" s="25" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E144" s="10"/>
       <c r="F144" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G144" s="28">
         <v>1830</v>
       </c>
       <c r="K144" s="27" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="145" spans="1:11" ht="15">
       <c r="A145" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B145" s="26">
         <v>56</v>
       </c>
       <c r="C145" s="29" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D145" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E145" s="10"/>
       <c r="F145" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G145" s="28">
         <v>1830</v>
@@ -6327,189 +6442,198 @@
       <c r="H145" s="27">
         <v>3559</v>
       </c>
-      <c r="I145" s="35" t="s">
-        <v>364</v>
+      <c r="I145" s="36" t="s">
+        <v>366</v>
       </c>
       <c r="K145" s="27"/>
     </row>
     <row r="146" spans="1:11" ht="13">
       <c r="A146" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B146" s="26">
         <v>57</v>
       </c>
       <c r="C146" s="10"/>
       <c r="D146" s="25" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E146" s="10"/>
       <c r="F146" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G146" s="28">
         <v>1830</v>
       </c>
+      <c r="H146" t="s">
+        <v>580</v>
+      </c>
       <c r="K146" s="27" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="147" spans="1:11" ht="13">
       <c r="A147" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B147" s="26">
         <v>58</v>
       </c>
       <c r="C147" s="10"/>
       <c r="D147" s="25" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E147" s="10"/>
       <c r="F147" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G147" s="28">
         <v>1830</v>
       </c>
       <c r="K147" s="27" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="148" spans="1:11" ht="13">
       <c r="A148" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B148" s="26">
         <v>59</v>
       </c>
       <c r="C148" s="10"/>
       <c r="D148" s="25" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E148" s="10"/>
       <c r="F148" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G148" s="28">
         <v>1830</v>
       </c>
       <c r="K148" s="27" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="149" spans="1:11" ht="13">
       <c r="A149" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B149" s="26">
         <v>60</v>
       </c>
       <c r="C149" s="29" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D149" s="25" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E149" s="10"/>
       <c r="F149" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G149" s="28">
         <v>1830</v>
       </c>
+      <c r="H149" t="s">
+        <v>579</v>
+      </c>
       <c r="K149" s="27" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="150" spans="1:11" ht="15">
       <c r="A150" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B150" s="26">
         <v>61</v>
       </c>
       <c r="C150" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D150" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E150" s="10"/>
       <c r="F150" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G150" s="28">
         <v>1830</v>
       </c>
-      <c r="I150" s="35" t="s">
-        <v>371</v>
+      <c r="I150" s="36" t="s">
+        <v>373</v>
       </c>
       <c r="J150" s="27" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="K150" s="27" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="151" spans="1:11" ht="13">
       <c r="A151" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B151" s="26">
         <v>62</v>
       </c>
       <c r="C151" s="10"/>
       <c r="D151" s="25" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="E151" s="10"/>
       <c r="F151" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G151" s="28">
         <v>1830</v>
       </c>
       <c r="K151" s="27" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="152" spans="1:11" ht="13">
       <c r="A152" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B152" s="26">
         <v>63</v>
       </c>
       <c r="C152" s="10"/>
       <c r="D152" s="25" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E152" s="10"/>
       <c r="F152" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G152" s="28">
         <v>1830</v>
       </c>
+      <c r="H152">
+        <v>3176</v>
+      </c>
       <c r="K152" s="27" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="153" spans="1:11" ht="13">
       <c r="A153" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B153" s="26">
         <v>64</v>
       </c>
       <c r="C153" s="10"/>
       <c r="D153" s="25" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E153" s="10"/>
       <c r="F153" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G153" s="28">
         <v>1830</v>
@@ -6518,128 +6642,128 @@
         <v>3112</v>
       </c>
       <c r="K153" s="27" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="154" spans="1:11" ht="13">
       <c r="A154" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B154" s="26">
         <v>65</v>
       </c>
       <c r="C154" s="10"/>
       <c r="D154" s="25" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E154" s="10"/>
       <c r="F154" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G154" s="28">
         <v>1830</v>
       </c>
       <c r="K154" s="27" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="155" spans="1:11" ht="14">
       <c r="A155" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B155" s="26">
         <v>66</v>
       </c>
       <c r="C155" s="29" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D155" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E155" s="10"/>
       <c r="F155" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G155" s="28">
         <v>1830</v>
       </c>
       <c r="H155" s="27" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K155" s="37" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="156" spans="1:11" ht="15">
       <c r="A156" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B156" s="26">
         <v>67</v>
       </c>
       <c r="C156" s="31" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D156" s="25" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E156" s="10"/>
       <c r="F156" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G156" s="28">
         <v>1830</v>
       </c>
       <c r="H156" s="38" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K156" s="27" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="157" spans="1:11" ht="15">
       <c r="A157" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B157" s="26">
         <v>68</v>
       </c>
       <c r="C157" s="29" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D157" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E157" s="10"/>
       <c r="F157" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G157" s="28">
         <v>1830</v>
       </c>
-      <c r="I157" s="35" t="s">
-        <v>122</v>
+      <c r="I157" s="36" t="s">
+        <v>120</v>
       </c>
       <c r="K157" s="27" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="158" spans="1:11" ht="15">
       <c r="A158" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B158" s="26">
         <v>69</v>
       </c>
       <c r="C158" s="29" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D158" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E158" s="10"/>
       <c r="F158" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G158" s="28">
         <v>1830</v>
@@ -6647,51 +6771,51 @@
       <c r="H158" s="27">
         <v>2529</v>
       </c>
-      <c r="I158" s="35" t="s">
-        <v>382</v>
+      <c r="I158" s="36" t="s">
+        <v>384</v>
       </c>
       <c r="K158" s="30" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="159" spans="1:11" ht="13">
       <c r="A159" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B159" s="26">
         <v>70</v>
       </c>
       <c r="C159" s="29" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D159" s="25" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E159" s="10"/>
       <c r="F159" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G159" s="28">
         <v>1830</v>
       </c>
       <c r="K159" s="30" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="160" spans="1:11" ht="13">
       <c r="A160" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B160" s="26">
         <v>71</v>
       </c>
       <c r="C160" s="10"/>
       <c r="D160" s="25" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E160" s="10"/>
       <c r="F160" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G160" s="28">
         <v>1830</v>
@@ -6699,7 +6823,7 @@
     </row>
     <row r="161" spans="1:11" ht="15">
       <c r="A161" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B161" s="26">
         <v>72</v>
@@ -6710,34 +6834,34 @@
       </c>
       <c r="E161" s="10"/>
       <c r="F161" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G161" s="28">
         <v>1830</v>
       </c>
-      <c r="I161" s="35" t="s">
-        <v>386</v>
+      <c r="I161" s="36" t="s">
+        <v>388</v>
       </c>
       <c r="K161" s="27" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="162" spans="1:11" ht="13">
       <c r="A162" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B162" s="26">
         <v>73</v>
       </c>
       <c r="C162" s="29" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D162" s="25" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="E162" s="10"/>
       <c r="F162" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G162" s="28">
         <v>1830</v>
@@ -6746,251 +6870,251 @@
         <v>2630</v>
       </c>
       <c r="K162" s="27" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="163" spans="1:11" ht="13">
       <c r="A163" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B163" s="26">
         <v>74</v>
       </c>
       <c r="C163" s="10"/>
       <c r="D163" s="25" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E163" s="10"/>
       <c r="F163" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G163" s="28">
         <v>1830</v>
       </c>
       <c r="K163" s="27" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="164" spans="1:11" ht="15">
       <c r="A164" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B164" s="26">
         <v>75</v>
       </c>
       <c r="C164" s="29" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D164" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E164" s="10"/>
       <c r="F164" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G164" s="28">
         <v>1830</v>
       </c>
-      <c r="I164" s="35" t="s">
-        <v>393</v>
-      </c>
-      <c r="K164" s="35" t="s">
-        <v>394</v>
+      <c r="I164" s="36" t="s">
+        <v>395</v>
+      </c>
+      <c r="K164" s="36" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="165" spans="1:11" ht="13">
       <c r="A165" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B165" s="26">
         <v>76</v>
       </c>
       <c r="C165" s="10"/>
       <c r="D165" s="25" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E165" s="10"/>
       <c r="F165" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G165" s="28">
         <v>1830</v>
       </c>
       <c r="K165" s="27" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="166" spans="1:11" ht="13">
       <c r="A166" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B166" s="26">
         <v>77</v>
       </c>
       <c r="C166" s="29" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D166" s="25" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E166" s="10"/>
       <c r="F166" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G166" s="28">
         <v>1830</v>
       </c>
       <c r="K166" s="27" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="167" spans="1:11" ht="13">
       <c r="A167" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B167" s="26">
         <v>78</v>
       </c>
       <c r="C167" s="29" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D167" s="25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E167" s="10"/>
       <c r="F167" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G167" s="28">
         <v>1830</v>
       </c>
       <c r="K167" s="27" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="168" spans="1:11" ht="13">
       <c r="A168" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B168" s="26">
         <v>79</v>
       </c>
       <c r="C168" s="10"/>
       <c r="D168" s="25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E168" s="10"/>
       <c r="F168" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G168" s="28">
         <v>1830</v>
       </c>
       <c r="K168" s="27" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="169" spans="1:11" ht="15">
       <c r="A169" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B169" s="26">
         <v>80</v>
       </c>
       <c r="C169" s="31" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D169" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E169" s="10"/>
       <c r="F169" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G169" s="28">
         <v>1830</v>
       </c>
-      <c r="I169" s="35" t="s">
-        <v>402</v>
+      <c r="I169" s="36" t="s">
+        <v>404</v>
       </c>
       <c r="J169" s="39"/>
       <c r="K169" s="37" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="170" spans="1:11" ht="14">
       <c r="A170" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B170" s="26">
         <v>81</v>
       </c>
       <c r="C170" s="29" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D170" s="25" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E170" s="10"/>
       <c r="F170" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G170" s="28">
         <v>1830</v>
       </c>
       <c r="K170" s="37" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="171" spans="1:11" ht="13">
       <c r="A171" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B171" s="26">
         <v>82</v>
       </c>
       <c r="C171" s="29" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D171" s="25" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E171" s="10"/>
       <c r="F171" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G171" s="28">
         <v>1830</v>
       </c>
       <c r="K171" s="27" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="172" spans="1:11" ht="13">
       <c r="A172" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B172" s="26">
         <v>83</v>
       </c>
       <c r="C172" s="10"/>
       <c r="D172" s="25" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E172" s="10"/>
       <c r="F172" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G172" s="28">
         <v>1830</v>
       </c>
       <c r="K172" s="27" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="173" spans="1:11" ht="15">
       <c r="A173" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B173" s="26">
         <v>84</v>
@@ -7001,43 +7125,43 @@
       </c>
       <c r="E173" s="10"/>
       <c r="F173" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G173" s="28">
         <v>1830</v>
       </c>
-      <c r="I173" s="35" t="s">
-        <v>195</v>
+      <c r="I173" s="36" t="s">
+        <v>193</v>
       </c>
       <c r="K173" s="27" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="174" spans="1:11" ht="13">
       <c r="A174" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B174" s="26">
         <v>85</v>
       </c>
       <c r="C174" s="10"/>
       <c r="D174" s="25" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E174" s="10"/>
       <c r="F174" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G174" s="28">
         <v>1830</v>
       </c>
       <c r="K174" s="27" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="175" spans="1:11" ht="14">
       <c r="A175" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B175" s="26">
         <v>86</v>
@@ -7048,24 +7172,24 @@
       </c>
       <c r="E175" s="10"/>
       <c r="F175" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G175" s="28">
         <v>1830</v>
       </c>
       <c r="I175" s="37" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="J175" s="27" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="K175" s="27" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="176" spans="1:11" ht="15">
       <c r="A176" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B176" s="26">
         <v>87</v>
@@ -7076,18 +7200,18 @@
       </c>
       <c r="E176" s="10"/>
       <c r="F176" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G176" s="28">
         <v>1830</v>
       </c>
-      <c r="I176" s="35" t="s">
-        <v>414</v>
+      <c r="I176" s="36" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="177" spans="1:11" ht="15">
       <c r="A177" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B177" s="26">
         <v>88</v>
@@ -7098,18 +7222,18 @@
       </c>
       <c r="E177" s="10"/>
       <c r="F177" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G177" s="28">
         <v>1830</v>
       </c>
-      <c r="I177" s="35" t="s">
-        <v>415</v>
+      <c r="I177" s="36" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="178" spans="1:11" ht="15">
       <c r="A178" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B178" s="26">
         <v>89</v>
@@ -7120,29 +7244,29 @@
       </c>
       <c r="E178" s="10"/>
       <c r="F178" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G178" s="28">
         <v>1830</v>
       </c>
-      <c r="I178" s="35" t="s">
-        <v>416</v>
+      <c r="I178" s="36" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="179" spans="1:11" ht="13">
       <c r="A179" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B179" s="26">
         <v>90</v>
       </c>
       <c r="C179" s="10"/>
       <c r="D179" s="25" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E179" s="10"/>
       <c r="F179" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G179" s="28">
         <v>1830</v>
@@ -7150,66 +7274,69 @@
     </row>
     <row r="180" spans="1:11" ht="13">
       <c r="A180" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B180" s="26">
         <v>91</v>
       </c>
       <c r="C180" s="10"/>
       <c r="D180" s="25" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E180" s="10"/>
       <c r="F180" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G180" s="28">
         <v>1830</v>
       </c>
       <c r="K180" s="27" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="181" spans="1:11" ht="13">
       <c r="A181" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B181" s="26">
         <v>92</v>
       </c>
       <c r="C181" s="31" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D181" s="25" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E181" s="10"/>
       <c r="F181" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G181" s="28">
         <v>1830</v>
       </c>
+      <c r="H181" t="s">
+        <v>583</v>
+      </c>
       <c r="K181" s="27" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="182" spans="1:11" ht="14">
       <c r="A182" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B182" s="26">
         <v>93</v>
       </c>
       <c r="C182" s="31" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D182" s="25" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E182" s="10"/>
       <c r="F182" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G182" s="28">
         <v>1830</v>
@@ -7218,12 +7345,12 @@
         <v>563329</v>
       </c>
       <c r="K182" s="37" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="183" spans="1:11" ht="15">
       <c r="A183" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B183" s="26">
         <v>94</v>
@@ -7234,160 +7361,160 @@
       </c>
       <c r="E183" s="10"/>
       <c r="F183" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G183" s="28">
         <v>1830</v>
       </c>
-      <c r="I183" s="35" t="s">
-        <v>422</v>
+      <c r="I183" s="36" t="s">
+        <v>424</v>
       </c>
       <c r="K183" s="27" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="184" spans="1:11" ht="13">
       <c r="A184" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B184" s="26">
         <v>95</v>
       </c>
       <c r="C184" s="29" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D184" s="25" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="E184" s="10"/>
       <c r="F184" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G184" s="28">
         <v>1830</v>
       </c>
       <c r="K184" s="27" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="185" spans="1:11" ht="13">
       <c r="A185" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B185" s="26">
         <v>96</v>
       </c>
       <c r="C185" s="29" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D185" s="25" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="E185" s="10"/>
       <c r="F185" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G185" s="28">
         <v>1830</v>
       </c>
       <c r="K185" s="27" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="186" spans="1:11" ht="13">
       <c r="A186" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B186" s="26">
         <v>97</v>
       </c>
       <c r="C186" s="29" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D186" s="25" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="E186" s="10"/>
       <c r="F186" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G186" s="28">
         <v>1830</v>
       </c>
       <c r="K186" s="27" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="187" spans="1:11" ht="15">
       <c r="A187" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B187" s="26">
         <v>98</v>
       </c>
       <c r="C187" s="29" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D187" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E187" s="10"/>
       <c r="F187" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G187" s="28">
         <v>1830</v>
       </c>
-      <c r="I187" s="35" t="s">
-        <v>431</v>
+      <c r="I187" s="36" t="s">
+        <v>433</v>
       </c>
       <c r="K187" s="27" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="188" spans="1:11" ht="13">
       <c r="A188" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B188" s="26">
         <v>99</v>
       </c>
       <c r="C188" s="29" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D188" s="25" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="E188" s="10"/>
       <c r="F188" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G188" s="28">
         <v>1830</v>
       </c>
       <c r="J188" s="27" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="K188" s="27" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="189" spans="1:11" ht="13">
       <c r="A189" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B189" s="26">
         <v>100</v>
       </c>
       <c r="C189" s="29" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D189" s="25" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="E189" s="10"/>
       <c r="F189" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G189" s="28">
         <v>1830</v>
@@ -7395,20 +7522,20 @@
     </row>
     <row r="190" spans="1:11" ht="15">
       <c r="A190" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B190" s="26">
         <v>101</v>
       </c>
       <c r="C190" s="29" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D190" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E190" s="10"/>
       <c r="F190" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G190" s="28">
         <v>1830</v>
@@ -7416,41 +7543,41 @@
       <c r="H190" s="41">
         <v>561534</v>
       </c>
-      <c r="I190" s="35" t="s">
-        <v>437</v>
+      <c r="I190" s="36" t="s">
+        <v>439</v>
       </c>
       <c r="J190" s="27" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="K190" s="42" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="191" spans="1:11" ht="13">
       <c r="A191" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B191" s="26">
         <v>102</v>
       </c>
       <c r="C191" s="10"/>
       <c r="D191" s="25" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E191" s="10"/>
       <c r="F191" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G191" s="28">
         <v>1830</v>
       </c>
       <c r="K191" s="27" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="192" spans="1:11" ht="13">
       <c r="A192" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B192" s="26">
         <v>103</v>
@@ -7461,34 +7588,34 @@
       </c>
       <c r="E192" s="10"/>
       <c r="F192" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G192" s="28">
         <v>1830</v>
       </c>
       <c r="I192" s="27" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="K192" s="27" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="193" spans="1:11" ht="13">
       <c r="A193" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B193" s="26">
         <v>104</v>
       </c>
       <c r="C193" s="31" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D193" s="25" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="E193" s="10"/>
       <c r="F193" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G193" s="28">
         <v>1830</v>
@@ -7496,68 +7623,68 @@
     </row>
     <row r="194" spans="1:11" ht="13">
       <c r="A194" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B194" s="26">
         <v>105</v>
       </c>
       <c r="C194" s="29" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D194" s="25" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E194" s="10"/>
       <c r="F194" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G194" s="28">
         <v>1830</v>
       </c>
       <c r="K194" s="27" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="195" spans="1:11" ht="13">
       <c r="A195" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B195" s="26">
         <v>106</v>
       </c>
       <c r="C195" s="29" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D195" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E195" s="10"/>
       <c r="F195" s="27" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="G195" s="28">
         <v>1830</v>
       </c>
       <c r="I195" s="27" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="196" spans="1:11" ht="13">
       <c r="A196" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B196" s="26">
         <v>107</v>
       </c>
       <c r="C196" s="29" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D196" s="25" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="E196" s="10"/>
       <c r="F196" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G196" s="28">
         <v>1830</v>
@@ -7565,20 +7692,20 @@
     </row>
     <row r="197" spans="1:11" ht="13">
       <c r="A197" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B197" s="26">
         <v>108</v>
       </c>
       <c r="C197" s="29" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D197" s="25" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="E197" s="10"/>
       <c r="F197" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G197" s="28">
         <v>1830</v>
@@ -7586,18 +7713,18 @@
     </row>
     <row r="198" spans="1:11" ht="13">
       <c r="A198" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B198" s="26">
         <v>109</v>
       </c>
       <c r="C198" s="10"/>
       <c r="D198" s="25" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="E198" s="10"/>
       <c r="F198" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G198" s="28">
         <v>1830</v>
@@ -7605,20 +7732,20 @@
     </row>
     <row r="199" spans="1:11" ht="14">
       <c r="A199" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B199" s="26">
         <v>110</v>
       </c>
       <c r="C199" s="29" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D199" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E199" s="10"/>
       <c r="F199" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G199" s="28">
         <v>1830</v>
@@ -7627,104 +7754,104 @@
         <v>381201</v>
       </c>
       <c r="I199" s="27" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K199" s="37" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="200" spans="1:11" ht="13">
       <c r="A200" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B200" s="26">
         <v>111</v>
       </c>
       <c r="C200" s="29" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D200" s="25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E200" s="10"/>
       <c r="F200" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G200" s="28">
         <v>1830</v>
       </c>
       <c r="K200" s="27" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="201" spans="1:11" ht="13">
       <c r="A201" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B201" s="26">
         <v>112</v>
       </c>
       <c r="C201" s="29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D201" s="25" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="E201" s="10"/>
       <c r="F201" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G201" s="28">
         <v>1830</v>
       </c>
       <c r="K201" s="27" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="202" spans="1:11" ht="15">
       <c r="A202" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B202" s="26">
         <v>113</v>
       </c>
       <c r="C202" s="29" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D202" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E202" s="10"/>
       <c r="F202" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G202" s="28">
         <v>1830</v>
       </c>
       <c r="H202" s="27" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="I202" s="27" t="s">
-        <v>461</v>
-      </c>
-      <c r="K202" s="35" t="s">
-        <v>462</v>
+        <v>463</v>
+      </c>
+      <c r="K202" s="36" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="203" spans="1:11" ht="13">
       <c r="A203" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B203" s="26">
         <v>114</v>
       </c>
       <c r="C203" s="10"/>
       <c r="D203" s="25" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E203" s="10"/>
       <c r="F203" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G203" s="28">
         <v>1830</v>
@@ -7732,70 +7859,70 @@
     </row>
     <row r="204" spans="1:11" ht="15">
       <c r="A204" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B204" s="26">
         <v>115</v>
       </c>
       <c r="C204" s="29" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D204" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E204" s="10"/>
       <c r="F204" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G204" s="28">
         <v>1830</v>
       </c>
-      <c r="I204" s="35" t="s">
-        <v>465</v>
+      <c r="I204" s="36" t="s">
+        <v>467</v>
       </c>
       <c r="J204" s="27" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="K204" s="27" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="205" spans="1:11" ht="13">
       <c r="A205" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B205" s="26">
         <v>116</v>
       </c>
       <c r="C205" s="10"/>
       <c r="D205" s="25" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="E205" s="10"/>
       <c r="F205" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G205" s="28">
         <v>1830</v>
       </c>
       <c r="K205" s="27" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="206" spans="1:11" ht="15">
       <c r="A206" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B206" s="26">
         <v>117</v>
       </c>
       <c r="C206" s="10"/>
       <c r="D206" s="25" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="E206" s="10"/>
       <c r="F206" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G206" s="28">
         <v>1830</v>
@@ -7806,18 +7933,18 @@
     </row>
     <row r="207" spans="1:11" ht="13">
       <c r="A207" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B207" s="26">
         <v>118</v>
       </c>
       <c r="C207" s="10"/>
       <c r="D207" s="25" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="E207" s="10"/>
       <c r="F207" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G207" s="28">
         <v>1830</v>
@@ -7828,47 +7955,47 @@
     </row>
     <row r="208" spans="1:11" ht="13">
       <c r="A208" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B208" s="26">
         <v>119</v>
       </c>
       <c r="C208" s="29" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D208" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E208" s="10"/>
       <c r="F208" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G208" s="28">
         <v>1830</v>
       </c>
       <c r="I208" s="27" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="K208" s="30" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="209" spans="1:11" ht="15">
       <c r="A209" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B209" s="26">
         <v>120</v>
       </c>
       <c r="C209" s="29" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D209" s="25" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="E209" s="10"/>
       <c r="F209" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G209" s="28">
         <v>1830</v>
@@ -7877,23 +8004,23 @@
         <v>471575</v>
       </c>
       <c r="K209" s="37" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="210" spans="1:11" ht="13">
       <c r="A210" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B210" s="26">
         <v>121</v>
       </c>
       <c r="C210" s="10"/>
       <c r="D210" s="25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E210" s="10"/>
       <c r="F210" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G210" s="28">
         <v>1830</v>
@@ -7901,44 +8028,44 @@
     </row>
     <row r="211" spans="1:11" ht="13">
       <c r="A211" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B211" s="26">
         <v>122</v>
       </c>
       <c r="C211" s="29" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D211" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E211" s="10"/>
       <c r="F211" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G211" s="28">
         <v>1830</v>
       </c>
       <c r="I211" s="27" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="212" spans="1:11" ht="13">
       <c r="A212" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B212" s="26">
         <v>123</v>
       </c>
       <c r="C212" s="29" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D212" s="25" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="E212" s="10"/>
       <c r="F212" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G212" s="28">
         <v>1830</v>
@@ -7946,44 +8073,44 @@
     </row>
     <row r="213" spans="1:11" ht="13">
       <c r="A213" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B213" s="26">
         <v>124</v>
       </c>
       <c r="C213" s="29" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D213" s="25" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="E213" s="10"/>
       <c r="F213" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G213" s="28">
         <v>1830</v>
       </c>
       <c r="H213" s="27" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="214" spans="1:11" ht="13">
       <c r="A214" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B214" s="26">
         <v>125</v>
       </c>
       <c r="C214" s="31" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D214" s="25" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="E214" s="10"/>
       <c r="F214" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G214" s="28">
         <v>1830</v>
@@ -7991,18 +8118,18 @@
     </row>
     <row r="215" spans="1:11" ht="13">
       <c r="A215" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B215" s="26">
         <v>126</v>
       </c>
       <c r="C215" s="10"/>
       <c r="D215" s="25" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="E215" s="10"/>
       <c r="F215" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G215" s="28">
         <v>1830</v>
@@ -8010,18 +8137,18 @@
     </row>
     <row r="216" spans="1:11" ht="13">
       <c r="A216" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B216" s="26">
         <v>127</v>
       </c>
       <c r="C216" s="10"/>
       <c r="D216" s="25" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E216" s="10"/>
       <c r="F216" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G216" s="28">
         <v>1830</v>
@@ -8029,18 +8156,18 @@
     </row>
     <row r="217" spans="1:11" ht="13">
       <c r="A217" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B217" s="26">
         <v>128</v>
       </c>
       <c r="C217" s="10"/>
       <c r="D217" s="25" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E217" s="10"/>
       <c r="F217" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G217" s="28">
         <v>1830</v>
@@ -8048,7 +8175,7 @@
     </row>
     <row r="218" spans="1:11" ht="15">
       <c r="A218" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B218" s="26">
         <v>129</v>
@@ -8059,21 +8186,21 @@
       </c>
       <c r="E218" s="10"/>
       <c r="F218" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G218" s="28">
         <v>1830</v>
       </c>
       <c r="H218" s="27" t="s">
-        <v>488</v>
-      </c>
-      <c r="I218" s="35" t="s">
-        <v>489</v>
+        <v>490</v>
+      </c>
+      <c r="I218" s="36" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="219" spans="1:11" ht="13">
       <c r="A219" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B219" s="26">
         <v>130</v>
@@ -8084,18 +8211,18 @@
       </c>
       <c r="E219" s="10"/>
       <c r="F219" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G219" s="28">
         <v>1830</v>
       </c>
       <c r="I219" s="27" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="220" spans="1:11" ht="13">
       <c r="A220" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B220" s="26">
         <v>131</v>
@@ -8106,29 +8233,29 @@
       </c>
       <c r="E220" s="10"/>
       <c r="F220" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G220" s="28">
         <v>1830</v>
       </c>
       <c r="I220" s="27" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="221" spans="1:11" ht="13">
       <c r="A221" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B221" s="26">
         <v>132</v>
       </c>
       <c r="C221" s="10"/>
       <c r="D221" s="25" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="E221" s="10"/>
       <c r="F221" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G221" s="28">
         <v>1830</v>
@@ -8136,20 +8263,20 @@
     </row>
     <row r="222" spans="1:11" ht="15">
       <c r="A222" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B222" s="26">
         <v>133</v>
       </c>
       <c r="C222" s="29" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D222" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E222" s="10"/>
       <c r="F222" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G222" s="28">
         <v>1830</v>
@@ -8157,16 +8284,16 @@
       <c r="H222" s="27">
         <v>1052</v>
       </c>
-      <c r="I222" s="35" t="s">
-        <v>494</v>
-      </c>
-      <c r="K222" s="35" t="s">
-        <v>495</v>
+      <c r="I222" s="36" t="s">
+        <v>496</v>
+      </c>
+      <c r="K222" s="36" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="223" spans="1:11" ht="15">
       <c r="A223" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B223" s="26">
         <v>134</v>
@@ -8177,29 +8304,29 @@
       </c>
       <c r="E223" s="10"/>
       <c r="F223" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G223" s="28">
         <v>1830</v>
       </c>
-      <c r="I223" s="35" t="s">
-        <v>496</v>
+      <c r="I223" s="36" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="224" spans="1:11" ht="13">
       <c r="A224" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B224" s="26">
         <v>135</v>
       </c>
       <c r="C224" s="10"/>
       <c r="D224" s="25" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="E224" s="10"/>
       <c r="F224" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G224" s="28">
         <v>1830</v>
@@ -8207,18 +8334,18 @@
     </row>
     <row r="225" spans="1:11" ht="13">
       <c r="A225" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B225" s="26">
         <v>136</v>
       </c>
       <c r="C225" s="10"/>
       <c r="D225" s="25" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E225" s="10"/>
       <c r="F225" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G225" s="28">
         <v>1830</v>
@@ -8226,18 +8353,18 @@
     </row>
     <row r="226" spans="1:11" ht="13">
       <c r="A226" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B226" s="26">
         <v>137</v>
       </c>
       <c r="C226" s="10"/>
       <c r="D226" s="25" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="E226" s="10"/>
       <c r="F226" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G226" s="28">
         <v>1830</v>
@@ -8245,18 +8372,18 @@
     </row>
     <row r="227" spans="1:11" ht="13">
       <c r="A227" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B227" s="26">
         <v>138</v>
       </c>
       <c r="C227" s="10"/>
       <c r="D227" s="25" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="E227" s="10"/>
       <c r="F227" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G227" s="28">
         <v>1830</v>
@@ -8264,31 +8391,31 @@
     </row>
     <row r="228" spans="1:11" ht="15">
       <c r="A228" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B228" s="26">
         <v>139</v>
       </c>
       <c r="C228" s="29" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D228" s="25" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="E228" s="10"/>
       <c r="F228" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G228" s="28">
         <v>1830</v>
       </c>
-      <c r="K228" s="35" t="s">
-        <v>503</v>
+      <c r="K228" s="36" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="229" spans="1:11" ht="15">
       <c r="A229" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B229" s="26">
         <v>140</v>
@@ -8299,37 +8426,40 @@
       </c>
       <c r="E229" s="10"/>
       <c r="F229" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G229" s="28">
         <v>1830</v>
       </c>
-      <c r="I229" s="35" t="s">
-        <v>504</v>
+      <c r="I229" s="36" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="230" spans="1:11" ht="13">
       <c r="A230" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B230" s="26">
         <v>141</v>
       </c>
       <c r="C230" s="10"/>
-      <c r="D230" s="25" t="s">
-        <v>78</v>
+      <c r="D230" s="13" t="s">
+        <v>587</v>
       </c>
       <c r="E230" s="10"/>
       <c r="F230" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G230" s="28">
         <v>1830</v>
       </c>
+      <c r="H230" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="231" spans="1:11" ht="14">
       <c r="A231" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B231" s="26">
         <v>142</v>
@@ -8340,42 +8470,42 @@
       </c>
       <c r="E231" s="10"/>
       <c r="F231" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G231" s="28">
         <v>1830</v>
       </c>
       <c r="I231" s="37" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="232" spans="1:11" ht="15">
       <c r="A232" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B232" s="26">
         <v>143</v>
       </c>
       <c r="C232" s="29" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D232" s="25" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="E232" s="10"/>
       <c r="F232" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G232" s="28">
         <v>1830</v>
       </c>
-      <c r="K232" s="35" t="s">
-        <v>507</v>
+      <c r="K232" s="36" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="233" spans="1:11" ht="15">
       <c r="A233" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B233" s="26">
         <v>144</v>
@@ -8386,48 +8516,51 @@
       </c>
       <c r="E233" s="10"/>
       <c r="F233" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G233" s="28">
         <v>1830</v>
       </c>
-      <c r="I233" s="35" t="s">
-        <v>508</v>
+      <c r="I233" s="36" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="234" spans="1:11" ht="13">
       <c r="A234" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B234" s="26">
         <v>145</v>
       </c>
       <c r="C234" s="10"/>
       <c r="D234" s="25" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="E234" s="10"/>
       <c r="F234" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G234" s="28">
         <v>1830</v>
       </c>
+      <c r="H234" t="s">
+        <v>585</v>
+      </c>
     </row>
     <row r="235" spans="1:11" ht="13">
       <c r="A235" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B235" s="26">
         <v>146</v>
       </c>
       <c r="C235" s="10"/>
       <c r="D235" s="25" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="E235" s="10"/>
       <c r="F235" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G235" s="28">
         <v>1830</v>
@@ -8435,7 +8568,7 @@
     </row>
     <row r="236" spans="1:11" ht="15">
       <c r="A236" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B236" s="26">
         <v>147</v>
@@ -8446,18 +8579,18 @@
       </c>
       <c r="E236" s="10"/>
       <c r="F236" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G236" s="28">
         <v>1830</v>
       </c>
-      <c r="I236" s="35" t="s">
-        <v>511</v>
+      <c r="I236" s="36" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="237" spans="1:11" ht="15">
       <c r="A237" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B237" s="26">
         <v>148</v>
@@ -8468,31 +8601,31 @@
       </c>
       <c r="E237" s="10"/>
       <c r="F237" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G237" s="28">
         <v>1830</v>
       </c>
-      <c r="I237" s="35" t="s">
-        <v>512</v>
+      <c r="I237" s="36" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="238" spans="1:11" ht="13">
       <c r="A238" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B238" s="26">
         <v>149</v>
       </c>
       <c r="C238" s="31" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D238" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E238" s="10"/>
       <c r="F238" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G238" s="28">
         <v>1830</v>
@@ -8503,47 +8636,47 @@
     </row>
     <row r="239" spans="1:11" ht="13">
       <c r="A239" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B239" s="26">
         <v>150</v>
       </c>
       <c r="C239" s="29" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="D239" s="25" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="E239" s="10"/>
       <c r="F239" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G239" s="28">
         <v>1830</v>
       </c>
       <c r="H239" s="27" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="K239" s="40" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="240" spans="1:11" ht="13">
       <c r="A240" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B240" s="26">
         <v>151</v>
       </c>
       <c r="C240" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D240" s="25" t="s">
         <v>80</v>
-      </c>
-      <c r="D240" s="25" t="s">
-        <v>81</v>
       </c>
       <c r="E240" s="10"/>
       <c r="F240" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G240" s="28">
         <v>1830</v>
@@ -8551,7 +8684,7 @@
     </row>
     <row r="241" spans="1:11" ht="15">
       <c r="A241" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B241" s="26">
         <v>152</v>
@@ -8562,24 +8695,24 @@
       </c>
       <c r="E241" s="10"/>
       <c r="F241" s="27" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G241" s="28">
         <v>1830</v>
       </c>
       <c r="H241" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="I241" s="35" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="I241" s="36" t="s">
+        <v>575</v>
       </c>
       <c r="K241" s="27" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="242" spans="1:11" ht="13">
       <c r="A242" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B242" s="26">
         <v>153</v>
@@ -8590,29 +8723,29 @@
       </c>
       <c r="E242" s="10"/>
       <c r="F242" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G242" s="28">
         <v>1830</v>
       </c>
       <c r="I242" s="27" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="243" spans="1:11" ht="13">
       <c r="A243" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B243" s="26">
         <v>154</v>
       </c>
       <c r="C243" s="10"/>
       <c r="D243" s="25" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="E243" s="10"/>
       <c r="F243" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G243" s="28">
         <v>1830</v>
@@ -8621,18 +8754,18 @@
     </row>
     <row r="244" spans="1:11" ht="13">
       <c r="A244" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B244" s="26">
         <v>155</v>
       </c>
       <c r="C244" s="10"/>
       <c r="D244" s="25" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="E244" s="10"/>
       <c r="F244" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G244" s="28">
         <v>1830</v>
@@ -8640,7 +8773,7 @@
     </row>
     <row r="245" spans="1:11" ht="15">
       <c r="A245" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B245" s="26">
         <v>156</v>
@@ -8651,31 +8784,31 @@
       </c>
       <c r="E245" s="10"/>
       <c r="F245" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G245" s="28">
         <v>1830</v>
       </c>
-      <c r="I245" s="35" t="s">
-        <v>521</v>
+      <c r="I245" s="36" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="246" spans="1:11" ht="13">
       <c r="A246" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B246" s="26">
         <v>157</v>
       </c>
       <c r="C246" s="29" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D246" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E246" s="10"/>
       <c r="F246" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G246" s="28">
         <v>1830</v>
@@ -8686,7 +8819,7 @@
     </row>
     <row r="247" spans="1:11" ht="15">
       <c r="A247" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B247" s="26">
         <v>158</v>
@@ -8699,42 +8832,45 @@
       </c>
       <c r="E247" s="10"/>
       <c r="F247" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G247" s="28">
         <v>1830</v>
       </c>
-      <c r="I247" s="35" t="s">
-        <v>522</v>
+      <c r="H247" t="s">
+        <v>576</v>
+      </c>
+      <c r="I247" s="36" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="248" spans="1:11" ht="15">
       <c r="A248" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B248" s="26">
         <v>159</v>
       </c>
       <c r="C248" s="29" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="D248" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E248" s="10"/>
       <c r="F248" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G248" s="28">
         <v>1830</v>
       </c>
-      <c r="I248" s="35" t="s">
-        <v>524</v>
+      <c r="I248" s="36" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="249" spans="1:11" ht="15">
       <c r="A249" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B249" s="26">
         <v>160</v>
@@ -8745,42 +8881,42 @@
       </c>
       <c r="E249" s="10"/>
       <c r="F249" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G249" s="28">
         <v>1830</v>
       </c>
-      <c r="I249" s="35" t="s">
-        <v>525</v>
+      <c r="I249" s="36" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="250" spans="1:11" ht="14">
       <c r="A250" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B250" s="26">
         <v>161</v>
       </c>
       <c r="C250" s="31" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D250" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E250" s="10"/>
       <c r="F250" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G250" s="28">
         <v>1830</v>
       </c>
       <c r="I250" s="37" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="251" spans="1:11" ht="15">
       <c r="A251" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B251" s="26">
         <v>162</v>
@@ -8791,18 +8927,18 @@
       </c>
       <c r="E251" s="10"/>
       <c r="F251" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G251" s="28">
         <v>1830</v>
       </c>
-      <c r="I251" s="35" t="s">
-        <v>527</v>
+      <c r="I251" s="36" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="252" spans="1:11" ht="15">
       <c r="A252" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B252" s="26">
         <v>163</v>
@@ -8813,7 +8949,7 @@
       </c>
       <c r="E252" s="10"/>
       <c r="F252" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G252" s="28">
         <v>1830</v>
@@ -8821,16 +8957,16 @@
       <c r="H252" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="I252" s="35" t="s">
-        <v>528</v>
+      <c r="I252" s="36" t="s">
+        <v>530</v>
       </c>
       <c r="K252" s="27" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="253" spans="1:11" ht="15">
       <c r="A253" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B253" s="26">
         <v>164</v>
@@ -8841,18 +8977,18 @@
       </c>
       <c r="E253" s="10"/>
       <c r="F253" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G253" s="28">
         <v>1830</v>
       </c>
-      <c r="I253" s="35" t="s">
-        <v>530</v>
+      <c r="I253" s="36" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="254" spans="1:11" ht="15">
       <c r="A254" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B254" s="26">
         <v>165</v>
@@ -8861,47 +8997,47 @@
         <v>46</v>
       </c>
       <c r="D254" s="25" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="E254" s="10"/>
       <c r="F254" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G254" s="28">
         <v>1830</v>
       </c>
       <c r="I254" s="27" t="s">
-        <v>532</v>
-      </c>
-      <c r="K254" s="35" t="s">
-        <v>533</v>
+        <v>534</v>
+      </c>
+      <c r="K254" s="36" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="255" spans="1:11" ht="13">
       <c r="A255" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B255" s="26">
         <v>166</v>
       </c>
       <c r="C255" s="10"/>
       <c r="D255" s="25" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="E255" s="10"/>
       <c r="F255" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G255" s="28">
         <v>1830</v>
       </c>
       <c r="K255" s="27" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="256" spans="1:11" ht="15">
       <c r="A256" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B256" s="26">
         <v>167</v>
@@ -8912,18 +9048,21 @@
       </c>
       <c r="E256" s="10"/>
       <c r="F256" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G256" s="28">
         <v>1830</v>
       </c>
-      <c r="I256" s="35" t="s">
-        <v>535</v>
+      <c r="H256" t="s">
+        <v>581</v>
+      </c>
+      <c r="I256" s="36" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="257" spans="1:11" ht="15">
       <c r="A257" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B257" s="26">
         <v>168</v>
@@ -8934,18 +9073,21 @@
       </c>
       <c r="E257" s="10"/>
       <c r="F257" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G257" s="28">
         <v>1830</v>
       </c>
-      <c r="I257" s="35" t="s">
-        <v>536</v>
+      <c r="H257" t="s">
+        <v>581</v>
+      </c>
+      <c r="I257" s="36" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="258" spans="1:11" ht="15">
       <c r="A258" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B258" s="26">
         <v>169</v>
@@ -8956,55 +9098,55 @@
       </c>
       <c r="E258" s="10"/>
       <c r="F258" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G258" s="28">
         <v>1830</v>
       </c>
-      <c r="I258" s="35" t="s">
-        <v>537</v>
+      <c r="I258" s="36" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="259" spans="1:11" ht="15">
       <c r="A259" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B259" s="26">
         <v>170</v>
       </c>
       <c r="C259" s="31" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D259" s="25" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="E259" s="10"/>
       <c r="F259" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G259" s="28">
         <v>1830</v>
       </c>
-      <c r="K259" s="35" t="s">
-        <v>539</v>
+      <c r="K259" s="36" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="260" spans="1:11" ht="13">
       <c r="A260" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B260" s="26">
         <v>171</v>
       </c>
       <c r="C260" s="29" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="D260" s="25" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="E260" s="10"/>
       <c r="F260" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G260" s="28">
         <v>1830</v>
@@ -9015,20 +9157,20 @@
     </row>
     <row r="261" spans="1:11" ht="15">
       <c r="A261" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B261" s="26">
         <v>172</v>
       </c>
       <c r="C261" s="29" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D261" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E261" s="10"/>
       <c r="F261" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G261" s="28">
         <v>1830</v>
@@ -9036,13 +9178,13 @@
       <c r="H261" s="27">
         <v>440</v>
       </c>
-      <c r="I261" s="35" t="s">
-        <v>543</v>
+      <c r="I261" s="36" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="262" spans="1:11" ht="13">
       <c r="A262" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B262" s="26">
         <v>173</v>
@@ -9053,34 +9195,34 @@
       </c>
       <c r="E262" s="10"/>
       <c r="F262" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G262" s="28">
         <v>1830</v>
       </c>
       <c r="I262" s="27" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="K262" s="27" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="263" spans="1:11" ht="13">
       <c r="A263" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B263" s="26">
         <v>174</v>
       </c>
       <c r="C263" s="29" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="D263" s="25" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E263" s="10"/>
       <c r="F263" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G263" s="28">
         <v>1830</v>
@@ -9088,20 +9230,20 @@
     </row>
     <row r="264" spans="1:11" ht="13">
       <c r="A264" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B264" s="26">
         <v>175</v>
       </c>
       <c r="C264" s="29" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D264" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E264" s="10"/>
       <c r="F264" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G264" s="28">
         <v>1830</v>
@@ -9110,15 +9252,15 @@
         <v>333936</v>
       </c>
       <c r="I264" s="27" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="K264" s="27" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
     </row>
     <row r="265" spans="1:11" ht="13">
       <c r="A265" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B265" s="26">
         <v>176</v>
@@ -9131,7 +9273,7 @@
         <v>54</v>
       </c>
       <c r="F265" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G265" s="28">
         <v>1830</v>
@@ -9139,7 +9281,7 @@
     </row>
     <row r="266" spans="1:11" ht="13">
       <c r="A266" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B266" s="26">
         <v>177</v>
@@ -9152,7 +9294,7 @@
       </c>
       <c r="E266" s="10"/>
       <c r="F266" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G266" s="28">
         <v>1830</v>
@@ -9160,18 +9302,18 @@
     </row>
     <row r="267" spans="1:11" ht="13">
       <c r="A267" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B267" s="26">
         <v>178</v>
       </c>
       <c r="C267" s="10"/>
       <c r="D267" s="25" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="E267" s="10"/>
       <c r="F267" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G267" s="28">
         <v>1830</v>
@@ -9179,258 +9321,258 @@
     </row>
     <row r="268" spans="1:11" ht="13">
       <c r="A268" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B268" s="26">
         <v>179</v>
       </c>
       <c r="C268" s="29" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D268" s="25" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="E268" s="10"/>
       <c r="F268" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G268" s="28">
         <v>1830</v>
       </c>
       <c r="K268" s="27" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="269" spans="1:11" ht="13">
       <c r="A269" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B269" s="26">
         <v>180</v>
       </c>
       <c r="C269" s="10"/>
       <c r="D269" s="25" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="E269" s="10"/>
       <c r="F269" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G269" s="28">
         <v>1830</v>
       </c>
       <c r="H269" s="27" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="270" spans="1:11" ht="13">
       <c r="A270" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B270" s="26">
         <v>181</v>
       </c>
       <c r="C270" s="29" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D270" s="25" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="E270" s="10"/>
       <c r="F270" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G270" s="28">
         <v>1830</v>
       </c>
       <c r="K270" s="27" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="271" spans="1:11" ht="13">
       <c r="A271" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B271" s="26">
         <v>182</v>
       </c>
       <c r="C271" s="10"/>
       <c r="D271" s="25" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="E271" s="10"/>
       <c r="F271" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G271" s="28">
         <v>1830</v>
       </c>
       <c r="K271" s="27" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="272" spans="1:11" ht="13">
       <c r="A272" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B272" s="26">
         <v>183</v>
       </c>
       <c r="C272" s="10"/>
       <c r="D272" s="25" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="E272" s="10"/>
       <c r="F272" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G272" s="28">
         <v>1830</v>
       </c>
       <c r="K272" s="27" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="273" spans="1:11" ht="13">
       <c r="A273" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B273" s="26">
         <v>184</v>
       </c>
       <c r="C273" s="10"/>
       <c r="D273" s="25" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="E273" s="10"/>
       <c r="F273" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G273" s="28">
         <v>1830</v>
       </c>
       <c r="K273" s="27" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="274" spans="1:11" ht="13">
       <c r="A274" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B274" s="26">
         <v>185</v>
       </c>
       <c r="C274" s="10"/>
       <c r="D274" s="25" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="E274" s="10"/>
       <c r="F274" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G274" s="28">
         <v>1830</v>
       </c>
       <c r="K274" s="27" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="275" spans="1:11" ht="13">
       <c r="A275" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B275" s="26">
         <v>186</v>
       </c>
       <c r="C275" s="10"/>
       <c r="D275" s="25" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="E275" s="10"/>
       <c r="F275" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G275" s="28">
         <v>1830</v>
       </c>
       <c r="K275" s="27" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="276" spans="1:11" ht="13">
       <c r="A276" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B276" s="26">
         <v>187</v>
       </c>
       <c r="C276" s="10"/>
       <c r="D276" s="25" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="E276" s="10"/>
       <c r="F276" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G276" s="28">
         <v>1830</v>
       </c>
       <c r="K276" s="27" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="277" spans="1:11" ht="13">
       <c r="A277" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B277" s="26">
         <v>188</v>
       </c>
       <c r="C277" s="10"/>
       <c r="D277" s="25" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="E277" s="10"/>
       <c r="F277" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G277" s="28">
         <v>1830</v>
       </c>
       <c r="K277" s="27" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="278" spans="1:11" ht="13">
       <c r="A278" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B278" s="26">
         <v>189</v>
       </c>
       <c r="C278" s="29" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D278" s="25" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E278" s="10"/>
       <c r="F278" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G278" s="28">
         <v>1830</v>
       </c>
       <c r="J278" s="27" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="K278" s="27" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="279" spans="1:11" ht="13">
       <c r="A279" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B279" s="26">
         <v>190</v>
@@ -9441,7 +9583,7 @@
       </c>
       <c r="E279" s="10"/>
       <c r="F279" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G279" s="28">
         <v>1830</v>
@@ -9450,10 +9592,10 @@
         <v>3678</v>
       </c>
       <c r="I279" s="27" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="K279" s="27" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="280" spans="1:11" ht="13">
@@ -15285,8 +15427,9 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="K137" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="K190" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="K118" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="K137" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="K190" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LOCATION SHEETS/1820sLOCATIONS.xlsx
+++ b/LOCATION SHEETS/1820sLOCATIONS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/WR4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99421D0-FAEF-BF45-9D1D-5EFCF143C6BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6BCF777-1860-8444-A030-421E9184F7C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="460" windowWidth="28100" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="591">
   <si>
     <t>LOCATIONS IN 1820s onwards</t>
   </si>
@@ -2164,6 +2164,9 @@
   </si>
   <si>
     <t>RR237</t>
+  </si>
+  <si>
+    <t>RR261</t>
   </si>
 </sst>
 </file>
@@ -2767,8 +2770,8 @@
   <dimension ref="A1:AB1006"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E100" sqref="E100"/>
+      <pane ySplit="6" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H201" sqref="H201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -7803,6 +7806,9 @@
       </c>
       <c r="G201" s="28">
         <v>1830</v>
+      </c>
+      <c r="H201" s="47" t="s">
+        <v>590</v>
       </c>
       <c r="K201" s="27" t="s">
         <v>460</v>

--- a/LOCATION SHEETS/1820sLOCATIONS.xlsx
+++ b/LOCATION SHEETS/1820sLOCATIONS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/WR4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6BCF777-1860-8444-A030-421E9184F7C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1DCEB5-66B7-B245-88BA-33C9DC74F9B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="460" windowWidth="28100" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2769,9 +2769,9 @@
   </sheetPr>
   <dimension ref="A1:AB1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H201" sqref="H201"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I177" sqref="I177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -4723,6 +4723,9 @@
       <c r="G79" s="28">
         <v>1820</v>
       </c>
+      <c r="H79">
+        <v>3602</v>
+      </c>
       <c r="K79" s="27" t="s">
         <v>194</v>
       </c>
@@ -7132,6 +7135,9 @@
       </c>
       <c r="G173" s="28">
         <v>1830</v>
+      </c>
+      <c r="H173">
+        <v>3602</v>
       </c>
       <c r="I173" s="36" t="s">
         <v>193</v>

--- a/LOCATION SHEETS/1820sLOCATIONS.xlsx
+++ b/LOCATION SHEETS/1820sLOCATIONS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/WR4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1DCEB5-66B7-B245-88BA-33C9DC74F9B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF58C26-F785-A642-AD59-58EFD3FE1C8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="460" windowWidth="28100" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="613">
   <si>
     <t>LOCATIONS IN 1820s onwards</t>
   </si>
@@ -187,9 +187,6 @@
     <t>SZ598998</t>
   </si>
   <si>
-    <t>674 possibly</t>
-  </si>
-  <si>
     <t>Nov 1821 to Dec 1822, Nov 1823 toSept 1824, Dec 1824, Jan 1826 to Dec 1827</t>
   </si>
   <si>
@@ -262,9 +259,6 @@
     <t>30</t>
   </si>
   <si>
-    <t>PLYMOUTH</t>
-  </si>
-  <si>
     <t>195</t>
   </si>
   <si>
@@ -329,9 +323,6 @@
   </si>
   <si>
     <t>total 1822</t>
-  </si>
-  <si>
-    <t>Penzance</t>
   </si>
   <si>
     <t>SW474303</t>
@@ -371,9 +362,6 @@
     </r>
   </si>
   <si>
-    <t>HEREFORD</t>
-  </si>
-  <si>
     <t>1828 only</t>
   </si>
   <si>
@@ -419,9 +407,6 @@
     <t>46</t>
   </si>
   <si>
-    <t>Sleaford</t>
-  </si>
-  <si>
     <t>full decade, 46' ASL. observer Revd H Sydney Neucatre. quite a few notes including 'the situation of the gauge unknown'!</t>
   </si>
   <si>
@@ -432,9 +417,6 @@
   </si>
   <si>
     <t>full decade. Noted that figures obtained by Gordon Manley in 1967 from BM manuscripts</t>
-  </si>
-  <si>
-    <t>DERBY</t>
   </si>
   <si>
     <t>full decade. Obs Mr Swanwick</t>
@@ -652,26 +634,6 @@
   </si>
   <si>
     <t>Widdrington</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>April 1772 to March 1773</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. note says that this sheet should be 100 years earlier! </t>
-    </r>
   </si>
   <si>
     <t>237</t>
@@ -1496,9 +1458,6 @@
     <t>SPALDING PODE HOLE</t>
   </si>
   <si>
-    <t>SLEAFORD</t>
-  </si>
-  <si>
     <t xml:space="preserve">Full Decade South Kryme </t>
   </si>
   <si>
@@ -2028,9 +1987,6 @@
     <t>HASTINGS</t>
   </si>
   <si>
-    <t>VENTNOR</t>
-  </si>
-  <si>
     <t xml:space="preserve">SNo333936 NGR SZ(40)564777
 </t>
   </si>
@@ -2167,6 +2123,124 @@
   </si>
   <si>
     <t>RR261</t>
+  </si>
+  <si>
+    <t>RR300</t>
+  </si>
+  <si>
+    <t>RR301</t>
+  </si>
+  <si>
+    <t>RR324</t>
+  </si>
+  <si>
+    <t>DERBY (SWANWICK)</t>
+  </si>
+  <si>
+    <t>DIsagreement</t>
+  </si>
+  <si>
+    <t>RR327</t>
+  </si>
+  <si>
+    <t>RR331</t>
+  </si>
+  <si>
+    <t>Hereford (Lawson)</t>
+  </si>
+  <si>
+    <t>RR334</t>
+  </si>
+  <si>
+    <t>RR190</t>
+  </si>
+  <si>
+    <t>RR201</t>
+  </si>
+  <si>
+    <t>RR356</t>
+  </si>
+  <si>
+    <t>RR370</t>
+  </si>
+  <si>
+    <t>RR398</t>
+  </si>
+  <si>
+    <t>RR401</t>
+  </si>
+  <si>
+    <t>RR402</t>
+  </si>
+  <si>
+    <t>RR419</t>
+  </si>
+  <si>
+    <t>PLYMOUTH PRIDEAUX</t>
+  </si>
+  <si>
+    <t>RR422</t>
+  </si>
+  <si>
+    <t>RR425</t>
+  </si>
+  <si>
+    <t>VENTNOR ISLE OF WIGHT</t>
+  </si>
+  <si>
+    <t>RR428</t>
+  </si>
+  <si>
+    <t>RR433</t>
+  </si>
+  <si>
+    <t>RR442</t>
+  </si>
+  <si>
+    <t>RR444</t>
+  </si>
+  <si>
+    <t>2541/7</t>
+  </si>
+  <si>
+    <t>Sleaford South Kyme</t>
+  </si>
+  <si>
+    <t>RR460</t>
+  </si>
+  <si>
+    <t>PENZANCE GIDDY</t>
+  </si>
+  <si>
+    <t>Penzance Giddy</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>April 1772 to March 1773</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. note says that this sheet should be 100 years earlier! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1770s??</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2769,9 +2843,9 @@
   </sheetPr>
   <dimension ref="A1:AB1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I177" sqref="I177"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I114" sqref="I114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -2943,7 +3017,7 @@
         <v>1820</v>
       </c>
       <c r="H8" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="K8" s="27" t="s">
         <v>23</v>
@@ -3139,6 +3213,9 @@
       <c r="G16" s="28">
         <v>1820</v>
       </c>
+      <c r="H16" s="47" t="s">
+        <v>605</v>
+      </c>
       <c r="I16" s="27" t="s">
         <v>37</v>
       </c>
@@ -3218,7 +3295,9 @@
       <c r="G19" s="28">
         <v>1820</v>
       </c>
-      <c r="H19" s="27"/>
+      <c r="H19" s="24" t="s">
+        <v>594</v>
+      </c>
       <c r="J19" s="30" t="s">
         <v>48</v>
       </c>
@@ -3245,7 +3324,7 @@
         <v>1820</v>
       </c>
       <c r="H20" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="K20" s="27" t="s">
         <v>50</v>
@@ -3270,7 +3349,7 @@
         <v>1820</v>
       </c>
       <c r="H21" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="K21" s="27" t="s">
         <v>52</v>
@@ -3296,11 +3375,11 @@
       <c r="G22" s="28">
         <v>1820</v>
       </c>
-      <c r="H22" s="27" t="s">
+      <c r="H22" s="24" t="s">
+        <v>592</v>
+      </c>
+      <c r="K22" s="27" t="s">
         <v>55</v>
-      </c>
-      <c r="K22" s="27" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1">
@@ -3312,7 +3391,7 @@
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="27" t="s">
@@ -3322,7 +3401,7 @@
         <v>1820</v>
       </c>
       <c r="K23" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1">
@@ -3333,10 +3412,10 @@
         <v>19</v>
       </c>
       <c r="C24" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="25" t="s">
         <v>59</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>60</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="27" t="s">
@@ -3346,7 +3425,7 @@
         <v>1820</v>
       </c>
       <c r="K24" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1">
@@ -3358,7 +3437,7 @@
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="27" t="s">
@@ -3368,7 +3447,7 @@
         <v>1820</v>
       </c>
       <c r="K25" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1">
@@ -3390,10 +3469,10 @@
         <v>1820</v>
       </c>
       <c r="I26" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="K26" s="27" t="s">
         <v>64</v>
-      </c>
-      <c r="K26" s="27" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1">
@@ -3415,10 +3494,10 @@
         <v>1820</v>
       </c>
       <c r="I27" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="K27" s="27" t="s">
         <v>66</v>
-      </c>
-      <c r="K27" s="27" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1">
@@ -3429,10 +3508,10 @@
         <v>23</v>
       </c>
       <c r="C28" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="25" t="s">
         <v>68</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>69</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="27" t="s">
@@ -3457,7 +3536,7 @@
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E29" s="10"/>
       <c r="F29" s="27" t="s">
@@ -3468,7 +3547,7 @@
       </c>
       <c r="H29" s="27"/>
       <c r="K29" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1">
@@ -3480,7 +3559,7 @@
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="27" t="s">
@@ -3493,7 +3572,7 @@
         <v>1115</v>
       </c>
       <c r="K30" s="27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1">
@@ -3504,10 +3583,10 @@
         <v>26</v>
       </c>
       <c r="C31" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="25" t="s">
         <v>74</v>
-      </c>
-      <c r="D31" s="25" t="s">
-        <v>75</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="27" t="s">
@@ -3517,7 +3596,7 @@
         <v>1820</v>
       </c>
       <c r="K31" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1">
@@ -3528,10 +3607,10 @@
         <v>27</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="E32" s="10"/>
       <c r="F32" s="27" t="s">
@@ -3541,10 +3620,10 @@
         <v>1820</v>
       </c>
       <c r="H32" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="K32" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.75" customHeight="1">
@@ -3555,10 +3634,10 @@
         <v>28</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="D33" s="25" t="s">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="27" t="s">
@@ -3567,6 +3646,12 @@
       <c r="G33" s="28">
         <v>1820</v>
       </c>
+      <c r="H33" t="s">
+        <v>598</v>
+      </c>
+      <c r="I33" t="s">
+        <v>599</v>
+      </c>
       <c r="K33" s="27" t="s">
         <v>52</v>
       </c>
@@ -3579,7 +3664,7 @@
         <v>29</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D34" s="25" t="s">
         <v>27</v>
@@ -3592,10 +3677,10 @@
         <v>1820</v>
       </c>
       <c r="I34" s="27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K34" s="27" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.75" customHeight="1">
@@ -3607,22 +3692,22 @@
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="13" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="E35" s="31" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F35" s="27" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G35" s="28">
         <v>1820</v>
       </c>
       <c r="H35" s="27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K35" s="27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75" customHeight="1">
@@ -3636,7 +3721,7 @@
         <v>39</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="27" t="s">
@@ -3646,7 +3731,7 @@
         <v>1820</v>
       </c>
       <c r="H36" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="K36" s="27" t="s">
         <v>31</v>
@@ -3660,10 +3745,10 @@
         <v>32</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="27" t="s">
@@ -3687,10 +3772,10 @@
         <v>33</v>
       </c>
       <c r="C38" s="29" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="27" t="s">
@@ -3699,8 +3784,11 @@
       <c r="G38" s="28">
         <v>1820</v>
       </c>
+      <c r="H38" t="s">
+        <v>588</v>
+      </c>
       <c r="K38" s="27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="15.75" customHeight="1">
@@ -3715,7 +3803,7 @@
         <v>27</v>
       </c>
       <c r="E39" s="31" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F39" s="27" t="s">
         <v>20</v>
@@ -3723,11 +3811,14 @@
       <c r="G39" s="28">
         <v>1820</v>
       </c>
+      <c r="H39" s="24" t="s">
+        <v>588</v>
+      </c>
       <c r="I39" s="27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K39" s="27" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.75" customHeight="1">
@@ -3738,13 +3829,13 @@
         <v>35</v>
       </c>
       <c r="C40" s="29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D40" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F40" s="27" t="s">
         <v>20</v>
@@ -3752,11 +3843,14 @@
       <c r="G40" s="28">
         <v>1820</v>
       </c>
+      <c r="H40" t="s">
+        <v>588</v>
+      </c>
       <c r="I40" s="27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K40" s="27" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.75" customHeight="1">
@@ -3767,10 +3861,10 @@
         <v>36</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E41" s="10"/>
       <c r="F41" s="27" t="s">
@@ -3780,7 +3874,7 @@
         <v>1820</v>
       </c>
       <c r="K41" s="27" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1">
@@ -3792,7 +3886,7 @@
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E42" s="10"/>
       <c r="F42" s="27" t="s">
@@ -3802,7 +3896,7 @@
         <v>1820</v>
       </c>
       <c r="K42" s="27" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="15.75" customHeight="1">
@@ -3825,11 +3919,14 @@
       <c r="G43" s="28">
         <v>1820</v>
       </c>
-      <c r="I43" s="27" t="s">
-        <v>103</v>
+      <c r="H43">
+        <v>1909</v>
+      </c>
+      <c r="I43" s="24" t="s">
+        <v>611</v>
       </c>
       <c r="J43" s="27" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="15.75" customHeight="1">
@@ -3840,23 +3937,23 @@
         <v>39</v>
       </c>
       <c r="C44" s="31" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E44" s="10"/>
       <c r="F44" s="27" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G44" s="28">
         <v>1820</v>
       </c>
       <c r="J44" s="27" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K44" s="27" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="15.75" customHeight="1">
@@ -3867,8 +3964,8 @@
         <v>40</v>
       </c>
       <c r="C45" s="10"/>
-      <c r="D45" s="25" t="s">
-        <v>109</v>
+      <c r="D45" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="E45" s="10"/>
       <c r="F45" s="27" t="s">
@@ -3877,8 +3974,11 @@
       <c r="G45" s="28">
         <v>1820</v>
       </c>
+      <c r="I45" t="s">
+        <v>589</v>
+      </c>
       <c r="K45" s="27" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="15.75" customHeight="1">
@@ -3900,10 +4000,10 @@
         <v>1820</v>
       </c>
       <c r="I46" s="27" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K46" s="27" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="15.75" customHeight="1">
@@ -3925,10 +4025,10 @@
         <v>1820</v>
       </c>
       <c r="I47" s="27" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="K47" s="27" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="15.75" customHeight="1">
@@ -3940,7 +4040,7 @@
       </c>
       <c r="C48" s="10"/>
       <c r="D48" s="25" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E48" s="10"/>
       <c r="F48" s="27" t="s">
@@ -3950,7 +4050,7 @@
         <v>1820</v>
       </c>
       <c r="H48" s="27" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K48" s="27" t="s">
         <v>31</v>
@@ -3964,10 +4064,10 @@
         <v>44</v>
       </c>
       <c r="C49" s="29" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E49" s="10"/>
       <c r="F49" s="27" t="s">
@@ -3980,7 +4080,7 @@
         <v>2529</v>
       </c>
       <c r="K49" s="27" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="15.75" customHeight="1">
@@ -3992,7 +4092,7 @@
       </c>
       <c r="C50" s="10"/>
       <c r="D50" s="25" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E50" s="10"/>
       <c r="F50" s="27" t="s">
@@ -4002,7 +4102,7 @@
         <v>1820</v>
       </c>
       <c r="K50" s="27" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="15.75" customHeight="1">
@@ -4024,10 +4124,10 @@
         <v>1820</v>
       </c>
       <c r="I51" s="27" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="K51" s="27" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="15.75" customHeight="1">
@@ -4038,7 +4138,7 @@
         <v>47</v>
       </c>
       <c r="C52" s="29" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D52" s="25" t="s">
         <v>27</v>
@@ -4050,11 +4150,14 @@
       <c r="G52" s="28">
         <v>1820</v>
       </c>
-      <c r="I52" s="27" t="s">
-        <v>125</v>
+      <c r="H52" t="s">
+        <v>607</v>
+      </c>
+      <c r="I52" s="24" t="s">
+        <v>608</v>
       </c>
       <c r="K52" s="27" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="15.75" customHeight="1">
@@ -4066,7 +4169,7 @@
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="25" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E53" s="10"/>
       <c r="F53" s="27" t="s">
@@ -4079,10 +4182,10 @@
         <v>2630</v>
       </c>
       <c r="J53" s="27" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="K53" s="27" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="15.75" customHeight="1">
@@ -4093,8 +4196,8 @@
         <v>49</v>
       </c>
       <c r="C54" s="10"/>
-      <c r="D54" s="25" t="s">
-        <v>130</v>
+      <c r="D54" s="13" t="s">
+        <v>586</v>
       </c>
       <c r="E54" s="10"/>
       <c r="F54" s="27" t="s">
@@ -4103,8 +4206,14 @@
       <c r="G54" s="28">
         <v>1820</v>
       </c>
+      <c r="H54" t="s">
+        <v>587</v>
+      </c>
+      <c r="I54" t="s">
+        <v>585</v>
+      </c>
       <c r="K54" s="27" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="15.75" customHeight="1">
@@ -4126,10 +4235,10 @@
         <v>1820</v>
       </c>
       <c r="I55" s="30" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="K55" s="27" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="15.75" customHeight="1">
@@ -4141,7 +4250,7 @@
       </c>
       <c r="C56" s="10"/>
       <c r="D56" s="25" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E56" s="10"/>
       <c r="F56" s="27" t="s">
@@ -4150,8 +4259,11 @@
       <c r="G56" s="28">
         <v>1820</v>
       </c>
+      <c r="H56" s="47" t="s">
+        <v>609</v>
+      </c>
       <c r="K56" s="27" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="15.75" customHeight="1">
@@ -4163,7 +4275,7 @@
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="25" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E57" s="10"/>
       <c r="F57" s="27" t="s">
@@ -4173,10 +4285,10 @@
         <v>1820</v>
       </c>
       <c r="H57" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="K57" s="27" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="13">
@@ -4187,10 +4299,10 @@
         <v>53</v>
       </c>
       <c r="C58" s="29" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E58" s="10"/>
       <c r="F58" s="27" t="s">
@@ -4200,7 +4312,7 @@
         <v>1820</v>
       </c>
       <c r="J58" s="27" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="K58" s="27" t="s">
         <v>31</v>
@@ -4215,7 +4327,7 @@
       </c>
       <c r="C59" s="10"/>
       <c r="D59" s="25" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E59" s="10"/>
       <c r="F59" s="27" t="s">
@@ -4225,7 +4337,7 @@
         <v>1820</v>
       </c>
       <c r="K59" s="27" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="13">
@@ -4237,7 +4349,7 @@
       </c>
       <c r="C60" s="10"/>
       <c r="D60" s="25" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E60" s="10"/>
       <c r="F60" s="27" t="s">
@@ -4247,7 +4359,7 @@
         <v>1820</v>
       </c>
       <c r="K60" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="13">
@@ -4258,7 +4370,7 @@
         <v>56</v>
       </c>
       <c r="C61" s="29" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D61" s="25" t="s">
         <v>27</v>
@@ -4271,10 +4383,10 @@
         <v>1820</v>
       </c>
       <c r="I61" s="27" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="K61" s="27" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="13">
@@ -4285,7 +4397,7 @@
         <v>57</v>
       </c>
       <c r="C62" s="29" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D62" s="25" t="s">
         <v>27</v>
@@ -4298,13 +4410,13 @@
         <v>1820</v>
       </c>
       <c r="I62" s="27" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="J62" s="27" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="K62" s="27" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="13">
@@ -4315,10 +4427,10 @@
         <v>58</v>
       </c>
       <c r="C63" s="31" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D63" s="25" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E63" s="10"/>
       <c r="F63" s="27" t="s">
@@ -4328,10 +4440,10 @@
         <v>1820</v>
       </c>
       <c r="H63" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="K63" s="27" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="13">
@@ -4342,23 +4454,26 @@
         <v>59</v>
       </c>
       <c r="C64" s="29" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D64" s="25" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E64" s="10"/>
       <c r="F64" s="27" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="G64" s="28">
         <v>1820</v>
       </c>
+      <c r="H64" s="47" t="s">
+        <v>593</v>
+      </c>
       <c r="J64" s="27" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="K64" s="27" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="13">
@@ -4369,10 +4484,10 @@
         <v>60</v>
       </c>
       <c r="C65" s="29" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D65" s="25" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E65" s="10"/>
       <c r="F65" s="27" t="s">
@@ -4382,10 +4497,10 @@
         <v>1820</v>
       </c>
       <c r="H65" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="K65" s="27" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="13">
@@ -4396,10 +4511,10 @@
         <v>61</v>
       </c>
       <c r="C66" s="29" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E66" s="10"/>
       <c r="F66" s="27" t="s">
@@ -4409,13 +4524,13 @@
         <v>1820</v>
       </c>
       <c r="H66" s="27" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="J66" s="27" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="K66" s="27" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="13">
@@ -4426,10 +4541,10 @@
         <v>62</v>
       </c>
       <c r="C67" s="29" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D67" s="25" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E67" s="10"/>
       <c r="F67" s="27" t="s">
@@ -4439,10 +4554,10 @@
         <v>1820</v>
       </c>
       <c r="H67" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="K67" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="13">
@@ -4453,10 +4568,10 @@
         <v>63</v>
       </c>
       <c r="C68" s="29" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D68" s="25" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E68" s="10"/>
       <c r="F68" s="27" t="s">
@@ -4466,7 +4581,7 @@
         <v>1820</v>
       </c>
       <c r="K68" s="27" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="13">
@@ -4478,7 +4593,7 @@
       </c>
       <c r="C69" s="10"/>
       <c r="D69" s="25" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E69" s="10"/>
       <c r="F69" s="27" t="s">
@@ -4491,7 +4606,7 @@
         <v>3176</v>
       </c>
       <c r="K69" s="27" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="13">
@@ -4503,7 +4618,7 @@
       </c>
       <c r="C70" s="10"/>
       <c r="D70" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E70" s="10"/>
       <c r="F70" s="27" t="s">
@@ -4512,8 +4627,11 @@
       <c r="G70" s="28">
         <v>1820</v>
       </c>
+      <c r="H70" s="47" t="s">
+        <v>600</v>
+      </c>
       <c r="K70" s="27" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="13">
@@ -4525,7 +4643,7 @@
       </c>
       <c r="C71" s="10"/>
       <c r="D71" s="25" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E71" s="10"/>
       <c r="F71" s="27" t="s">
@@ -4547,7 +4665,7 @@
       </c>
       <c r="C72" s="10"/>
       <c r="D72" s="25" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E72" s="10"/>
       <c r="F72" s="27" t="s">
@@ -4569,7 +4687,7 @@
       </c>
       <c r="C73" s="10"/>
       <c r="D73" s="25" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E73" s="10"/>
       <c r="F73" s="27" t="s">
@@ -4579,7 +4697,7 @@
         <v>1820</v>
       </c>
       <c r="K73" s="27" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="13">
@@ -4591,7 +4709,7 @@
       </c>
       <c r="C74" s="10"/>
       <c r="D74" s="25" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E74" s="10"/>
       <c r="F74" s="27" t="s">
@@ -4601,7 +4719,7 @@
         <v>1820</v>
       </c>
       <c r="K74" s="27" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="13">
@@ -4613,7 +4731,7 @@
       </c>
       <c r="C75" s="10"/>
       <c r="D75" s="25" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E75" s="10"/>
       <c r="F75" s="27" t="s">
@@ -4623,7 +4741,7 @@
         <v>1820</v>
       </c>
       <c r="K75" s="27" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="13">
@@ -4634,10 +4752,10 @@
         <v>71</v>
       </c>
       <c r="C76" s="29" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E76" s="10"/>
       <c r="F76" s="27" t="s">
@@ -4647,10 +4765,10 @@
         <v>1820</v>
       </c>
       <c r="J76" s="27" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="K76" s="27" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="13">
@@ -4662,7 +4780,7 @@
       </c>
       <c r="C77" s="10"/>
       <c r="D77" s="25" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E77" s="10"/>
       <c r="F77" s="27" t="s">
@@ -4672,10 +4790,10 @@
         <v>1820</v>
       </c>
       <c r="J77" s="27" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="K77" s="27" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="13">
@@ -4686,10 +4804,10 @@
         <v>73</v>
       </c>
       <c r="C78" s="29" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D78" s="25" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E78" s="10"/>
       <c r="F78" s="27" t="s">
@@ -4699,7 +4817,7 @@
         <v>1820</v>
       </c>
       <c r="J78" s="27" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="K78" s="27" t="s">
         <v>31</v>
@@ -4714,7 +4832,7 @@
       </c>
       <c r="C79" s="10"/>
       <c r="D79" s="25" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E79" s="10"/>
       <c r="F79" s="27" t="s">
@@ -4727,7 +4845,7 @@
         <v>3602</v>
       </c>
       <c r="K79" s="27" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="13">
@@ -4746,13 +4864,13 @@
         <v>20</v>
       </c>
       <c r="G80" s="28">
-        <v>1770</v>
+        <v>1720</v>
       </c>
       <c r="I80" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="K80" s="27" t="s">
-        <v>196</v>
+        <v>189</v>
+      </c>
+      <c r="K80" s="24" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="13">
@@ -4763,10 +4881,10 @@
         <v>76</v>
       </c>
       <c r="C81" s="29" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D81" s="25" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="E81" s="10"/>
       <c r="F81" s="27" t="s">
@@ -4776,13 +4894,13 @@
         <v>1820</v>
       </c>
       <c r="H81" s="27" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="J81" s="27" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="K81" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="13">
@@ -4793,26 +4911,26 @@
         <v>77</v>
       </c>
       <c r="C82" s="29" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D82" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E82" s="10"/>
       <c r="F82" s="27" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="G82" s="28">
         <v>1820</v>
       </c>
       <c r="I82" s="27" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="J82" s="27" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="K82" s="27" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="13">
@@ -4823,10 +4941,10 @@
         <v>78</v>
       </c>
       <c r="C83" s="29" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D83" s="25" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="E83" s="10"/>
       <c r="F83" s="27" t="s">
@@ -4836,10 +4954,10 @@
         <v>1820</v>
       </c>
       <c r="H83" s="47" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="K83" s="27" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="13">
@@ -4851,7 +4969,7 @@
       </c>
       <c r="C84" s="10"/>
       <c r="D84" s="25" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="E84" s="10"/>
       <c r="F84" s="27" t="s">
@@ -4864,7 +4982,7 @@
         <v>920991</v>
       </c>
       <c r="K84" s="27" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="13">
@@ -4876,7 +4994,7 @@
       </c>
       <c r="C85" s="10"/>
       <c r="D85" s="25" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E85" s="10"/>
       <c r="F85" s="27" t="s">
@@ -4886,10 +5004,10 @@
         <v>1820</v>
       </c>
       <c r="H85" s="27" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="K85" s="27" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="13">
@@ -4911,13 +5029,13 @@
         <v>1820</v>
       </c>
       <c r="H86" s="27" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="I86" s="27" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="K86" s="27" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="13">
@@ -4929,7 +5047,7 @@
       </c>
       <c r="C87" s="10"/>
       <c r="D87" s="25" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="E87" s="10"/>
       <c r="F87" s="27" t="s">
@@ -4939,7 +5057,7 @@
         <v>1820</v>
       </c>
       <c r="K87" s="27" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="13">
@@ -4950,7 +5068,7 @@
         <v>83</v>
       </c>
       <c r="C88" s="29" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D88" s="25" t="s">
         <v>27</v>
@@ -4966,10 +5084,10 @@
         <v>5673</v>
       </c>
       <c r="I88" s="27" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="K88" s="27" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="13">
@@ -4980,7 +5098,7 @@
         <v>84</v>
       </c>
       <c r="C89" s="29" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D89" s="25" t="s">
         <v>27</v>
@@ -4993,13 +5111,13 @@
         <v>1820</v>
       </c>
       <c r="H89" s="27" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="I89" s="27" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="J89" s="30" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="K89" s="27" t="s">
         <v>31</v>
@@ -5007,53 +5125,53 @@
     </row>
     <row r="90" spans="1:11" ht="13">
       <c r="A90" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B90" s="26">
         <v>1</v>
       </c>
       <c r="C90" s="10"/>
       <c r="D90" s="25" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E90" s="10"/>
       <c r="F90" s="27" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="G90" s="28">
         <v>1820</v>
       </c>
       <c r="K90" s="27" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="13">
       <c r="A91" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B91" s="26">
         <v>2</v>
       </c>
       <c r="C91" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D91" s="25" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="E91" s="10"/>
       <c r="F91" s="27" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="G91" s="28">
         <v>1820</v>
       </c>
       <c r="K91" s="27" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="13">
       <c r="A92" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B92" s="26">
         <v>3</v>
@@ -5064,108 +5182,111 @@
       </c>
       <c r="E92" s="10"/>
       <c r="F92" s="27" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="G92" s="28">
         <v>1820</v>
       </c>
       <c r="I92" s="27" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="K92" s="27" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="13">
       <c r="A93" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B93" s="26">
         <v>4</v>
       </c>
       <c r="C93" s="29" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D93" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E93" s="10"/>
       <c r="F93" s="27" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="G93" s="28">
         <v>1820</v>
       </c>
       <c r="I93" s="27" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="K93" s="27" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="13">
       <c r="A94" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B94" s="26">
         <v>5</v>
       </c>
       <c r="C94" s="10"/>
       <c r="D94" s="25" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="E94" s="10"/>
       <c r="F94" s="27" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="G94" s="28">
         <v>1820</v>
       </c>
       <c r="K94" s="27" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="13">
       <c r="A95" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B95" s="26">
         <v>6</v>
       </c>
       <c r="C95" s="29" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D95" s="25" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="E95" s="10"/>
       <c r="F95" s="27" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="G95" s="28">
         <v>1820</v>
       </c>
+      <c r="H95" t="s">
+        <v>582</v>
+      </c>
       <c r="J95" s="33" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="K95" s="27" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="13">
       <c r="A96" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B96" s="26">
         <v>7</v>
       </c>
       <c r="C96" s="10"/>
       <c r="D96" s="25" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E96" s="10"/>
       <c r="F96" s="27" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="G96" s="28">
         <v>1820</v>
@@ -5174,251 +5295,254 @@
         <v>5004</v>
       </c>
       <c r="J96" s="34" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="K96" s="27" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="13">
       <c r="A97" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B97" s="26">
         <v>8</v>
       </c>
       <c r="C97" s="31" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D97" s="25" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="E97" s="10"/>
       <c r="F97" s="27" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="G97" s="28">
         <v>1820</v>
       </c>
       <c r="K97" s="27" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="13">
       <c r="A98" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B98" s="26">
         <v>9</v>
       </c>
       <c r="C98" s="29" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="D98" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E98" s="10"/>
       <c r="F98" s="27" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="G98" s="28">
         <v>1820</v>
       </c>
       <c r="H98" s="33" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I98" s="27" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="K98" s="27" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="13">
       <c r="A99" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B99" s="26">
         <v>10</v>
       </c>
       <c r="C99" s="29" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D99" s="25" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E99" s="10"/>
       <c r="F99" s="27" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="G99" s="28">
         <v>1820</v>
       </c>
       <c r="K99" s="27" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="13">
       <c r="A100" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B100" s="26">
         <v>11</v>
       </c>
       <c r="C100" s="31" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D100" s="25" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="E100" s="10"/>
       <c r="F100" s="27" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="G100" s="28">
         <v>1820</v>
       </c>
       <c r="K100" s="27" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="13">
       <c r="A101" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B101" s="26">
         <v>12</v>
       </c>
       <c r="C101" s="29" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D101" s="25" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="E101" s="10"/>
       <c r="F101" s="27" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="G101" s="28">
         <v>1820</v>
       </c>
       <c r="H101" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="J101" s="33" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="K101" s="27" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="13">
       <c r="A102" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B102" s="26">
         <v>13</v>
       </c>
       <c r="C102" s="31" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D102" s="25" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="E102" s="10"/>
       <c r="F102" s="27" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="G102" s="28">
         <v>1820</v>
       </c>
       <c r="H102" s="27" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="J102" s="33" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="K102" s="27" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="13">
       <c r="A103" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B103" s="26">
         <v>14</v>
       </c>
       <c r="C103" s="31" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D103" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E103" s="10"/>
       <c r="F103" s="27" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="G103" s="28">
         <v>1820</v>
       </c>
+      <c r="H103" s="47" t="s">
+        <v>584</v>
+      </c>
       <c r="I103" s="27" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="J103" s="33" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="K103" s="27" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="13">
       <c r="A104" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B104" s="26">
         <v>15</v>
       </c>
       <c r="C104" s="29" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D104" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E104" s="10"/>
       <c r="F104" s="27" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="G104" s="28">
         <v>1820</v>
       </c>
       <c r="H104" s="33" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="I104" s="27" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="J104" s="33" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="K104" s="27" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="13">
       <c r="A105" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B105" s="26">
         <v>16</v>
       </c>
       <c r="C105" s="10"/>
       <c r="D105" s="25" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="E105" s="10"/>
       <c r="F105" s="27" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="G105" s="28">
         <v>1820</v>
@@ -5427,26 +5551,26 @@
         <v>5385</v>
       </c>
       <c r="J105" s="27" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="K105" s="27" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="13">
       <c r="A106" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B106" s="26">
         <v>17</v>
       </c>
       <c r="C106" s="10"/>
       <c r="D106" s="25" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="E106" s="10"/>
       <c r="F106" s="27" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="G106" s="28">
         <v>1820</v>
@@ -5455,55 +5579,55 @@
         <v>5415</v>
       </c>
       <c r="K106" s="27" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="107" spans="1:11" ht="13">
       <c r="A107" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B107" s="26">
         <v>18</v>
       </c>
       <c r="C107" s="29" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D107" s="25" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="E107" s="10"/>
       <c r="F107" s="27" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="G107" s="28">
         <v>1820</v>
       </c>
       <c r="H107" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="J107" s="33" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="K107" s="27" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="13">
       <c r="A108" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B108" s="26">
         <v>19</v>
       </c>
       <c r="C108" s="29" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D108" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E108" s="10"/>
       <c r="F108" s="27" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="G108" s="28">
         <v>1820</v>
@@ -5512,18 +5636,18 @@
         <v>5440</v>
       </c>
       <c r="I108" s="27" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="J108" s="33" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="K108" s="27" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="13">
       <c r="A109" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B109" s="26">
         <v>20</v>
@@ -5534,7 +5658,7 @@
       </c>
       <c r="E109" s="10"/>
       <c r="F109" s="27" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="G109" s="28">
         <v>1820</v>
@@ -5543,22 +5667,22 @@
         <v>5504</v>
       </c>
       <c r="I109" s="27" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="K109" s="27" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="13">
       <c r="A110" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B110" s="26">
         <v>21</v>
       </c>
       <c r="C110" s="10"/>
       <c r="D110" s="25" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="E110" s="10"/>
       <c r="F110" s="27" t="s">
@@ -5576,7 +5700,7 @@
     </row>
     <row r="111" spans="1:11" ht="13">
       <c r="A111" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B111" s="26">
         <v>22</v>
@@ -5593,24 +5717,24 @@
         <v>1820</v>
       </c>
       <c r="I111" s="27" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="K111" s="27" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="112" spans="1:11" ht="13">
       <c r="A112" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B112" s="26">
         <v>23</v>
       </c>
       <c r="C112" s="29" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D112" s="25" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E112" s="10"/>
       <c r="F112" s="27" t="s">
@@ -5620,21 +5744,21 @@
         <v>1820</v>
       </c>
       <c r="K112" s="27" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
     <row r="113" spans="1:11" ht="13">
       <c r="A113" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B113" s="26">
         <v>24</v>
       </c>
       <c r="C113" s="29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D113" s="25" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="E113" s="10"/>
       <c r="F113" s="27" t="s">
@@ -5643,22 +5767,25 @@
       <c r="G113" s="28">
         <v>1820</v>
       </c>
+      <c r="H113" s="47" t="s">
+        <v>597</v>
+      </c>
       <c r="K113" s="27" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="114" spans="1:11" ht="13">
       <c r="A114" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B114" s="26">
         <v>25</v>
       </c>
       <c r="C114" s="29" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D114" s="25" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="E114" s="10"/>
       <c r="F114" s="27" t="s">
@@ -5667,13 +5794,16 @@
       <c r="G114" s="28">
         <v>1820</v>
       </c>
+      <c r="H114" t="s">
+        <v>597</v>
+      </c>
       <c r="K114" s="27" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="13">
       <c r="A115" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B115" s="26">
         <v>26</v>
@@ -5690,18 +5820,18 @@
         <v>1820</v>
       </c>
       <c r="H115" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="I115" s="27" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="K115" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="116" spans="1:11" ht="13">
       <c r="A116" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B116" s="26">
         <v>27</v>
@@ -5723,40 +5853,40 @@
         <v>5643</v>
       </c>
       <c r="I116" s="27" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="K116" s="27" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="13">
       <c r="A117" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B117" s="26">
         <v>28</v>
       </c>
       <c r="C117" s="10"/>
       <c r="D117" s="25" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="E117" s="10"/>
       <c r="F117" s="27" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="G117" s="28">
         <v>1820</v>
       </c>
       <c r="H117" s="27" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K117" s="27" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="118" spans="1:11" ht="13">
       <c r="A118" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B118" s="26">
         <v>29</v>
@@ -5767,7 +5897,7 @@
       </c>
       <c r="E118" s="10"/>
       <c r="F118" s="27" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="G118" s="28">
         <v>1820</v>
@@ -5776,22 +5906,22 @@
         <v>5660</v>
       </c>
       <c r="I118" s="27" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="K118" s="35" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="13">
       <c r="A119" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B119" s="26">
         <v>30</v>
       </c>
       <c r="C119" s="10"/>
       <c r="D119" s="25" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="E119" s="10"/>
       <c r="F119" s="27" t="s">
@@ -5801,19 +5931,19 @@
         <v>1820</v>
       </c>
       <c r="K119" s="27" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="13">
       <c r="A120" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B120" s="26">
         <v>31</v>
       </c>
       <c r="C120" s="10"/>
       <c r="D120" s="25" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="E120" s="10"/>
       <c r="F120" s="27" t="s">
@@ -5823,7 +5953,7 @@
         <v>1820</v>
       </c>
       <c r="H120" s="27" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="K120" s="27" t="s">
         <v>31</v>
@@ -5831,17 +5961,17 @@
     </row>
     <row r="121" spans="1:11" ht="13">
       <c r="A121" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B121" s="26">
         <v>32</v>
       </c>
       <c r="C121" s="10"/>
       <c r="D121" s="25" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E121" s="31" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="F121" s="27" t="s">
         <v>20</v>
@@ -5853,19 +5983,19 @@
         <v>5804</v>
       </c>
       <c r="K121" s="27" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
     <row r="122" spans="1:11" ht="13">
       <c r="A122" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B122" s="26">
         <v>33</v>
       </c>
       <c r="C122" s="10"/>
       <c r="D122" s="25" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E122" s="10"/>
       <c r="F122" s="27" t="s">
@@ -5883,14 +6013,14 @@
     </row>
     <row r="123" spans="1:11" ht="13">
       <c r="A123" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B123" s="26">
         <v>34</v>
       </c>
       <c r="C123" s="10"/>
       <c r="D123" s="25" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="E123" s="10"/>
       <c r="F123" s="27" t="s">
@@ -5903,19 +6033,19 @@
         <v>5828</v>
       </c>
       <c r="K123" s="27" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="124" spans="1:11" ht="13">
       <c r="A124" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B124" s="26">
         <v>35</v>
       </c>
       <c r="C124" s="10"/>
       <c r="D124" s="25" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="E124" s="10"/>
       <c r="F124" s="27" t="s">
@@ -5925,15 +6055,15 @@
         <v>1820</v>
       </c>
       <c r="H124" s="27" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="K124" s="27" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="13">
       <c r="A125" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B125" s="26">
         <v>36</v>
@@ -5950,18 +6080,18 @@
         <v>1820</v>
       </c>
       <c r="H125" s="27" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="I125" s="27" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="K125" s="27" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="126" spans="1:11" ht="13">
       <c r="A126" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B126" s="26">
         <v>37</v>
@@ -5978,15 +6108,15 @@
         <v>1820</v>
       </c>
       <c r="I126" s="27" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="K126" s="27" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
     <row r="127" spans="1:11" ht="13">
       <c r="A127" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B127" s="26">
         <v>38</v>
@@ -6008,14 +6138,14 @@
     </row>
     <row r="128" spans="1:11" ht="13">
       <c r="A128" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B128" s="26">
         <v>39</v>
       </c>
       <c r="C128" s="10"/>
       <c r="D128" s="25" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="E128" s="10"/>
       <c r="F128" s="27" t="s">
@@ -6025,7 +6155,7 @@
         <v>1830</v>
       </c>
       <c r="H128" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="K128" s="27" t="s">
         <v>31</v>
@@ -6033,7 +6163,7 @@
     </row>
     <row r="129" spans="1:11" ht="13">
       <c r="A129" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B129" s="26">
         <v>40</v>
@@ -6050,12 +6180,12 @@
         <v>1830</v>
       </c>
       <c r="K129" s="27" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
     </row>
     <row r="130" spans="1:11" ht="15">
       <c r="A130" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B130" s="26">
         <v>41</v>
@@ -6066,21 +6196,21 @@
       </c>
       <c r="E130" s="10"/>
       <c r="F130" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G130" s="28">
         <v>1830</v>
       </c>
       <c r="I130" s="36" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="K130" s="36" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="131" spans="1:11" ht="13">
       <c r="A131" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B131" s="26">
         <v>42</v>
@@ -6105,14 +6235,14 @@
     </row>
     <row r="132" spans="1:11" ht="13">
       <c r="A132" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B132" s="26">
         <v>43</v>
       </c>
       <c r="C132" s="10"/>
       <c r="D132" s="25" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="E132" s="10"/>
       <c r="F132" s="27" t="s">
@@ -6122,19 +6252,19 @@
         <v>1830</v>
       </c>
       <c r="K132" s="27" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="133" spans="1:11" ht="13">
       <c r="A133" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B133" s="26">
         <v>44</v>
       </c>
       <c r="C133" s="10"/>
       <c r="D133" s="25" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="E133" s="10"/>
       <c r="F133" s="27" t="s">
@@ -6144,12 +6274,12 @@
         <v>1830</v>
       </c>
       <c r="K133" s="27" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
     </row>
     <row r="134" spans="1:11" ht="13">
       <c r="A134" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B134" s="26">
         <v>45</v>
@@ -6160,145 +6290,145 @@
       </c>
       <c r="E134" s="10"/>
       <c r="F134" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G134" s="28">
         <v>1830</v>
       </c>
       <c r="I134" s="27" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="J134" s="27" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="K134" s="27" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="135" spans="1:11" ht="13">
       <c r="A135" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B135" s="26">
         <v>46</v>
       </c>
       <c r="C135" s="10"/>
       <c r="D135" s="25" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E135" s="10"/>
       <c r="F135" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G135" s="28">
         <v>1830</v>
       </c>
       <c r="J135" s="27" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="K135" s="27" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="136" spans="1:11" ht="13">
       <c r="A136" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B136" s="26">
         <v>47</v>
       </c>
       <c r="C136" s="29" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="D136" s="25" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E136" s="10"/>
       <c r="F136" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G136" s="28">
         <v>1830</v>
       </c>
       <c r="K136" s="27" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="137" spans="1:11" ht="15">
       <c r="A137" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B137" s="26">
         <v>48</v>
       </c>
       <c r="C137" s="29" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D137" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E137" s="10"/>
       <c r="F137" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G137" s="28">
         <v>1830</v>
       </c>
       <c r="I137" s="36" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="J137" s="27"/>
       <c r="K137" s="35" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="138" spans="1:11" ht="13">
       <c r="A138" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B138" s="26">
         <v>49</v>
       </c>
       <c r="C138" s="10"/>
       <c r="D138" s="25" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="E138" s="10"/>
       <c r="F138" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G138" s="28">
         <v>1830</v>
       </c>
       <c r="K138" s="27" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="139" spans="1:11" ht="13">
       <c r="A139" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B139" s="26">
         <v>50</v>
       </c>
       <c r="C139" s="10"/>
       <c r="D139" s="25" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="E139" s="10"/>
       <c r="F139" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G139" s="28">
         <v>1830</v>
       </c>
       <c r="K139" s="27" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="140" spans="1:11" ht="15">
       <c r="A140" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B140" s="26">
         <v>51</v>
@@ -6309,47 +6439,47 @@
       </c>
       <c r="E140" s="10"/>
       <c r="F140" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G140" s="28">
         <v>1830</v>
       </c>
       <c r="I140" s="36" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="K140" s="27" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="141" spans="1:11" ht="13">
       <c r="A141" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B141" s="26">
         <v>52</v>
       </c>
       <c r="C141" s="31" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D141" s="25" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E141" s="31" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="F141" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G141" s="28">
         <v>1830</v>
       </c>
       <c r="K141" s="27" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
     </row>
     <row r="142" spans="1:11" ht="13">
       <c r="A142" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B142" s="26">
         <v>53</v>
@@ -6358,89 +6488,92 @@
         <v>39</v>
       </c>
       <c r="D142" s="25" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="E142" s="10"/>
       <c r="F142" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G142" s="28">
         <v>1830</v>
       </c>
       <c r="H142" s="27" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="K142" s="27" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="143" spans="1:11" ht="15">
       <c r="A143" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B143" s="26">
         <v>54</v>
       </c>
       <c r="C143" s="29" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D143" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E143" s="10"/>
       <c r="F143" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G143" s="28">
         <v>1830</v>
       </c>
+      <c r="H143" t="s">
+        <v>583</v>
+      </c>
       <c r="I143" s="36" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="K143" s="27" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="144" spans="1:11" ht="13">
       <c r="A144" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B144" s="26">
         <v>55</v>
       </c>
       <c r="C144" s="29" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="D144" s="25" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E144" s="10"/>
       <c r="F144" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G144" s="28">
         <v>1830</v>
       </c>
       <c r="K144" s="27" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="145" spans="1:11" ht="15">
       <c r="A145" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B145" s="26">
         <v>56</v>
       </c>
       <c r="C145" s="29" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D145" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E145" s="10"/>
       <c r="F145" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G145" s="28">
         <v>1830</v>
@@ -6449,172 +6582,172 @@
         <v>3559</v>
       </c>
       <c r="I145" s="36" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="K145" s="27"/>
     </row>
     <row r="146" spans="1:11" ht="13">
       <c r="A146" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B146" s="26">
         <v>57</v>
       </c>
       <c r="C146" s="10"/>
       <c r="D146" s="25" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E146" s="10"/>
       <c r="F146" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G146" s="28">
         <v>1830</v>
       </c>
       <c r="H146" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="K146" s="27" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
     </row>
     <row r="147" spans="1:11" ht="13">
       <c r="A147" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B147" s="26">
         <v>58</v>
       </c>
       <c r="C147" s="10"/>
       <c r="D147" s="25" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="E147" s="10"/>
       <c r="F147" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G147" s="28">
         <v>1830</v>
       </c>
       <c r="K147" s="27" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="148" spans="1:11" ht="13">
       <c r="A148" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B148" s="26">
         <v>59</v>
       </c>
       <c r="C148" s="10"/>
       <c r="D148" s="25" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="E148" s="10"/>
       <c r="F148" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G148" s="28">
         <v>1830</v>
       </c>
       <c r="K148" s="27" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
     </row>
     <row r="149" spans="1:11" ht="13">
       <c r="A149" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B149" s="26">
         <v>60</v>
       </c>
       <c r="C149" s="29" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D149" s="25" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="E149" s="10"/>
       <c r="F149" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G149" s="28">
         <v>1830</v>
       </c>
       <c r="H149" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="K149" s="27" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
     </row>
     <row r="150" spans="1:11" ht="15">
       <c r="A150" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B150" s="26">
         <v>61</v>
       </c>
       <c r="C150" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D150" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E150" s="10"/>
       <c r="F150" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G150" s="28">
         <v>1830</v>
       </c>
       <c r="I150" s="36" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="J150" s="27" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="K150" s="27" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
     </row>
     <row r="151" spans="1:11" ht="13">
       <c r="A151" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B151" s="26">
         <v>62</v>
       </c>
       <c r="C151" s="10"/>
       <c r="D151" s="25" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="E151" s="10"/>
       <c r="F151" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G151" s="28">
         <v>1830</v>
       </c>
       <c r="K151" s="27" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="152" spans="1:11" ht="13">
       <c r="A152" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B152" s="26">
         <v>63</v>
       </c>
       <c r="C152" s="10"/>
       <c r="D152" s="25" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="E152" s="10"/>
       <c r="F152" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G152" s="28">
         <v>1830</v>
@@ -6623,23 +6756,23 @@
         <v>3176</v>
       </c>
       <c r="K152" s="27" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="153" spans="1:11" ht="13">
       <c r="A153" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B153" s="26">
         <v>64</v>
       </c>
       <c r="C153" s="10"/>
       <c r="D153" s="25" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="E153" s="10"/>
       <c r="F153" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G153" s="28">
         <v>1830</v>
@@ -6648,128 +6781,128 @@
         <v>3112</v>
       </c>
       <c r="K153" s="27" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="154" spans="1:11" ht="13">
       <c r="A154" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B154" s="26">
         <v>65</v>
       </c>
       <c r="C154" s="10"/>
       <c r="D154" s="25" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E154" s="10"/>
       <c r="F154" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G154" s="28">
         <v>1830</v>
       </c>
       <c r="K154" s="27" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="155" spans="1:11" ht="14">
       <c r="A155" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B155" s="26">
         <v>66</v>
       </c>
       <c r="C155" s="29" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D155" s="25" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E155" s="10"/>
       <c r="F155" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G155" s="28">
         <v>1830</v>
       </c>
       <c r="H155" s="27" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="K155" s="37" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="156" spans="1:11" ht="15">
       <c r="A156" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B156" s="26">
         <v>67</v>
       </c>
       <c r="C156" s="31" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D156" s="25" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="E156" s="10"/>
       <c r="F156" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G156" s="28">
         <v>1830</v>
       </c>
       <c r="H156" s="38" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K156" s="27" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
     </row>
     <row r="157" spans="1:11" ht="15">
       <c r="A157" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B157" s="26">
         <v>68</v>
       </c>
       <c r="C157" s="29" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D157" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E157" s="10"/>
       <c r="F157" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G157" s="28">
         <v>1830</v>
       </c>
       <c r="I157" s="36" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K157" s="27" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="158" spans="1:11" ht="15">
       <c r="A158" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B158" s="26">
         <v>69</v>
       </c>
       <c r="C158" s="29" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D158" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E158" s="10"/>
       <c r="F158" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G158" s="28">
         <v>1830</v>
@@ -6778,50 +6911,56 @@
         <v>2529</v>
       </c>
       <c r="I158" s="36" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="K158" s="30" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="159" spans="1:11" ht="13">
       <c r="A159" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B159" s="26">
         <v>70</v>
       </c>
       <c r="C159" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="D159" s="25" t="s">
-        <v>385</v>
+        <v>120</v>
+      </c>
+      <c r="D159" s="13" t="s">
+        <v>586</v>
       </c>
       <c r="E159" s="10"/>
       <c r="F159" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G159" s="28">
         <v>1830</v>
       </c>
+      <c r="H159" t="s">
+        <v>607</v>
+      </c>
+      <c r="I159" s="47" t="s">
+        <v>608</v>
+      </c>
       <c r="K159" s="30" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
     </row>
     <row r="160" spans="1:11" ht="13">
       <c r="A160" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B160" s="26">
         <v>71</v>
       </c>
       <c r="C160" s="10"/>
       <c r="D160" s="25" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="E160" s="10"/>
       <c r="F160" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G160" s="28">
         <v>1830</v>
@@ -6829,7 +6968,7 @@
     </row>
     <row r="161" spans="1:11" ht="15">
       <c r="A161" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B161" s="26">
         <v>72</v>
@@ -6840,34 +6979,34 @@
       </c>
       <c r="E161" s="10"/>
       <c r="F161" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G161" s="28">
         <v>1830</v>
       </c>
       <c r="I161" s="36" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="K161" s="27" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
     </row>
     <row r="162" spans="1:11" ht="13">
       <c r="A162" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B162" s="26">
         <v>73</v>
       </c>
       <c r="C162" s="29" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D162" s="25" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="E162" s="10"/>
       <c r="F162" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G162" s="28">
         <v>1830</v>
@@ -6876,251 +7015,257 @@
         <v>2630</v>
       </c>
       <c r="K162" s="27" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
     </row>
     <row r="163" spans="1:11" ht="13">
       <c r="A163" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B163" s="26">
         <v>74</v>
       </c>
       <c r="C163" s="10"/>
       <c r="D163" s="25" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="E163" s="10"/>
       <c r="F163" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G163" s="28">
         <v>1830</v>
       </c>
       <c r="K163" s="27" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
     </row>
     <row r="164" spans="1:11" ht="15">
       <c r="A164" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B164" s="26">
         <v>75</v>
       </c>
       <c r="C164" s="29" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="D164" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E164" s="10"/>
       <c r="F164" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G164" s="28">
         <v>1830</v>
       </c>
       <c r="I164" s="36" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="K164" s="36" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
     </row>
     <row r="165" spans="1:11" ht="13">
       <c r="A165" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B165" s="26">
         <v>76</v>
       </c>
       <c r="C165" s="10"/>
       <c r="D165" s="25" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="E165" s="10"/>
       <c r="F165" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G165" s="28">
         <v>1830</v>
       </c>
       <c r="K165" s="27" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
     </row>
     <row r="166" spans="1:11" ht="13">
       <c r="A166" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B166" s="26">
         <v>77</v>
       </c>
       <c r="C166" s="29" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="D166" s="25" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="E166" s="10"/>
       <c r="F166" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G166" s="28">
         <v>1830</v>
       </c>
       <c r="K166" s="27" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
     </row>
     <row r="167" spans="1:11" ht="13">
       <c r="A167" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B167" s="26">
         <v>78</v>
       </c>
       <c r="C167" s="29" t="s">
-        <v>401</v>
-      </c>
-      <c r="D167" s="25" t="s">
-        <v>130</v>
+        <v>393</v>
+      </c>
+      <c r="D167" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="E167" s="10"/>
       <c r="F167" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G167" s="28">
         <v>1830</v>
       </c>
+      <c r="I167" t="s">
+        <v>585</v>
+      </c>
       <c r="K167" s="27" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
     </row>
     <row r="168" spans="1:11" ht="13">
       <c r="A168" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B168" s="26">
         <v>79</v>
       </c>
       <c r="C168" s="10"/>
-      <c r="D168" s="25" t="s">
-        <v>130</v>
+      <c r="D168" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="E168" s="10"/>
       <c r="F168" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G168" s="28">
         <v>1830</v>
       </c>
+      <c r="I168" t="s">
+        <v>585</v>
+      </c>
       <c r="K168" s="27" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
     </row>
     <row r="169" spans="1:11" ht="15">
       <c r="A169" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B169" s="26">
         <v>80</v>
       </c>
       <c r="C169" s="31" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D169" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E169" s="10"/>
       <c r="F169" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G169" s="28">
         <v>1830</v>
       </c>
       <c r="I169" s="36" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="J169" s="39"/>
       <c r="K169" s="37" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
     </row>
     <row r="170" spans="1:11" ht="14">
       <c r="A170" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B170" s="26">
         <v>81</v>
       </c>
       <c r="C170" s="29" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D170" s="25" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="E170" s="10"/>
       <c r="F170" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G170" s="28">
         <v>1830</v>
       </c>
       <c r="K170" s="37" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
     </row>
     <row r="171" spans="1:11" ht="13">
       <c r="A171" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B171" s="26">
         <v>82</v>
       </c>
       <c r="C171" s="29" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="D171" s="25" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="E171" s="10"/>
       <c r="F171" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G171" s="28">
         <v>1830</v>
       </c>
       <c r="K171" s="27" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
     </row>
     <row r="172" spans="1:11" ht="13">
       <c r="A172" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B172" s="26">
         <v>83</v>
       </c>
       <c r="C172" s="10"/>
       <c r="D172" s="25" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="E172" s="10"/>
       <c r="F172" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G172" s="28">
         <v>1830</v>
       </c>
       <c r="K172" s="27" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="173" spans="1:11" ht="15">
       <c r="A173" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B173" s="26">
         <v>84</v>
@@ -7131,7 +7276,7 @@
       </c>
       <c r="E173" s="10"/>
       <c r="F173" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G173" s="28">
         <v>1830</v>
@@ -7140,37 +7285,40 @@
         <v>3602</v>
       </c>
       <c r="I173" s="36" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="K173" s="27" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="174" spans="1:11" ht="13">
       <c r="A174" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B174" s="26">
         <v>85</v>
       </c>
       <c r="C174" s="10"/>
       <c r="D174" s="25" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="E174" s="10"/>
       <c r="F174" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G174" s="28">
         <v>1830</v>
       </c>
+      <c r="H174" t="s">
+        <v>595</v>
+      </c>
       <c r="K174" s="27" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
     </row>
     <row r="175" spans="1:11" ht="14">
       <c r="A175" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B175" s="26">
         <v>86</v>
@@ -7181,24 +7329,24 @@
       </c>
       <c r="E175" s="10"/>
       <c r="F175" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G175" s="28">
         <v>1830</v>
       </c>
       <c r="I175" s="37" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="J175" s="27" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="K175" s="27" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="176" spans="1:11" ht="15">
       <c r="A176" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B176" s="26">
         <v>87</v>
@@ -7209,18 +7357,18 @@
       </c>
       <c r="E176" s="10"/>
       <c r="F176" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G176" s="28">
         <v>1830</v>
       </c>
       <c r="I176" s="36" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
     </row>
     <row r="177" spans="1:11" ht="15">
       <c r="A177" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B177" s="26">
         <v>88</v>
@@ -7231,18 +7379,18 @@
       </c>
       <c r="E177" s="10"/>
       <c r="F177" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G177" s="28">
         <v>1830</v>
       </c>
       <c r="I177" s="36" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
     </row>
     <row r="178" spans="1:11" ht="15">
       <c r="A178" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B178" s="26">
         <v>89</v>
@@ -7253,29 +7401,29 @@
       </c>
       <c r="E178" s="10"/>
       <c r="F178" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G178" s="28">
         <v>1830</v>
       </c>
       <c r="I178" s="36" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
     </row>
     <row r="179" spans="1:11" ht="13">
       <c r="A179" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B179" s="26">
         <v>90</v>
       </c>
       <c r="C179" s="10"/>
       <c r="D179" s="25" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="E179" s="10"/>
       <c r="F179" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G179" s="28">
         <v>1830</v>
@@ -7283,83 +7431,81 @@
     </row>
     <row r="180" spans="1:11" ht="13">
       <c r="A180" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B180" s="26">
         <v>91</v>
       </c>
       <c r="C180" s="10"/>
       <c r="D180" s="25" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="E180" s="10"/>
       <c r="F180" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G180" s="28">
         <v>1830</v>
       </c>
       <c r="K180" s="27" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
     </row>
     <row r="181" spans="1:11" ht="13">
       <c r="A181" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B181" s="26">
         <v>92</v>
       </c>
       <c r="C181" s="31" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D181" s="25" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E181" s="10"/>
       <c r="F181" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G181" s="28">
         <v>1830</v>
       </c>
       <c r="H181" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="K181" s="27" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
     </row>
     <row r="182" spans="1:11" ht="14">
       <c r="A182" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B182" s="26">
         <v>93</v>
       </c>
       <c r="C182" s="31" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D182" s="25" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E182" s="10"/>
       <c r="F182" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G182" s="28">
         <v>1830</v>
       </c>
-      <c r="H182" s="40">
-        <v>563329</v>
-      </c>
+      <c r="H182" s="40"/>
       <c r="K182" s="37" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
     </row>
     <row r="183" spans="1:11" ht="15">
       <c r="A183" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B183" s="26">
         <v>94</v>
@@ -7370,160 +7516,163 @@
       </c>
       <c r="E183" s="10"/>
       <c r="F183" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G183" s="28">
         <v>1830</v>
       </c>
+      <c r="H183" t="s">
+        <v>601</v>
+      </c>
       <c r="I183" s="36" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="K183" s="27" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
     </row>
     <row r="184" spans="1:11" ht="13">
       <c r="A184" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B184" s="26">
         <v>95</v>
       </c>
       <c r="C184" s="29" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="D184" s="25" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="E184" s="10"/>
       <c r="F184" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G184" s="28">
         <v>1830</v>
       </c>
       <c r="K184" s="27" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
     </row>
     <row r="185" spans="1:11" ht="13">
       <c r="A185" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B185" s="26">
         <v>96</v>
       </c>
       <c r="C185" s="29" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D185" s="25" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="E185" s="10"/>
       <c r="F185" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G185" s="28">
         <v>1830</v>
       </c>
       <c r="K185" s="27" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
     </row>
     <row r="186" spans="1:11" ht="13">
       <c r="A186" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B186" s="26">
         <v>97</v>
       </c>
       <c r="C186" s="29" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="D186" s="25" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E186" s="10"/>
       <c r="F186" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G186" s="28">
         <v>1830</v>
       </c>
       <c r="K186" s="27" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
     </row>
     <row r="187" spans="1:11" ht="15">
       <c r="A187" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B187" s="26">
         <v>98</v>
       </c>
       <c r="C187" s="29" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="D187" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E187" s="10"/>
       <c r="F187" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G187" s="28">
         <v>1830</v>
       </c>
       <c r="I187" s="36" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="K187" s="27" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
     </row>
     <row r="188" spans="1:11" ht="13">
       <c r="A188" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B188" s="26">
         <v>99</v>
       </c>
       <c r="C188" s="29" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="D188" s="25" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="E188" s="10"/>
       <c r="F188" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G188" s="28">
         <v>1830</v>
       </c>
       <c r="J188" s="27" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="K188" s="27" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
     </row>
     <row r="189" spans="1:11" ht="13">
       <c r="A189" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B189" s="26">
         <v>100</v>
       </c>
       <c r="C189" s="29" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="D189" s="25" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="E189" s="10"/>
       <c r="F189" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G189" s="28">
         <v>1830</v>
@@ -7531,62 +7680,60 @@
     </row>
     <row r="190" spans="1:11" ht="15">
       <c r="A190" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B190" s="26">
         <v>101</v>
       </c>
       <c r="C190" s="29" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D190" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E190" s="10"/>
       <c r="F190" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G190" s="28">
         <v>1830</v>
       </c>
-      <c r="H190" s="41">
-        <v>561534</v>
-      </c>
+      <c r="H190" s="41"/>
       <c r="I190" s="36" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="J190" s="27" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="K190" s="42" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
     </row>
     <row r="191" spans="1:11" ht="13">
       <c r="A191" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B191" s="26">
         <v>102</v>
       </c>
       <c r="C191" s="10"/>
       <c r="D191" s="25" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="E191" s="10"/>
       <c r="F191" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G191" s="28">
         <v>1830</v>
       </c>
       <c r="K191" s="27" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
     </row>
     <row r="192" spans="1:11" ht="13">
       <c r="A192" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B192" s="26">
         <v>103</v>
@@ -7597,34 +7744,34 @@
       </c>
       <c r="E192" s="10"/>
       <c r="F192" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G192" s="28">
         <v>1830</v>
       </c>
       <c r="I192" s="27" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="K192" s="27" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
     </row>
     <row r="193" spans="1:11" ht="13">
       <c r="A193" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B193" s="26">
         <v>104</v>
       </c>
       <c r="C193" s="31" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D193" s="25" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="E193" s="10"/>
       <c r="F193" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G193" s="28">
         <v>1830</v>
@@ -7632,68 +7779,71 @@
     </row>
     <row r="194" spans="1:11" ht="13">
       <c r="A194" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B194" s="26">
         <v>105</v>
       </c>
       <c r="C194" s="29" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D194" s="25" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="E194" s="10"/>
       <c r="F194" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G194" s="28">
         <v>1830</v>
       </c>
+      <c r="H194" s="47" t="s">
+        <v>593</v>
+      </c>
       <c r="K194" s="27" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="195" spans="1:11" ht="13">
       <c r="A195" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B195" s="26">
         <v>106</v>
       </c>
       <c r="C195" s="29" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="D195" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E195" s="10"/>
       <c r="F195" s="27" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="G195" s="28">
         <v>1830</v>
       </c>
       <c r="I195" s="27" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
     </row>
     <row r="196" spans="1:11" ht="13">
       <c r="A196" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B196" s="26">
         <v>107</v>
       </c>
       <c r="C196" s="29" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="D196" s="25" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="E196" s="10"/>
       <c r="F196" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G196" s="28">
         <v>1830</v>
@@ -7701,20 +7851,20 @@
     </row>
     <row r="197" spans="1:11" ht="13">
       <c r="A197" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B197" s="26">
         <v>108</v>
       </c>
       <c r="C197" s="29" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="D197" s="25" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="E197" s="10"/>
       <c r="F197" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G197" s="28">
         <v>1830</v>
@@ -7722,18 +7872,18 @@
     </row>
     <row r="198" spans="1:11" ht="13">
       <c r="A198" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B198" s="26">
         <v>109</v>
       </c>
       <c r="C198" s="10"/>
       <c r="D198" s="25" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="E198" s="10"/>
       <c r="F198" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G198" s="28">
         <v>1830</v>
@@ -7741,129 +7891,133 @@
     </row>
     <row r="199" spans="1:11" ht="14">
       <c r="A199" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B199" s="26">
         <v>110</v>
       </c>
       <c r="C199" s="29" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="D199" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E199" s="10"/>
       <c r="F199" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G199" s="28">
         <v>1830</v>
       </c>
-      <c r="H199" s="40">
-        <v>381201</v>
-      </c>
+      <c r="H199" s="40"/>
       <c r="I199" s="27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K199" s="37" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
     </row>
     <row r="200" spans="1:11" ht="13">
       <c r="A200" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B200" s="26">
         <v>111</v>
       </c>
       <c r="C200" s="29" t="s">
-        <v>457</v>
-      </c>
-      <c r="D200" s="25" t="s">
-        <v>100</v>
+        <v>449</v>
+      </c>
+      <c r="D200" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="E200" s="10"/>
       <c r="F200" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G200" s="28">
         <v>1830</v>
       </c>
+      <c r="H200">
+        <v>1909</v>
+      </c>
+      <c r="I200" s="47" t="s">
+        <v>610</v>
+      </c>
       <c r="K200" s="27" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
     </row>
     <row r="201" spans="1:11" ht="13">
       <c r="A201" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B201" s="26">
         <v>112</v>
       </c>
       <c r="C201" s="29" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D201" s="25" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="E201" s="10"/>
       <c r="F201" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G201" s="28">
         <v>1830</v>
       </c>
       <c r="H201" s="47" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="K201" s="27" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
     </row>
     <row r="202" spans="1:11" ht="15">
       <c r="A202" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B202" s="26">
         <v>113</v>
       </c>
       <c r="C202" s="29" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="D202" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E202" s="10"/>
       <c r="F202" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G202" s="28">
         <v>1830</v>
       </c>
       <c r="H202" s="27" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="I202" s="27" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="K202" s="36" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
     </row>
     <row r="203" spans="1:11" ht="13">
       <c r="A203" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B203" s="26">
         <v>114</v>
       </c>
       <c r="C203" s="10"/>
       <c r="D203" s="25" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="E203" s="10"/>
       <c r="F203" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G203" s="28">
         <v>1830</v>
@@ -7871,70 +8025,70 @@
     </row>
     <row r="204" spans="1:11" ht="15">
       <c r="A204" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B204" s="26">
         <v>115</v>
       </c>
       <c r="C204" s="29" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="D204" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E204" s="10"/>
       <c r="F204" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G204" s="28">
         <v>1830</v>
       </c>
       <c r="I204" s="36" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="J204" s="27" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="K204" s="27" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
     </row>
     <row r="205" spans="1:11" ht="13">
       <c r="A205" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B205" s="26">
         <v>116</v>
       </c>
       <c r="C205" s="10"/>
       <c r="D205" s="25" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="E205" s="10"/>
       <c r="F205" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G205" s="28">
         <v>1830</v>
       </c>
       <c r="K205" s="27" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
     </row>
     <row r="206" spans="1:11" ht="15">
       <c r="A206" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B206" s="26">
         <v>117</v>
       </c>
       <c r="C206" s="10"/>
       <c r="D206" s="25" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="E206" s="10"/>
       <c r="F206" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G206" s="28">
         <v>1830</v>
@@ -7945,18 +8099,18 @@
     </row>
     <row r="207" spans="1:11" ht="13">
       <c r="A207" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B207" s="26">
         <v>118</v>
       </c>
       <c r="C207" s="10"/>
       <c r="D207" s="25" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="E207" s="10"/>
       <c r="F207" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G207" s="28">
         <v>1830</v>
@@ -7967,117 +8121,121 @@
     </row>
     <row r="208" spans="1:11" ht="13">
       <c r="A208" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B208" s="26">
         <v>119</v>
       </c>
       <c r="C208" s="29" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="D208" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E208" s="10"/>
       <c r="F208" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G208" s="28">
         <v>1830</v>
       </c>
       <c r="I208" s="27" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="K208" s="30" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
     </row>
     <row r="209" spans="1:11" ht="15">
       <c r="A209" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B209" s="26">
         <v>120</v>
       </c>
       <c r="C209" s="29" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="D209" s="25" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="E209" s="10"/>
       <c r="F209" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G209" s="28">
         <v>1830</v>
       </c>
-      <c r="H209" s="44">
-        <v>471575</v>
-      </c>
+      <c r="H209" s="44"/>
       <c r="K209" s="37" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
     </row>
     <row r="210" spans="1:11" ht="13">
       <c r="A210" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B210" s="26">
         <v>121</v>
       </c>
       <c r="C210" s="10"/>
-      <c r="D210" s="25" t="s">
-        <v>109</v>
+      <c r="D210" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="E210" s="10"/>
       <c r="F210" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G210" s="28">
         <v>1830</v>
       </c>
+      <c r="H210" t="s">
+        <v>590</v>
+      </c>
+      <c r="I210" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="211" spans="1:11" ht="13">
       <c r="A211" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B211" s="26">
         <v>122</v>
       </c>
       <c r="C211" s="29" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="D211" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E211" s="10"/>
       <c r="F211" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G211" s="28">
         <v>1830</v>
       </c>
       <c r="I211" s="27" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
     </row>
     <row r="212" spans="1:11" ht="13">
       <c r="A212" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B212" s="26">
         <v>123</v>
       </c>
       <c r="C212" s="29" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="D212" s="25" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="E212" s="10"/>
       <c r="F212" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G212" s="28">
         <v>1830</v>
@@ -8085,44 +8243,44 @@
     </row>
     <row r="213" spans="1:11" ht="13">
       <c r="A213" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B213" s="26">
         <v>124</v>
       </c>
       <c r="C213" s="29" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="D213" s="25" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="E213" s="10"/>
       <c r="F213" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G213" s="28">
         <v>1830</v>
       </c>
       <c r="H213" s="27" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
     </row>
     <row r="214" spans="1:11" ht="13">
       <c r="A214" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B214" s="26">
         <v>125</v>
       </c>
       <c r="C214" s="31" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D214" s="25" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="E214" s="10"/>
       <c r="F214" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G214" s="28">
         <v>1830</v>
@@ -8130,18 +8288,18 @@
     </row>
     <row r="215" spans="1:11" ht="13">
       <c r="A215" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B215" s="26">
         <v>126</v>
       </c>
       <c r="C215" s="10"/>
       <c r="D215" s="25" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="E215" s="10"/>
       <c r="F215" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G215" s="28">
         <v>1830</v>
@@ -8149,18 +8307,18 @@
     </row>
     <row r="216" spans="1:11" ht="13">
       <c r="A216" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B216" s="26">
         <v>127</v>
       </c>
       <c r="C216" s="10"/>
       <c r="D216" s="25" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="E216" s="10"/>
       <c r="F216" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G216" s="28">
         <v>1830</v>
@@ -8168,18 +8326,18 @@
     </row>
     <row r="217" spans="1:11" ht="13">
       <c r="A217" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B217" s="26">
         <v>128</v>
       </c>
       <c r="C217" s="10"/>
       <c r="D217" s="25" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="E217" s="10"/>
       <c r="F217" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G217" s="28">
         <v>1830</v>
@@ -8187,7 +8345,7 @@
     </row>
     <row r="218" spans="1:11" ht="15">
       <c r="A218" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B218" s="26">
         <v>129</v>
@@ -8198,21 +8356,21 @@
       </c>
       <c r="E218" s="10"/>
       <c r="F218" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G218" s="28">
         <v>1830</v>
       </c>
       <c r="H218" s="27" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="I218" s="36" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
     </row>
     <row r="219" spans="1:11" ht="13">
       <c r="A219" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B219" s="26">
         <v>130</v>
@@ -8223,18 +8381,18 @@
       </c>
       <c r="E219" s="10"/>
       <c r="F219" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G219" s="28">
         <v>1830</v>
       </c>
       <c r="I219" s="27" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
     </row>
     <row r="220" spans="1:11" ht="13">
       <c r="A220" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B220" s="26">
         <v>131</v>
@@ -8245,50 +8403,53 @@
       </c>
       <c r="E220" s="10"/>
       <c r="F220" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G220" s="28">
         <v>1830</v>
       </c>
       <c r="I220" s="27" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
     </row>
     <row r="221" spans="1:11" ht="13">
       <c r="A221" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B221" s="26">
         <v>132</v>
       </c>
       <c r="C221" s="10"/>
       <c r="D221" s="25" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="E221" s="10"/>
       <c r="F221" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G221" s="28">
         <v>1830</v>
       </c>
+      <c r="H221" s="47" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="222" spans="1:11" ht="15">
       <c r="A222" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B222" s="26">
         <v>133</v>
       </c>
       <c r="C222" s="29" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="D222" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E222" s="10"/>
       <c r="F222" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G222" s="28">
         <v>1830</v>
@@ -8297,15 +8458,15 @@
         <v>1052</v>
       </c>
       <c r="I222" s="36" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="K222" s="36" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
     </row>
     <row r="223" spans="1:11" ht="15">
       <c r="A223" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B223" s="26">
         <v>134</v>
@@ -8316,29 +8477,29 @@
       </c>
       <c r="E223" s="10"/>
       <c r="F223" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G223" s="28">
         <v>1830</v>
       </c>
       <c r="I223" s="36" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
     </row>
     <row r="224" spans="1:11" ht="13">
       <c r="A224" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B224" s="26">
         <v>135</v>
       </c>
       <c r="C224" s="10"/>
       <c r="D224" s="25" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="E224" s="10"/>
       <c r="F224" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G224" s="28">
         <v>1830</v>
@@ -8346,37 +8507,40 @@
     </row>
     <row r="225" spans="1:11" ht="13">
       <c r="A225" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B225" s="26">
         <v>136</v>
       </c>
       <c r="C225" s="10"/>
       <c r="D225" s="25" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="E225" s="10"/>
       <c r="F225" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G225" s="28">
         <v>1830</v>
       </c>
+      <c r="H225" t="s">
+        <v>596</v>
+      </c>
     </row>
     <row r="226" spans="1:11" ht="13">
       <c r="A226" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B226" s="26">
         <v>137</v>
       </c>
       <c r="C226" s="10"/>
       <c r="D226" s="25" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="E226" s="10"/>
       <c r="F226" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G226" s="28">
         <v>1830</v>
@@ -8384,50 +8548,56 @@
     </row>
     <row r="227" spans="1:11" ht="13">
       <c r="A227" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B227" s="26">
         <v>138</v>
       </c>
       <c r="C227" s="10"/>
       <c r="D227" s="25" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="E227" s="10"/>
       <c r="F227" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G227" s="28">
         <v>1830</v>
       </c>
+      <c r="H227" t="s">
+        <v>596</v>
+      </c>
     </row>
     <row r="228" spans="1:11" ht="15">
       <c r="A228" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B228" s="26">
         <v>139</v>
       </c>
       <c r="C228" s="29" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="D228" s="25" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="E228" s="10"/>
       <c r="F228" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G228" s="28">
         <v>1830</v>
       </c>
+      <c r="H228" s="47" t="s">
+        <v>606</v>
+      </c>
       <c r="K228" s="36" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
     </row>
     <row r="229" spans="1:11" ht="15">
       <c r="A229" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B229" s="26">
         <v>140</v>
@@ -8438,40 +8608,43 @@
       </c>
       <c r="E229" s="10"/>
       <c r="F229" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G229" s="28">
         <v>1830</v>
       </c>
+      <c r="H229" s="47" t="s">
+        <v>605</v>
+      </c>
       <c r="I229" s="36" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
     </row>
     <row r="230" spans="1:11" ht="13">
       <c r="A230" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B230" s="26">
         <v>141</v>
       </c>
       <c r="C230" s="10"/>
       <c r="D230" s="13" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="E230" s="10"/>
       <c r="F230" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G230" s="28">
         <v>1830</v>
       </c>
       <c r="H230" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
     </row>
     <row r="231" spans="1:11" ht="14">
       <c r="A231" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B231" s="26">
         <v>142</v>
@@ -8482,42 +8655,42 @@
       </c>
       <c r="E231" s="10"/>
       <c r="F231" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G231" s="28">
         <v>1830</v>
       </c>
       <c r="I231" s="37" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
     </row>
     <row r="232" spans="1:11" ht="15">
       <c r="A232" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B232" s="26">
         <v>143</v>
       </c>
       <c r="C232" s="29" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="D232" s="25" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="E232" s="10"/>
       <c r="F232" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G232" s="28">
         <v>1830</v>
       </c>
       <c r="K232" s="36" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
     </row>
     <row r="233" spans="1:11" ht="15">
       <c r="A233" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B233" s="26">
         <v>144</v>
@@ -8528,51 +8701,51 @@
       </c>
       <c r="E233" s="10"/>
       <c r="F233" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G233" s="28">
         <v>1830</v>
       </c>
       <c r="I233" s="36" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
     </row>
     <row r="234" spans="1:11" ht="13">
       <c r="A234" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B234" s="26">
         <v>145</v>
       </c>
       <c r="C234" s="10"/>
       <c r="D234" s="25" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="E234" s="10"/>
       <c r="F234" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G234" s="28">
         <v>1830</v>
       </c>
       <c r="H234" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
     </row>
     <row r="235" spans="1:11" ht="13">
       <c r="A235" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B235" s="26">
         <v>146</v>
       </c>
       <c r="C235" s="10"/>
       <c r="D235" s="25" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="E235" s="10"/>
       <c r="F235" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G235" s="28">
         <v>1830</v>
@@ -8580,7 +8753,7 @@
     </row>
     <row r="236" spans="1:11" ht="15">
       <c r="A236" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B236" s="26">
         <v>147</v>
@@ -8591,18 +8764,18 @@
       </c>
       <c r="E236" s="10"/>
       <c r="F236" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G236" s="28">
         <v>1830</v>
       </c>
       <c r="I236" s="36" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
     </row>
     <row r="237" spans="1:11" ht="15">
       <c r="A237" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B237" s="26">
         <v>148</v>
@@ -8613,90 +8786,96 @@
       </c>
       <c r="E237" s="10"/>
       <c r="F237" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G237" s="28">
         <v>1830</v>
       </c>
       <c r="I237" s="36" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
     </row>
     <row r="238" spans="1:11" ht="13">
       <c r="A238" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B238" s="26">
         <v>149</v>
       </c>
       <c r="C238" s="31" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D238" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E238" s="10"/>
       <c r="F238" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G238" s="28">
         <v>1830</v>
       </c>
       <c r="I238" s="34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="239" spans="1:11" ht="13">
       <c r="A239" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B239" s="26">
         <v>150</v>
       </c>
       <c r="C239" s="29" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="D239" s="25" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="E239" s="10"/>
       <c r="F239" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G239" s="28">
         <v>1830</v>
       </c>
       <c r="H239" s="27" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="K239" s="40" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
     </row>
     <row r="240" spans="1:11" ht="13">
       <c r="A240" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B240" s="26">
         <v>151</v>
       </c>
       <c r="C240" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="D240" s="25" t="s">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="D240" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="E240" s="10"/>
       <c r="F240" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G240" s="28">
         <v>1830</v>
       </c>
+      <c r="H240" s="47" t="s">
+        <v>598</v>
+      </c>
+      <c r="I240" t="s">
+        <v>599</v>
+      </c>
     </row>
     <row r="241" spans="1:11" ht="15">
       <c r="A241" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B241" s="26">
         <v>152</v>
@@ -8707,24 +8886,24 @@
       </c>
       <c r="E241" s="10"/>
       <c r="F241" s="27" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="G241" s="28">
         <v>1830</v>
       </c>
       <c r="H241" s="27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I241" s="36" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="K241" s="27" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
     </row>
     <row r="242" spans="1:11" ht="13">
       <c r="A242" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B242" s="26">
         <v>153</v>
@@ -8735,29 +8914,29 @@
       </c>
       <c r="E242" s="10"/>
       <c r="F242" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G242" s="28">
         <v>1830</v>
       </c>
       <c r="I242" s="27" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
     </row>
     <row r="243" spans="1:11" ht="13">
       <c r="A243" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B243" s="26">
         <v>154</v>
       </c>
       <c r="C243" s="10"/>
       <c r="D243" s="25" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="E243" s="10"/>
       <c r="F243" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G243" s="28">
         <v>1830</v>
@@ -8766,18 +8945,18 @@
     </row>
     <row r="244" spans="1:11" ht="13">
       <c r="A244" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B244" s="26">
         <v>155</v>
       </c>
       <c r="C244" s="10"/>
       <c r="D244" s="25" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="E244" s="10"/>
       <c r="F244" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G244" s="28">
         <v>1830</v>
@@ -8785,7 +8964,7 @@
     </row>
     <row r="245" spans="1:11" ht="15">
       <c r="A245" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B245" s="26">
         <v>156</v>
@@ -8796,31 +8975,31 @@
       </c>
       <c r="E245" s="10"/>
       <c r="F245" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G245" s="28">
         <v>1830</v>
       </c>
       <c r="I245" s="36" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
     </row>
     <row r="246" spans="1:11" ht="13">
       <c r="A246" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B246" s="26">
         <v>157</v>
       </c>
       <c r="C246" s="29" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D246" s="25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E246" s="10"/>
       <c r="F246" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G246" s="28">
         <v>1830</v>
@@ -8831,7 +9010,7 @@
     </row>
     <row r="247" spans="1:11" ht="15">
       <c r="A247" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B247" s="26">
         <v>158</v>
@@ -8844,45 +9023,45 @@
       </c>
       <c r="E247" s="10"/>
       <c r="F247" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G247" s="28">
         <v>1830</v>
       </c>
       <c r="H247" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="I247" s="36" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
     </row>
     <row r="248" spans="1:11" ht="15">
       <c r="A248" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B248" s="26">
         <v>159</v>
       </c>
       <c r="C248" s="29" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="D248" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E248" s="10"/>
       <c r="F248" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G248" s="28">
         <v>1830</v>
       </c>
       <c r="I248" s="36" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="249" spans="1:11" ht="15">
       <c r="A249" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B249" s="26">
         <v>160</v>
@@ -8893,42 +9072,42 @@
       </c>
       <c r="E249" s="10"/>
       <c r="F249" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G249" s="28">
         <v>1830</v>
       </c>
       <c r="I249" s="36" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
     </row>
     <row r="250" spans="1:11" ht="14">
       <c r="A250" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B250" s="26">
         <v>161</v>
       </c>
       <c r="C250" s="31" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D250" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E250" s="10"/>
       <c r="F250" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G250" s="28">
         <v>1830</v>
       </c>
       <c r="I250" s="37" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
     </row>
     <row r="251" spans="1:11" ht="15">
       <c r="A251" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B251" s="26">
         <v>162</v>
@@ -8939,18 +9118,18 @@
       </c>
       <c r="E251" s="10"/>
       <c r="F251" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G251" s="28">
         <v>1830</v>
       </c>
       <c r="I251" s="36" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
     </row>
     <row r="252" spans="1:11" ht="15">
       <c r="A252" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B252" s="26">
         <v>163</v>
@@ -8961,7 +9140,7 @@
       </c>
       <c r="E252" s="10"/>
       <c r="F252" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G252" s="28">
         <v>1830</v>
@@ -8970,15 +9149,15 @@
         <v>44</v>
       </c>
       <c r="I252" s="36" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="K252" s="27" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
     </row>
     <row r="253" spans="1:11" ht="15">
       <c r="A253" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B253" s="26">
         <v>164</v>
@@ -8989,18 +9168,18 @@
       </c>
       <c r="E253" s="10"/>
       <c r="F253" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G253" s="28">
         <v>1830</v>
       </c>
       <c r="I253" s="36" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
     </row>
     <row r="254" spans="1:11" ht="15">
       <c r="A254" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B254" s="26">
         <v>165</v>
@@ -9009,47 +9188,53 @@
         <v>46</v>
       </c>
       <c r="D254" s="25" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="E254" s="10"/>
       <c r="F254" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G254" s="28">
         <v>1830</v>
       </c>
+      <c r="H254" s="47" t="s">
+        <v>594</v>
+      </c>
       <c r="I254" s="27" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="K254" s="36" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="255" spans="1:11" ht="13">
       <c r="A255" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B255" s="26">
         <v>166</v>
       </c>
       <c r="C255" s="10"/>
       <c r="D255" s="25" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="E255" s="10"/>
       <c r="F255" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G255" s="28">
         <v>1830</v>
       </c>
+      <c r="H255" s="47" t="s">
+        <v>594</v>
+      </c>
       <c r="K255" s="27" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
     </row>
     <row r="256" spans="1:11" ht="15">
       <c r="A256" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B256" s="26">
         <v>167</v>
@@ -9060,21 +9245,21 @@
       </c>
       <c r="E256" s="10"/>
       <c r="F256" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G256" s="28">
         <v>1830</v>
       </c>
       <c r="H256" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="I256" s="36" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
     </row>
     <row r="257" spans="1:11" ht="15">
       <c r="A257" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B257" s="26">
         <v>168</v>
@@ -9085,21 +9270,21 @@
       </c>
       <c r="E257" s="10"/>
       <c r="F257" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G257" s="28">
         <v>1830</v>
       </c>
       <c r="H257" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="I257" s="36" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
     </row>
     <row r="258" spans="1:11" ht="15">
       <c r="A258" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B258" s="26">
         <v>169</v>
@@ -9110,55 +9295,55 @@
       </c>
       <c r="E258" s="10"/>
       <c r="F258" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G258" s="28">
         <v>1830</v>
       </c>
       <c r="I258" s="36" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
     </row>
     <row r="259" spans="1:11" ht="15">
       <c r="A259" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B259" s="26">
         <v>170</v>
       </c>
       <c r="C259" s="31" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D259" s="25" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="E259" s="10"/>
       <c r="F259" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G259" s="28">
         <v>1830</v>
       </c>
       <c r="K259" s="36" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
     </row>
     <row r="260" spans="1:11" ht="13">
       <c r="A260" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B260" s="26">
         <v>171</v>
       </c>
       <c r="C260" s="29" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="D260" s="25" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="E260" s="10"/>
       <c r="F260" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G260" s="28">
         <v>1830</v>
@@ -9169,20 +9354,20 @@
     </row>
     <row r="261" spans="1:11" ht="15">
       <c r="A261" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B261" s="26">
         <v>172</v>
       </c>
       <c r="C261" s="29" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="D261" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E261" s="10"/>
       <c r="F261" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G261" s="28">
         <v>1830</v>
@@ -9191,12 +9376,12 @@
         <v>440</v>
       </c>
       <c r="I261" s="36" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
     </row>
     <row r="262" spans="1:11" ht="13">
       <c r="A262" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B262" s="26">
         <v>173</v>
@@ -9207,34 +9392,34 @@
       </c>
       <c r="E262" s="10"/>
       <c r="F262" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G262" s="28">
         <v>1830</v>
       </c>
       <c r="I262" s="27" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="K262" s="27" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
     </row>
     <row r="263" spans="1:11" ht="13">
       <c r="A263" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B263" s="26">
         <v>174</v>
       </c>
       <c r="C263" s="29" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="D263" s="25" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="E263" s="10"/>
       <c r="F263" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G263" s="28">
         <v>1830</v>
@@ -9242,37 +9427,37 @@
     </row>
     <row r="264" spans="1:11" ht="13">
       <c r="A264" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B264" s="26">
         <v>175</v>
       </c>
       <c r="C264" s="29" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D264" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E264" s="10"/>
       <c r="F264" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G264" s="28">
         <v>1830</v>
       </c>
-      <c r="H264" s="27">
-        <v>333936</v>
-      </c>
-      <c r="I264" s="27" t="s">
-        <v>550</v>
+      <c r="H264" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="I264" s="24" t="s">
+        <v>602</v>
       </c>
       <c r="K264" s="27" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
     </row>
     <row r="265" spans="1:11" ht="13">
       <c r="A265" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B265" s="26">
         <v>176</v>
@@ -9285,7 +9470,7 @@
         <v>54</v>
       </c>
       <c r="F265" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G265" s="28">
         <v>1830</v>
@@ -9293,20 +9478,20 @@
     </row>
     <row r="266" spans="1:11" ht="13">
       <c r="A266" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B266" s="26">
         <v>177</v>
       </c>
       <c r="C266" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D266" s="25" t="s">
         <v>59</v>
-      </c>
-      <c r="D266" s="25" t="s">
-        <v>60</v>
       </c>
       <c r="E266" s="10"/>
       <c r="F266" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G266" s="28">
         <v>1830</v>
@@ -9314,18 +9499,18 @@
     </row>
     <row r="267" spans="1:11" ht="13">
       <c r="A267" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B267" s="26">
         <v>178</v>
       </c>
       <c r="C267" s="10"/>
       <c r="D267" s="25" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="E267" s="10"/>
       <c r="F267" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G267" s="28">
         <v>1830</v>
@@ -9333,258 +9518,261 @@
     </row>
     <row r="268" spans="1:11" ht="13">
       <c r="A268" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B268" s="26">
         <v>179</v>
       </c>
       <c r="C268" s="29" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="D268" s="25" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="E268" s="10"/>
       <c r="F268" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G268" s="28">
         <v>1830</v>
       </c>
       <c r="K268" s="27" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
     </row>
     <row r="269" spans="1:11" ht="13">
       <c r="A269" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B269" s="26">
         <v>180</v>
       </c>
       <c r="C269" s="10"/>
       <c r="D269" s="25" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="E269" s="10"/>
       <c r="F269" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G269" s="28">
         <v>1830</v>
       </c>
       <c r="H269" s="27" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
     </row>
     <row r="270" spans="1:11" ht="13">
       <c r="A270" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B270" s="26">
         <v>181</v>
       </c>
       <c r="C270" s="29" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="D270" s="25" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="E270" s="10"/>
       <c r="F270" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G270" s="28">
         <v>1830</v>
       </c>
       <c r="K270" s="27" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
     </row>
     <row r="271" spans="1:11" ht="13">
       <c r="A271" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B271" s="26">
         <v>182</v>
       </c>
       <c r="C271" s="10"/>
       <c r="D271" s="25" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="E271" s="10"/>
       <c r="F271" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G271" s="28">
         <v>1830</v>
       </c>
       <c r="K271" s="27" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
     </row>
     <row r="272" spans="1:11" ht="13">
       <c r="A272" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B272" s="26">
         <v>183</v>
       </c>
       <c r="C272" s="10"/>
       <c r="D272" s="25" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="E272" s="10"/>
       <c r="F272" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G272" s="28">
         <v>1830</v>
       </c>
       <c r="K272" s="27" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
     </row>
     <row r="273" spans="1:11" ht="13">
       <c r="A273" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B273" s="26">
         <v>184</v>
       </c>
       <c r="C273" s="10"/>
       <c r="D273" s="25" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="E273" s="10"/>
       <c r="F273" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G273" s="28">
         <v>1830</v>
       </c>
       <c r="K273" s="27" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
     </row>
     <row r="274" spans="1:11" ht="13">
       <c r="A274" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B274" s="26">
         <v>185</v>
       </c>
       <c r="C274" s="10"/>
       <c r="D274" s="25" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="E274" s="10"/>
       <c r="F274" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G274" s="28">
         <v>1830</v>
       </c>
       <c r="K274" s="27" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
     </row>
     <row r="275" spans="1:11" ht="13">
       <c r="A275" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B275" s="26">
         <v>186</v>
       </c>
       <c r="C275" s="10"/>
       <c r="D275" s="25" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="E275" s="10"/>
       <c r="F275" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G275" s="28">
         <v>1830</v>
       </c>
       <c r="K275" s="27" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
     </row>
     <row r="276" spans="1:11" ht="13">
       <c r="A276" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B276" s="26">
         <v>187</v>
       </c>
       <c r="C276" s="10"/>
       <c r="D276" s="25" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="E276" s="10"/>
       <c r="F276" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G276" s="28">
         <v>1830</v>
       </c>
       <c r="K276" s="27" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
     </row>
     <row r="277" spans="1:11" ht="13">
       <c r="A277" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B277" s="26">
         <v>188</v>
       </c>
       <c r="C277" s="10"/>
       <c r="D277" s="25" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="E277" s="10"/>
       <c r="F277" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G277" s="28">
         <v>1830</v>
       </c>
+      <c r="H277" t="s">
+        <v>604</v>
+      </c>
       <c r="K277" s="27" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
     </row>
     <row r="278" spans="1:11" ht="13">
       <c r="A278" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B278" s="26">
         <v>189</v>
       </c>
       <c r="C278" s="29" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D278" s="25" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E278" s="10"/>
       <c r="F278" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G278" s="28">
         <v>1830</v>
       </c>
       <c r="J278" s="27" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="K278" s="27" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
     </row>
     <row r="279" spans="1:11" ht="13">
       <c r="A279" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B279" s="26">
         <v>190</v>
@@ -9595,7 +9783,7 @@
       </c>
       <c r="E279" s="10"/>
       <c r="F279" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G279" s="28">
         <v>1830</v>
@@ -9604,10 +9792,10 @@
         <v>3678</v>
       </c>
       <c r="I279" s="27" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="K279" s="27" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
     </row>
     <row r="280" spans="1:11" ht="13">

--- a/LOCATION SHEETS/1820sLOCATIONS.xlsx
+++ b/LOCATION SHEETS/1820sLOCATIONS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/WR4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF58C26-F785-A642-AD59-58EFD3FE1C8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE760983-3787-7C47-B7CE-8247430C76E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="460" windowWidth="28100" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="617">
   <si>
     <t>LOCATIONS IN 1820s onwards</t>
   </si>
@@ -392,13 +392,7 @@
     <t>only 1829 - but it started recording in 177something</t>
   </si>
   <si>
-    <t>BOSTON</t>
-  </si>
-  <si>
     <t>Sept 1823 to Dec 1825. W Veall observer - continues on next record?</t>
-  </si>
-  <si>
-    <t>Boston</t>
   </si>
   <si>
     <t>1826 to end of decade. W Veall observer. Says 'see previous page'</t>
@@ -1982,9 +1976,6 @@
   </si>
   <si>
     <t>60</t>
-  </si>
-  <si>
-    <t>HASTINGS</t>
   </si>
   <si>
     <t xml:space="preserve">SNo333936 NGR SZ(40)564777
@@ -2241,6 +2232,27 @@
       </rPr>
       <t>1770s??</t>
     </r>
+  </si>
+  <si>
+    <t>AYLESBURY NEW ROAD</t>
+  </si>
+  <si>
+    <t>RR482</t>
+  </si>
+  <si>
+    <t>BOSTON LINCOLNSHIRE</t>
+  </si>
+  <si>
+    <t>RR488</t>
+  </si>
+  <si>
+    <t>RR148</t>
+  </si>
+  <si>
+    <t>HASTINGS (PHILLIPS)</t>
+  </si>
+  <si>
+    <t>RR497</t>
   </si>
 </sst>
 </file>
@@ -2843,9 +2855,9 @@
   </sheetPr>
   <dimension ref="A1:AB1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I114" sqref="I114"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I269" sqref="I269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -2872,7 +2884,7 @@
       </c>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:28" ht="15">
+    <row r="2" spans="1:28" ht="14">
       <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
@@ -3017,7 +3029,7 @@
         <v>1820</v>
       </c>
       <c r="H8" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="K8" s="27" t="s">
         <v>23</v>
@@ -3214,7 +3226,7 @@
         <v>1820</v>
       </c>
       <c r="H16" s="47" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="I16" s="27" t="s">
         <v>37</v>
@@ -3296,7 +3308,7 @@
         <v>1820</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="J19" s="30" t="s">
         <v>48</v>
@@ -3324,7 +3336,7 @@
         <v>1820</v>
       </c>
       <c r="H20" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="K20" s="27" t="s">
         <v>50</v>
@@ -3349,7 +3361,7 @@
         <v>1820</v>
       </c>
       <c r="H21" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="K21" s="27" t="s">
         <v>52</v>
@@ -3376,7 +3388,7 @@
         <v>1820</v>
       </c>
       <c r="H22" s="24" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="K22" s="27" t="s">
         <v>55</v>
@@ -3610,7 +3622,7 @@
         <v>76</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="E32" s="10"/>
       <c r="F32" s="27" t="s">
@@ -3620,7 +3632,7 @@
         <v>1820</v>
       </c>
       <c r="H32" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="K32" s="27" t="s">
         <v>77</v>
@@ -3647,10 +3659,10 @@
         <v>1820</v>
       </c>
       <c r="H33" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="I33" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="K33" s="27" t="s">
         <v>52</v>
@@ -3692,7 +3704,7 @@
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="13" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E35" s="31" t="s">
         <v>82</v>
@@ -3731,7 +3743,7 @@
         <v>1820</v>
       </c>
       <c r="H36" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="K36" s="27" t="s">
         <v>31</v>
@@ -3785,7 +3797,7 @@
         <v>1820</v>
       </c>
       <c r="H38" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="K38" s="27" t="s">
         <v>91</v>
@@ -3812,7 +3824,7 @@
         <v>1820</v>
       </c>
       <c r="H39" s="24" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="I39" s="27" t="s">
         <v>93</v>
@@ -3844,7 +3856,7 @@
         <v>1820</v>
       </c>
       <c r="H40" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="I40" s="27" t="s">
         <v>93</v>
@@ -3923,7 +3935,7 @@
         <v>1909</v>
       </c>
       <c r="I43" s="24" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="J43" s="27" t="s">
         <v>101</v>
@@ -3975,7 +3987,7 @@
         <v>1820</v>
       </c>
       <c r="I45" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="K45" s="27" t="s">
         <v>106</v>
@@ -4091,8 +4103,8 @@
         <v>45</v>
       </c>
       <c r="C50" s="10"/>
-      <c r="D50" s="25" t="s">
-        <v>116</v>
+      <c r="D50" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="E50" s="10"/>
       <c r="F50" s="27" t="s">
@@ -4101,8 +4113,14 @@
       <c r="G50" s="28">
         <v>1820</v>
       </c>
+      <c r="H50" t="s">
+        <v>613</v>
+      </c>
+      <c r="I50" s="36" t="s">
+        <v>612</v>
+      </c>
       <c r="K50" s="27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="15.75" customHeight="1">
@@ -4123,11 +4141,11 @@
       <c r="G51" s="28">
         <v>1820</v>
       </c>
-      <c r="I51" s="27" t="s">
-        <v>118</v>
+      <c r="I51" s="36" t="s">
+        <v>612</v>
       </c>
       <c r="K51" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="15.75" customHeight="1">
@@ -4138,7 +4156,7 @@
         <v>47</v>
       </c>
       <c r="C52" s="29" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D52" s="25" t="s">
         <v>27</v>
@@ -4151,13 +4169,13 @@
         <v>1820</v>
       </c>
       <c r="H52" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="I52" s="24" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="K52" s="27" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="15.75" customHeight="1">
@@ -4169,7 +4187,7 @@
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E53" s="10"/>
       <c r="F53" s="27" t="s">
@@ -4182,10 +4200,10 @@
         <v>2630</v>
       </c>
       <c r="J53" s="27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K53" s="27" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="15.75" customHeight="1">
@@ -4197,7 +4215,7 @@
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="13" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="E54" s="10"/>
       <c r="F54" s="27" t="s">
@@ -4207,13 +4225,13 @@
         <v>1820</v>
       </c>
       <c r="H54" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="I54" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="K54" s="27" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="15.75" customHeight="1">
@@ -4235,10 +4253,10 @@
         <v>1820</v>
       </c>
       <c r="I55" s="30" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K55" s="27" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="15.75" customHeight="1">
@@ -4250,7 +4268,7 @@
       </c>
       <c r="C56" s="10"/>
       <c r="D56" s="25" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E56" s="10"/>
       <c r="F56" s="27" t="s">
@@ -4260,10 +4278,10 @@
         <v>1820</v>
       </c>
       <c r="H56" s="47" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="K56" s="27" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="15.75" customHeight="1">
@@ -4275,7 +4293,7 @@
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E57" s="10"/>
       <c r="F57" s="27" t="s">
@@ -4285,10 +4303,10 @@
         <v>1820</v>
       </c>
       <c r="H57" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="K57" s="27" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="13">
@@ -4299,10 +4317,10 @@
         <v>53</v>
       </c>
       <c r="C58" s="29" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E58" s="10"/>
       <c r="F58" s="27" t="s">
@@ -4312,7 +4330,7 @@
         <v>1820</v>
       </c>
       <c r="J58" s="27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K58" s="27" t="s">
         <v>31</v>
@@ -4327,7 +4345,7 @@
       </c>
       <c r="C59" s="10"/>
       <c r="D59" s="25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E59" s="10"/>
       <c r="F59" s="27" t="s">
@@ -4337,7 +4355,7 @@
         <v>1820</v>
       </c>
       <c r="K59" s="27" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="13">
@@ -4349,7 +4367,7 @@
       </c>
       <c r="C60" s="10"/>
       <c r="D60" s="25" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E60" s="10"/>
       <c r="F60" s="27" t="s">
@@ -4359,7 +4377,7 @@
         <v>1820</v>
       </c>
       <c r="K60" s="27" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="13">
@@ -4370,7 +4388,7 @@
         <v>56</v>
       </c>
       <c r="C61" s="29" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D61" s="25" t="s">
         <v>27</v>
@@ -4383,10 +4401,10 @@
         <v>1820</v>
       </c>
       <c r="I61" s="27" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K61" s="27" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="13">
@@ -4397,7 +4415,7 @@
         <v>57</v>
       </c>
       <c r="C62" s="29" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D62" s="25" t="s">
         <v>27</v>
@@ -4410,13 +4428,13 @@
         <v>1820</v>
       </c>
       <c r="I62" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="J62" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="K62" s="27" t="s">
         <v>143</v>
-      </c>
-      <c r="J62" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="K62" s="27" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="13">
@@ -4430,7 +4448,7 @@
         <v>97</v>
       </c>
       <c r="D63" s="25" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E63" s="10"/>
       <c r="F63" s="27" t="s">
@@ -4440,10 +4458,10 @@
         <v>1820</v>
       </c>
       <c r="H63" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="K63" s="27" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="13">
@@ -4454,26 +4472,26 @@
         <v>59</v>
       </c>
       <c r="C64" s="29" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D64" s="25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E64" s="10"/>
       <c r="F64" s="27" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G64" s="28">
         <v>1820</v>
       </c>
       <c r="H64" s="47" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="J64" s="27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K64" s="27" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="13">
@@ -4484,10 +4502,10 @@
         <v>60</v>
       </c>
       <c r="C65" s="29" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D65" s="25" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E65" s="10"/>
       <c r="F65" s="27" t="s">
@@ -4497,10 +4515,10 @@
         <v>1820</v>
       </c>
       <c r="H65" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="K65" s="27" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="13">
@@ -4511,10 +4529,10 @@
         <v>61</v>
       </c>
       <c r="C66" s="29" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E66" s="10"/>
       <c r="F66" s="27" t="s">
@@ -4524,13 +4542,13 @@
         <v>1820</v>
       </c>
       <c r="H66" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="J66" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="K66" s="27" t="s">
         <v>157</v>
-      </c>
-      <c r="J66" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="K66" s="27" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="13">
@@ -4541,10 +4559,10 @@
         <v>62</v>
       </c>
       <c r="C67" s="29" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D67" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E67" s="10"/>
       <c r="F67" s="27" t="s">
@@ -4554,7 +4572,7 @@
         <v>1820</v>
       </c>
       <c r="H67" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="K67" s="27" t="s">
         <v>75</v>
@@ -4568,10 +4586,10 @@
         <v>63</v>
       </c>
       <c r="C68" s="29" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D68" s="25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E68" s="10"/>
       <c r="F68" s="27" t="s">
@@ -4581,7 +4599,7 @@
         <v>1820</v>
       </c>
       <c r="K68" s="27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="13">
@@ -4593,7 +4611,7 @@
       </c>
       <c r="C69" s="10"/>
       <c r="D69" s="25" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E69" s="10"/>
       <c r="F69" s="27" t="s">
@@ -4606,7 +4624,7 @@
         <v>3176</v>
       </c>
       <c r="K69" s="27" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="13">
@@ -4618,7 +4636,7 @@
       </c>
       <c r="C70" s="10"/>
       <c r="D70" s="25" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E70" s="10"/>
       <c r="F70" s="27" t="s">
@@ -4628,10 +4646,10 @@
         <v>1820</v>
       </c>
       <c r="H70" s="47" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="K70" s="27" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="13">
@@ -4643,7 +4661,7 @@
       </c>
       <c r="C71" s="10"/>
       <c r="D71" s="25" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E71" s="10"/>
       <c r="F71" s="27" t="s">
@@ -4665,7 +4683,7 @@
       </c>
       <c r="C72" s="10"/>
       <c r="D72" s="25" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E72" s="10"/>
       <c r="F72" s="27" t="s">
@@ -4687,7 +4705,7 @@
       </c>
       <c r="C73" s="10"/>
       <c r="D73" s="25" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E73" s="10"/>
       <c r="F73" s="27" t="s">
@@ -4697,7 +4715,7 @@
         <v>1820</v>
       </c>
       <c r="K73" s="27" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="13">
@@ -4709,7 +4727,7 @@
       </c>
       <c r="C74" s="10"/>
       <c r="D74" s="25" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E74" s="10"/>
       <c r="F74" s="27" t="s">
@@ -4719,7 +4737,7 @@
         <v>1820</v>
       </c>
       <c r="K74" s="27" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="13">
@@ -4731,7 +4749,7 @@
       </c>
       <c r="C75" s="10"/>
       <c r="D75" s="25" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E75" s="10"/>
       <c r="F75" s="27" t="s">
@@ -4741,7 +4759,7 @@
         <v>1820</v>
       </c>
       <c r="K75" s="27" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="13">
@@ -4752,10 +4770,10 @@
         <v>71</v>
       </c>
       <c r="C76" s="29" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E76" s="10"/>
       <c r="F76" s="27" t="s">
@@ -4765,10 +4783,10 @@
         <v>1820</v>
       </c>
       <c r="J76" s="27" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K76" s="27" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="13">
@@ -4780,7 +4798,7 @@
       </c>
       <c r="C77" s="10"/>
       <c r="D77" s="25" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E77" s="10"/>
       <c r="F77" s="27" t="s">
@@ -4790,10 +4808,10 @@
         <v>1820</v>
       </c>
       <c r="J77" s="27" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K77" s="27" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="13">
@@ -4804,10 +4822,10 @@
         <v>73</v>
       </c>
       <c r="C78" s="29" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D78" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E78" s="10"/>
       <c r="F78" s="27" t="s">
@@ -4817,7 +4835,7 @@
         <v>1820</v>
       </c>
       <c r="J78" s="27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K78" s="27" t="s">
         <v>31</v>
@@ -4832,7 +4850,7 @@
       </c>
       <c r="C79" s="10"/>
       <c r="D79" s="25" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E79" s="10"/>
       <c r="F79" s="27" t="s">
@@ -4845,7 +4863,7 @@
         <v>3602</v>
       </c>
       <c r="K79" s="27" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="13">
@@ -4867,10 +4885,10 @@
         <v>1720</v>
       </c>
       <c r="I80" s="27" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K80" s="24" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="13">
@@ -4881,10 +4899,10 @@
         <v>76</v>
       </c>
       <c r="C81" s="29" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D81" s="25" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E81" s="10"/>
       <c r="F81" s="27" t="s">
@@ -4894,10 +4912,10 @@
         <v>1820</v>
       </c>
       <c r="H81" s="27" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J81" s="27" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K81" s="27" t="s">
         <v>75</v>
@@ -4911,26 +4929,26 @@
         <v>77</v>
       </c>
       <c r="C82" s="29" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D82" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E82" s="10"/>
       <c r="F82" s="27" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G82" s="28">
         <v>1820</v>
       </c>
       <c r="I82" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="J82" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="K82" s="27" t="s">
         <v>196</v>
-      </c>
-      <c r="J82" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="K82" s="27" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="13">
@@ -4941,10 +4959,10 @@
         <v>78</v>
       </c>
       <c r="C83" s="29" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D83" s="25" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E83" s="10"/>
       <c r="F83" s="27" t="s">
@@ -4954,10 +4972,10 @@
         <v>1820</v>
       </c>
       <c r="H83" s="47" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="K83" s="27" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="13">
@@ -4969,7 +4987,7 @@
       </c>
       <c r="C84" s="10"/>
       <c r="D84" s="25" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E84" s="10"/>
       <c r="F84" s="27" t="s">
@@ -4982,7 +5000,7 @@
         <v>920991</v>
       </c>
       <c r="K84" s="27" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="13">
@@ -4994,7 +5012,7 @@
       </c>
       <c r="C85" s="10"/>
       <c r="D85" s="25" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E85" s="10"/>
       <c r="F85" s="27" t="s">
@@ -5004,10 +5022,10 @@
         <v>1820</v>
       </c>
       <c r="H85" s="27" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K85" s="27" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="13">
@@ -5029,13 +5047,13 @@
         <v>1820</v>
       </c>
       <c r="H86" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="I86" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="I86" s="27" t="s">
-        <v>207</v>
-      </c>
       <c r="K86" s="27" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="13">
@@ -5047,7 +5065,7 @@
       </c>
       <c r="C87" s="10"/>
       <c r="D87" s="25" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E87" s="10"/>
       <c r="F87" s="27" t="s">
@@ -5057,7 +5075,7 @@
         <v>1820</v>
       </c>
       <c r="K87" s="27" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="13">
@@ -5068,7 +5086,7 @@
         <v>83</v>
       </c>
       <c r="C88" s="29" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D88" s="25" t="s">
         <v>27</v>
@@ -5084,10 +5102,10 @@
         <v>5673</v>
       </c>
       <c r="I88" s="27" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K88" s="27" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="13">
@@ -5098,7 +5116,7 @@
         <v>84</v>
       </c>
       <c r="C89" s="29" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D89" s="25" t="s">
         <v>27</v>
@@ -5111,13 +5129,13 @@
         <v>1820</v>
       </c>
       <c r="H89" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="I89" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="J89" s="30" t="s">
         <v>215</v>
-      </c>
-      <c r="I89" s="27" t="s">
-        <v>216</v>
-      </c>
-      <c r="J89" s="30" t="s">
-        <v>217</v>
       </c>
       <c r="K89" s="27" t="s">
         <v>31</v>
@@ -5125,29 +5143,29 @@
     </row>
     <row r="90" spans="1:11" ht="13">
       <c r="A90" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B90" s="26">
         <v>1</v>
       </c>
       <c r="C90" s="10"/>
       <c r="D90" s="25" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E90" s="10"/>
       <c r="F90" s="27" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G90" s="28">
         <v>1820</v>
       </c>
       <c r="K90" s="27" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="13">
       <c r="A91" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B91" s="26">
         <v>2</v>
@@ -5156,22 +5174,22 @@
         <v>58</v>
       </c>
       <c r="D91" s="25" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E91" s="10"/>
       <c r="F91" s="27" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G91" s="28">
         <v>1820</v>
       </c>
       <c r="K91" s="27" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="13">
       <c r="A92" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B92" s="26">
         <v>3</v>
@@ -5182,111 +5200,111 @@
       </c>
       <c r="E92" s="10"/>
       <c r="F92" s="27" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G92" s="28">
         <v>1820</v>
       </c>
       <c r="I92" s="27" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K92" s="27" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="13">
       <c r="A93" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B93" s="26">
         <v>4</v>
       </c>
       <c r="C93" s="29" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D93" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E93" s="10"/>
       <c r="F93" s="27" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G93" s="28">
         <v>1820</v>
       </c>
       <c r="I93" s="27" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K93" s="27" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="13">
       <c r="A94" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B94" s="26">
         <v>5</v>
       </c>
       <c r="C94" s="10"/>
       <c r="D94" s="25" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E94" s="10"/>
       <c r="F94" s="27" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G94" s="28">
         <v>1820</v>
       </c>
       <c r="K94" s="27" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="13">
       <c r="A95" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B95" s="26">
         <v>6</v>
       </c>
       <c r="C95" s="29" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D95" s="25" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E95" s="10"/>
       <c r="F95" s="27" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G95" s="28">
         <v>1820</v>
       </c>
       <c r="H95" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="J95" s="33" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K95" s="27" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="13">
       <c r="A96" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B96" s="26">
         <v>7</v>
       </c>
       <c r="C96" s="10"/>
       <c r="D96" s="25" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E96" s="10"/>
       <c r="F96" s="27" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G96" s="28">
         <v>1820</v>
@@ -5295,15 +5313,15 @@
         <v>5004</v>
       </c>
       <c r="J96" s="34" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K96" s="27" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="13">
       <c r="A97" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B97" s="26">
         <v>8</v>
@@ -5312,76 +5330,76 @@
         <v>97</v>
       </c>
       <c r="D97" s="25" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E97" s="10"/>
       <c r="F97" s="27" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G97" s="28">
         <v>1820</v>
       </c>
       <c r="K97" s="27" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="13">
       <c r="A98" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B98" s="26">
         <v>9</v>
       </c>
       <c r="C98" s="29" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D98" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E98" s="10"/>
       <c r="F98" s="27" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G98" s="28">
         <v>1820</v>
       </c>
       <c r="H98" s="33" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I98" s="27" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K98" s="27" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="13">
       <c r="A99" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B99" s="26">
         <v>10</v>
       </c>
       <c r="C99" s="29" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D99" s="25" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E99" s="10"/>
       <c r="F99" s="27" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G99" s="28">
         <v>1820</v>
       </c>
       <c r="K99" s="27" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="13">
       <c r="A100" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B100" s="26">
         <v>11</v>
@@ -5390,52 +5408,52 @@
         <v>97</v>
       </c>
       <c r="D100" s="25" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E100" s="10"/>
       <c r="F100" s="27" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G100" s="28">
         <v>1820</v>
       </c>
       <c r="K100" s="27" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="13">
       <c r="A101" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B101" s="26">
         <v>12</v>
       </c>
       <c r="C101" s="29" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D101" s="25" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E101" s="10"/>
       <c r="F101" s="27" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G101" s="28">
         <v>1820</v>
       </c>
       <c r="H101" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="J101" s="33" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K101" s="27" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="13">
       <c r="A102" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B102" s="26">
         <v>13</v>
@@ -5444,28 +5462,28 @@
         <v>97</v>
       </c>
       <c r="D102" s="25" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E102" s="10"/>
       <c r="F102" s="27" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G102" s="28">
         <v>1820</v>
       </c>
       <c r="H102" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="J102" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="K102" s="27" t="s">
         <v>258</v>
-      </c>
-      <c r="J102" s="33" t="s">
-        <v>259</v>
-      </c>
-      <c r="K102" s="27" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="13">
       <c r="A103" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B103" s="26">
         <v>14</v>
@@ -5478,71 +5496,71 @@
       </c>
       <c r="E103" s="10"/>
       <c r="F103" s="27" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G103" s="28">
         <v>1820</v>
       </c>
       <c r="H103" s="47" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="I103" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="J103" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="K103" s="27" t="s">
         <v>262</v>
-      </c>
-      <c r="J103" s="33" t="s">
-        <v>263</v>
-      </c>
-      <c r="K103" s="27" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="13">
       <c r="A104" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B104" s="26">
         <v>15</v>
       </c>
       <c r="C104" s="29" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D104" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E104" s="10"/>
       <c r="F104" s="27" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G104" s="28">
         <v>1820</v>
       </c>
       <c r="H104" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="I104" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="J104" s="33" t="s">
         <v>267</v>
       </c>
-      <c r="I104" s="27" t="s">
+      <c r="K104" s="27" t="s">
         <v>268</v>
-      </c>
-      <c r="J104" s="33" t="s">
-        <v>269</v>
-      </c>
-      <c r="K104" s="27" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="13">
       <c r="A105" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B105" s="26">
         <v>16</v>
       </c>
       <c r="C105" s="10"/>
       <c r="D105" s="25" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E105" s="10"/>
       <c r="F105" s="27" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G105" s="28">
         <v>1820</v>
@@ -5551,26 +5569,26 @@
         <v>5385</v>
       </c>
       <c r="J105" s="27" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K105" s="27" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="13">
       <c r="A106" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B106" s="26">
         <v>17</v>
       </c>
       <c r="C106" s="10"/>
       <c r="D106" s="25" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E106" s="10"/>
       <c r="F106" s="27" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G106" s="28">
         <v>1820</v>
@@ -5579,55 +5597,55 @@
         <v>5415</v>
       </c>
       <c r="K106" s="27" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="107" spans="1:11" ht="13">
       <c r="A107" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B107" s="26">
         <v>18</v>
       </c>
       <c r="C107" s="29" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D107" s="25" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E107" s="10"/>
       <c r="F107" s="27" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G107" s="28">
         <v>1820</v>
       </c>
       <c r="H107" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="J107" s="33" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K107" s="27" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="13">
       <c r="A108" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B108" s="26">
         <v>19</v>
       </c>
       <c r="C108" s="29" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D108" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E108" s="10"/>
       <c r="F108" s="27" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G108" s="28">
         <v>1820</v>
@@ -5636,18 +5654,18 @@
         <v>5440</v>
       </c>
       <c r="I108" s="27" t="s">
+        <v>280</v>
+      </c>
+      <c r="J108" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="K108" s="27" t="s">
         <v>282</v>
-      </c>
-      <c r="J108" s="33" t="s">
-        <v>283</v>
-      </c>
-      <c r="K108" s="27" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="13">
       <c r="A109" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B109" s="26">
         <v>20</v>
@@ -5658,7 +5676,7 @@
       </c>
       <c r="E109" s="10"/>
       <c r="F109" s="27" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G109" s="28">
         <v>1820</v>
@@ -5667,22 +5685,22 @@
         <v>5504</v>
       </c>
       <c r="I109" s="27" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K109" s="27" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="13">
       <c r="A110" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B110" s="26">
         <v>21</v>
       </c>
       <c r="C110" s="10"/>
       <c r="D110" s="25" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E110" s="10"/>
       <c r="F110" s="27" t="s">
@@ -5700,7 +5718,7 @@
     </row>
     <row r="111" spans="1:11" ht="13">
       <c r="A111" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B111" s="26">
         <v>22</v>
@@ -5717,24 +5735,24 @@
         <v>1820</v>
       </c>
       <c r="I111" s="27" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K111" s="27" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="112" spans="1:11" ht="13">
       <c r="A112" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B112" s="26">
         <v>23</v>
       </c>
       <c r="C112" s="29" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D112" s="25" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E112" s="10"/>
       <c r="F112" s="27" t="s">
@@ -5744,12 +5762,12 @@
         <v>1820</v>
       </c>
       <c r="K112" s="27" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="113" spans="1:11" ht="13">
       <c r="A113" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B113" s="26">
         <v>24</v>
@@ -5758,7 +5776,7 @@
         <v>95</v>
       </c>
       <c r="D113" s="25" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E113" s="10"/>
       <c r="F113" s="27" t="s">
@@ -5768,24 +5786,24 @@
         <v>1820</v>
       </c>
       <c r="H113" s="47" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="K113" s="27" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="114" spans="1:11" ht="13">
       <c r="A114" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B114" s="26">
         <v>25</v>
       </c>
       <c r="C114" s="29" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D114" s="25" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E114" s="10"/>
       <c r="F114" s="27" t="s">
@@ -5795,15 +5813,15 @@
         <v>1820</v>
       </c>
       <c r="H114" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="K114" s="27" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="13">
       <c r="A115" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B115" s="26">
         <v>26</v>
@@ -5820,10 +5838,10 @@
         <v>1820</v>
       </c>
       <c r="H115" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="I115" s="27" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K115" s="27" t="s">
         <v>75</v>
@@ -5831,7 +5849,7 @@
     </row>
     <row r="116" spans="1:11" ht="13">
       <c r="A116" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B116" s="26">
         <v>27</v>
@@ -5853,40 +5871,40 @@
         <v>5643</v>
       </c>
       <c r="I116" s="27" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K116" s="27" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="13">
       <c r="A117" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B117" s="26">
         <v>28</v>
       </c>
       <c r="C117" s="10"/>
       <c r="D117" s="25" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E117" s="10"/>
       <c r="F117" s="27" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G117" s="28">
         <v>1820</v>
       </c>
       <c r="H117" s="27" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K117" s="27" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="118" spans="1:11" ht="13">
       <c r="A118" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B118" s="26">
         <v>29</v>
@@ -5897,7 +5915,7 @@
       </c>
       <c r="E118" s="10"/>
       <c r="F118" s="27" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G118" s="28">
         <v>1820</v>
@@ -5906,22 +5924,22 @@
         <v>5660</v>
       </c>
       <c r="I118" s="27" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K118" s="35" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="13">
       <c r="A119" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B119" s="26">
         <v>30</v>
       </c>
       <c r="C119" s="10"/>
       <c r="D119" s="25" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E119" s="10"/>
       <c r="F119" s="27" t="s">
@@ -5931,19 +5949,19 @@
         <v>1820</v>
       </c>
       <c r="K119" s="27" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="13">
       <c r="A120" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B120" s="26">
         <v>31</v>
       </c>
       <c r="C120" s="10"/>
       <c r="D120" s="25" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E120" s="10"/>
       <c r="F120" s="27" t="s">
@@ -5953,7 +5971,7 @@
         <v>1820</v>
       </c>
       <c r="H120" s="27" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K120" s="27" t="s">
         <v>31</v>
@@ -5961,17 +5979,17 @@
     </row>
     <row r="121" spans="1:11" ht="13">
       <c r="A121" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B121" s="26">
         <v>32</v>
       </c>
       <c r="C121" s="10"/>
       <c r="D121" s="25" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E121" s="31" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F121" s="27" t="s">
         <v>20</v>
@@ -5983,19 +6001,19 @@
         <v>5804</v>
       </c>
       <c r="K121" s="27" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="122" spans="1:11" ht="13">
       <c r="A122" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B122" s="26">
         <v>33</v>
       </c>
       <c r="C122" s="10"/>
       <c r="D122" s="25" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E122" s="10"/>
       <c r="F122" s="27" t="s">
@@ -6013,14 +6031,14 @@
     </row>
     <row r="123" spans="1:11" ht="13">
       <c r="A123" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B123" s="26">
         <v>34</v>
       </c>
       <c r="C123" s="10"/>
       <c r="D123" s="25" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E123" s="10"/>
       <c r="F123" s="27" t="s">
@@ -6033,19 +6051,19 @@
         <v>5828</v>
       </c>
       <c r="K123" s="27" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="124" spans="1:11" ht="13">
       <c r="A124" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B124" s="26">
         <v>35</v>
       </c>
       <c r="C124" s="10"/>
       <c r="D124" s="25" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E124" s="10"/>
       <c r="F124" s="27" t="s">
@@ -6055,15 +6073,15 @@
         <v>1820</v>
       </c>
       <c r="H124" s="27" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K124" s="27" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="13">
       <c r="A125" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B125" s="26">
         <v>36</v>
@@ -6080,18 +6098,18 @@
         <v>1820</v>
       </c>
       <c r="H125" s="27" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I125" s="27" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K125" s="27" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="126" spans="1:11" ht="13">
       <c r="A126" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B126" s="26">
         <v>37</v>
@@ -6108,15 +6126,15 @@
         <v>1820</v>
       </c>
       <c r="I126" s="27" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K126" s="27" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="127" spans="1:11" ht="13">
       <c r="A127" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B127" s="26">
         <v>38</v>
@@ -6138,14 +6156,14 @@
     </row>
     <row r="128" spans="1:11" ht="13">
       <c r="A128" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B128" s="26">
         <v>39</v>
       </c>
       <c r="C128" s="10"/>
       <c r="D128" s="25" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E128" s="10"/>
       <c r="F128" s="27" t="s">
@@ -6155,7 +6173,7 @@
         <v>1830</v>
       </c>
       <c r="H128" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="K128" s="27" t="s">
         <v>31</v>
@@ -6163,7 +6181,7 @@
     </row>
     <row r="129" spans="1:11" ht="13">
       <c r="A129" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B129" s="26">
         <v>40</v>
@@ -6180,12 +6198,12 @@
         <v>1830</v>
       </c>
       <c r="K129" s="27" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="130" spans="1:11" ht="15">
       <c r="A130" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B130" s="26">
         <v>41</v>
@@ -6196,21 +6214,21 @@
       </c>
       <c r="E130" s="10"/>
       <c r="F130" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G130" s="28">
         <v>1830</v>
       </c>
       <c r="I130" s="36" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K130" s="36" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="131" spans="1:11" ht="13">
       <c r="A131" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B131" s="26">
         <v>42</v>
@@ -6235,14 +6253,14 @@
     </row>
     <row r="132" spans="1:11" ht="13">
       <c r="A132" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B132" s="26">
         <v>43</v>
       </c>
       <c r="C132" s="10"/>
       <c r="D132" s="25" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E132" s="10"/>
       <c r="F132" s="27" t="s">
@@ -6252,19 +6270,19 @@
         <v>1830</v>
       </c>
       <c r="K132" s="27" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="133" spans="1:11" ht="13">
       <c r="A133" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B133" s="26">
         <v>44</v>
       </c>
       <c r="C133" s="10"/>
       <c r="D133" s="25" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E133" s="10"/>
       <c r="F133" s="27" t="s">
@@ -6274,12 +6292,12 @@
         <v>1830</v>
       </c>
       <c r="K133" s="27" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="134" spans="1:11" ht="13">
       <c r="A134" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B134" s="26">
         <v>45</v>
@@ -6290,145 +6308,145 @@
       </c>
       <c r="E134" s="10"/>
       <c r="F134" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G134" s="28">
         <v>1830</v>
       </c>
       <c r="I134" s="27" t="s">
+        <v>330</v>
+      </c>
+      <c r="J134" s="27" t="s">
+        <v>331</v>
+      </c>
+      <c r="K134" s="27" t="s">
         <v>332</v>
-      </c>
-      <c r="J134" s="27" t="s">
-        <v>333</v>
-      </c>
-      <c r="K134" s="27" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="135" spans="1:11" ht="13">
       <c r="A135" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B135" s="26">
         <v>46</v>
       </c>
       <c r="C135" s="10"/>
       <c r="D135" s="25" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E135" s="10"/>
       <c r="F135" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G135" s="28">
         <v>1830</v>
       </c>
       <c r="J135" s="27" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K135" s="27" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="136" spans="1:11" ht="13">
       <c r="A136" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B136" s="26">
         <v>47</v>
       </c>
       <c r="C136" s="29" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D136" s="25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E136" s="10"/>
       <c r="F136" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G136" s="28">
         <v>1830</v>
       </c>
       <c r="K136" s="27" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="137" spans="1:11" ht="15">
       <c r="A137" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B137" s="26">
         <v>48</v>
       </c>
       <c r="C137" s="29" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D137" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E137" s="10"/>
       <c r="F137" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G137" s="28">
         <v>1830</v>
       </c>
       <c r="I137" s="36" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J137" s="27"/>
       <c r="K137" s="35" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="138" spans="1:11" ht="13">
       <c r="A138" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B138" s="26">
         <v>49</v>
       </c>
       <c r="C138" s="10"/>
       <c r="D138" s="25" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E138" s="10"/>
       <c r="F138" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G138" s="28">
         <v>1830</v>
       </c>
       <c r="K138" s="27" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="139" spans="1:11" ht="13">
       <c r="A139" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B139" s="26">
         <v>50</v>
       </c>
       <c r="C139" s="10"/>
       <c r="D139" s="25" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E139" s="10"/>
       <c r="F139" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G139" s="28">
         <v>1830</v>
       </c>
       <c r="K139" s="27" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="140" spans="1:11" ht="15">
       <c r="A140" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B140" s="26">
         <v>51</v>
@@ -6439,21 +6457,21 @@
       </c>
       <c r="E140" s="10"/>
       <c r="F140" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G140" s="28">
         <v>1830</v>
       </c>
       <c r="I140" s="36" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K140" s="27" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="141" spans="1:11" ht="13">
       <c r="A141" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B141" s="26">
         <v>52</v>
@@ -6462,24 +6480,24 @@
         <v>97</v>
       </c>
       <c r="D141" s="25" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E141" s="31" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F141" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G141" s="28">
         <v>1830</v>
       </c>
       <c r="K141" s="27" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="142" spans="1:11" ht="13">
       <c r="A142" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B142" s="26">
         <v>53</v>
@@ -6488,92 +6506,92 @@
         <v>39</v>
       </c>
       <c r="D142" s="25" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E142" s="10"/>
       <c r="F142" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G142" s="28">
         <v>1830</v>
       </c>
       <c r="H142" s="27" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K142" s="27" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="143" spans="1:11" ht="15">
       <c r="A143" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B143" s="26">
         <v>54</v>
       </c>
       <c r="C143" s="29" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D143" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E143" s="10"/>
       <c r="F143" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G143" s="28">
         <v>1830</v>
       </c>
       <c r="H143" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="I143" s="36" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="K143" s="27" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="144" spans="1:11" ht="13">
       <c r="A144" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B144" s="26">
         <v>55</v>
       </c>
       <c r="C144" s="29" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D144" s="25" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E144" s="10"/>
       <c r="F144" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G144" s="28">
         <v>1830</v>
       </c>
       <c r="K144" s="27" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="145" spans="1:11" ht="15">
       <c r="A145" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B145" s="26">
         <v>56</v>
       </c>
       <c r="C145" s="29" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D145" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E145" s="10"/>
       <c r="F145" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G145" s="28">
         <v>1830</v>
@@ -6582,109 +6600,109 @@
         <v>3559</v>
       </c>
       <c r="I145" s="36" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K145" s="27"/>
     </row>
     <row r="146" spans="1:11" ht="13">
       <c r="A146" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B146" s="26">
         <v>57</v>
       </c>
       <c r="C146" s="10"/>
       <c r="D146" s="25" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E146" s="10"/>
       <c r="F146" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G146" s="28">
         <v>1830</v>
       </c>
       <c r="H146" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="K146" s="27" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="147" spans="1:11" ht="13">
       <c r="A147" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B147" s="26">
         <v>58</v>
       </c>
       <c r="C147" s="10"/>
       <c r="D147" s="25" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E147" s="10"/>
       <c r="F147" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G147" s="28">
         <v>1830</v>
       </c>
       <c r="K147" s="27" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="148" spans="1:11" ht="13">
       <c r="A148" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B148" s="26">
         <v>59</v>
       </c>
       <c r="C148" s="10"/>
       <c r="D148" s="25" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E148" s="10"/>
       <c r="F148" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G148" s="28">
         <v>1830</v>
       </c>
       <c r="K148" s="27" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="149" spans="1:11" ht="13">
       <c r="A149" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B149" s="26">
         <v>60</v>
       </c>
       <c r="C149" s="29" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D149" s="25" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E149" s="10"/>
       <c r="F149" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G149" s="28">
         <v>1830</v>
       </c>
       <c r="H149" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="K149" s="27" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="150" spans="1:11" ht="15">
       <c r="A150" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B150" s="26">
         <v>61</v>
@@ -6697,57 +6715,57 @@
       </c>
       <c r="E150" s="10"/>
       <c r="F150" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G150" s="28">
         <v>1830</v>
       </c>
       <c r="I150" s="36" t="s">
+        <v>364</v>
+      </c>
+      <c r="J150" s="27" t="s">
+        <v>365</v>
+      </c>
+      <c r="K150" s="27" t="s">
         <v>366</v>
-      </c>
-      <c r="J150" s="27" t="s">
-        <v>367</v>
-      </c>
-      <c r="K150" s="27" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="151" spans="1:11" ht="13">
       <c r="A151" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B151" s="26">
         <v>62</v>
       </c>
       <c r="C151" s="10"/>
       <c r="D151" s="25" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E151" s="10"/>
       <c r="F151" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G151" s="28">
         <v>1830</v>
       </c>
       <c r="K151" s="27" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="152" spans="1:11" ht="13">
       <c r="A152" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B152" s="26">
         <v>63</v>
       </c>
       <c r="C152" s="10"/>
       <c r="D152" s="25" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E152" s="10"/>
       <c r="F152" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G152" s="28">
         <v>1830</v>
@@ -6756,23 +6774,23 @@
         <v>3176</v>
       </c>
       <c r="K152" s="27" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="153" spans="1:11" ht="13">
       <c r="A153" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B153" s="26">
         <v>64</v>
       </c>
       <c r="C153" s="10"/>
       <c r="D153" s="25" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E153" s="10"/>
       <c r="F153" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G153" s="28">
         <v>1830</v>
@@ -6781,61 +6799,61 @@
         <v>3112</v>
       </c>
       <c r="K153" s="27" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="154" spans="1:11" ht="13">
       <c r="A154" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B154" s="26">
         <v>65</v>
       </c>
       <c r="C154" s="10"/>
       <c r="D154" s="25" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E154" s="10"/>
       <c r="F154" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G154" s="28">
         <v>1830</v>
       </c>
       <c r="K154" s="27" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="155" spans="1:11" ht="14">
       <c r="A155" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B155" s="26">
         <v>66</v>
       </c>
       <c r="C155" s="29" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D155" s="25" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E155" s="10"/>
       <c r="F155" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G155" s="28">
         <v>1830</v>
       </c>
       <c r="H155" s="27" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K155" s="37" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="156" spans="1:11" ht="15">
       <c r="A156" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B156" s="26">
         <v>67</v>
@@ -6844,11 +6862,11 @@
         <v>97</v>
       </c>
       <c r="D156" s="25" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E156" s="10"/>
       <c r="F156" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G156" s="28">
         <v>1830</v>
@@ -6857,39 +6875,42 @@
         <v>112</v>
       </c>
       <c r="K156" s="27" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="157" spans="1:11" ht="15">
       <c r="A157" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B157" s="26">
         <v>68</v>
       </c>
       <c r="C157" s="29" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D157" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E157" s="10"/>
       <c r="F157" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G157" s="28">
         <v>1830</v>
       </c>
+      <c r="H157" t="s">
+        <v>613</v>
+      </c>
       <c r="I157" s="36" t="s">
-        <v>116</v>
+        <v>612</v>
       </c>
       <c r="K157" s="27" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="158" spans="1:11" ht="15">
       <c r="A158" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B158" s="26">
         <v>69</v>
@@ -6902,7 +6923,7 @@
       </c>
       <c r="E158" s="10"/>
       <c r="F158" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G158" s="28">
         <v>1830</v>
@@ -6911,56 +6932,56 @@
         <v>2529</v>
       </c>
       <c r="I158" s="36" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K158" s="30" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="159" spans="1:11" ht="13">
       <c r="A159" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B159" s="26">
         <v>70</v>
       </c>
       <c r="C159" s="29" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D159" s="13" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="E159" s="10"/>
       <c r="F159" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G159" s="28">
         <v>1830</v>
       </c>
       <c r="H159" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="I159" s="47" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="K159" s="30" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="160" spans="1:11" ht="13">
       <c r="A160" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B160" s="26">
         <v>71</v>
       </c>
       <c r="C160" s="10"/>
       <c r="D160" s="25" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E160" s="10"/>
       <c r="F160" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G160" s="28">
         <v>1830</v>
@@ -6968,7 +6989,7 @@
     </row>
     <row r="161" spans="1:11" ht="15">
       <c r="A161" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B161" s="26">
         <v>72</v>
@@ -6979,34 +7000,34 @@
       </c>
       <c r="E161" s="10"/>
       <c r="F161" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G161" s="28">
         <v>1830</v>
       </c>
       <c r="I161" s="36" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="K161" s="27" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="162" spans="1:11" ht="13">
       <c r="A162" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B162" s="26">
         <v>73</v>
       </c>
       <c r="C162" s="29" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D162" s="25" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E162" s="10"/>
       <c r="F162" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G162" s="28">
         <v>1830</v>
@@ -7015,134 +7036,134 @@
         <v>2630</v>
       </c>
       <c r="K162" s="27" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="163" spans="1:11" ht="13">
       <c r="A163" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B163" s="26">
         <v>74</v>
       </c>
       <c r="C163" s="10"/>
       <c r="D163" s="25" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E163" s="10"/>
       <c r="F163" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G163" s="28">
         <v>1830</v>
       </c>
       <c r="K163" s="27" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="164" spans="1:11" ht="15">
       <c r="A164" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B164" s="26">
         <v>75</v>
       </c>
       <c r="C164" s="29" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D164" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E164" s="10"/>
       <c r="F164" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G164" s="28">
         <v>1830</v>
       </c>
       <c r="I164" s="36" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="K164" s="36" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="165" spans="1:11" ht="13">
       <c r="A165" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B165" s="26">
         <v>76</v>
       </c>
       <c r="C165" s="10"/>
       <c r="D165" s="25" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E165" s="10"/>
       <c r="F165" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G165" s="28">
         <v>1830</v>
       </c>
       <c r="K165" s="27" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="166" spans="1:11" ht="13">
       <c r="A166" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B166" s="26">
         <v>77</v>
       </c>
       <c r="C166" s="29" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D166" s="25" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E166" s="10"/>
       <c r="F166" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G166" s="28">
         <v>1830</v>
       </c>
       <c r="K166" s="27" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="167" spans="1:11" ht="13">
       <c r="A167" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B167" s="26">
         <v>78</v>
       </c>
       <c r="C167" s="29" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D167" s="13" t="s">
         <v>27</v>
       </c>
       <c r="E167" s="10"/>
       <c r="F167" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G167" s="28">
         <v>1830</v>
       </c>
       <c r="I167" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="K167" s="27" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="168" spans="1:11" ht="13">
       <c r="A168" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B168" s="26">
         <v>79</v>
@@ -7153,21 +7174,21 @@
       </c>
       <c r="E168" s="10"/>
       <c r="F168" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G168" s="28">
         <v>1830</v>
       </c>
       <c r="I168" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="K168" s="27" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="169" spans="1:11" ht="15">
       <c r="A169" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B169" s="26">
         <v>80</v>
@@ -7180,92 +7201,92 @@
       </c>
       <c r="E169" s="10"/>
       <c r="F169" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G169" s="28">
         <v>1830</v>
       </c>
       <c r="I169" s="36" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="J169" s="39"/>
       <c r="K169" s="37" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="170" spans="1:11" ht="14">
       <c r="A170" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B170" s="26">
         <v>81</v>
       </c>
       <c r="C170" s="29" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D170" s="25" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E170" s="10"/>
       <c r="F170" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G170" s="28">
         <v>1830</v>
       </c>
       <c r="K170" s="37" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="171" spans="1:11" ht="13">
       <c r="A171" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B171" s="26">
         <v>82</v>
       </c>
       <c r="C171" s="29" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D171" s="25" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E171" s="10"/>
       <c r="F171" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G171" s="28">
         <v>1830</v>
       </c>
       <c r="K171" s="27" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="172" spans="1:11" ht="13">
       <c r="A172" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B172" s="26">
         <v>83</v>
       </c>
       <c r="C172" s="10"/>
       <c r="D172" s="25" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E172" s="10"/>
       <c r="F172" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G172" s="28">
         <v>1830</v>
       </c>
       <c r="K172" s="27" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="173" spans="1:11" ht="15">
       <c r="A173" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B173" s="26">
         <v>84</v>
@@ -7276,7 +7297,7 @@
       </c>
       <c r="E173" s="10"/>
       <c r="F173" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G173" s="28">
         <v>1830</v>
@@ -7285,40 +7306,40 @@
         <v>3602</v>
       </c>
       <c r="I173" s="36" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K173" s="27" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="174" spans="1:11" ht="13">
       <c r="A174" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B174" s="26">
         <v>85</v>
       </c>
       <c r="C174" s="10"/>
       <c r="D174" s="25" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E174" s="10"/>
       <c r="F174" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G174" s="28">
         <v>1830</v>
       </c>
       <c r="H174" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="K174" s="27" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="175" spans="1:11" ht="14">
       <c r="A175" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B175" s="26">
         <v>86</v>
@@ -7329,24 +7350,24 @@
       </c>
       <c r="E175" s="10"/>
       <c r="F175" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G175" s="28">
         <v>1830</v>
       </c>
       <c r="I175" s="37" t="s">
+        <v>403</v>
+      </c>
+      <c r="J175" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="K175" s="27" t="s">
         <v>405</v>
-      </c>
-      <c r="J175" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="K175" s="27" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="176" spans="1:11" ht="15">
       <c r="A176" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B176" s="26">
         <v>87</v>
@@ -7357,18 +7378,18 @@
       </c>
       <c r="E176" s="10"/>
       <c r="F176" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G176" s="28">
         <v>1830</v>
       </c>
       <c r="I176" s="36" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="177" spans="1:11" ht="15">
       <c r="A177" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B177" s="26">
         <v>88</v>
@@ -7379,18 +7400,18 @@
       </c>
       <c r="E177" s="10"/>
       <c r="F177" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G177" s="28">
         <v>1830</v>
       </c>
       <c r="I177" s="36" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="178" spans="1:11" ht="15">
       <c r="A178" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B178" s="26">
         <v>89</v>
@@ -7401,29 +7422,29 @@
       </c>
       <c r="E178" s="10"/>
       <c r="F178" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G178" s="28">
         <v>1830</v>
       </c>
       <c r="I178" s="36" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="179" spans="1:11" ht="13">
       <c r="A179" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B179" s="26">
         <v>90</v>
       </c>
       <c r="C179" s="10"/>
       <c r="D179" s="25" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E179" s="10"/>
       <c r="F179" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G179" s="28">
         <v>1830</v>
@@ -7431,29 +7452,29 @@
     </row>
     <row r="180" spans="1:11" ht="13">
       <c r="A180" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B180" s="26">
         <v>91</v>
       </c>
       <c r="C180" s="10"/>
       <c r="D180" s="25" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E180" s="10"/>
       <c r="F180" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G180" s="28">
         <v>1830</v>
       </c>
       <c r="K180" s="27" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="181" spans="1:11" ht="13">
       <c r="A181" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B181" s="26">
         <v>92</v>
@@ -7462,25 +7483,25 @@
         <v>97</v>
       </c>
       <c r="D181" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E181" s="10"/>
       <c r="F181" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G181" s="28">
         <v>1830</v>
       </c>
       <c r="H181" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="K181" s="27" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="182" spans="1:11" ht="14">
       <c r="A182" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B182" s="26">
         <v>93</v>
@@ -7489,23 +7510,23 @@
         <v>97</v>
       </c>
       <c r="D182" s="25" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E182" s="10"/>
       <c r="F182" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G182" s="28">
         <v>1830</v>
       </c>
       <c r="H182" s="40"/>
       <c r="K182" s="37" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="183" spans="1:11" ht="15">
       <c r="A183" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B183" s="26">
         <v>94</v>
@@ -7516,163 +7537,163 @@
       </c>
       <c r="E183" s="10"/>
       <c r="F183" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G183" s="28">
         <v>1830</v>
       </c>
       <c r="H183" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="I183" s="36" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K183" s="27" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="184" spans="1:11" ht="13">
       <c r="A184" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B184" s="26">
         <v>95</v>
       </c>
       <c r="C184" s="29" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D184" s="25" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E184" s="10"/>
       <c r="F184" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G184" s="28">
         <v>1830</v>
       </c>
       <c r="K184" s="27" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="185" spans="1:11" ht="13">
       <c r="A185" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B185" s="26">
         <v>96</v>
       </c>
       <c r="C185" s="29" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D185" s="25" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E185" s="10"/>
       <c r="F185" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G185" s="28">
         <v>1830</v>
       </c>
       <c r="K185" s="27" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="186" spans="1:11" ht="13">
       <c r="A186" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B186" s="26">
         <v>97</v>
       </c>
       <c r="C186" s="29" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D186" s="25" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E186" s="10"/>
       <c r="F186" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G186" s="28">
         <v>1830</v>
       </c>
       <c r="K186" s="27" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="187" spans="1:11" ht="15">
       <c r="A187" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B187" s="26">
         <v>98</v>
       </c>
       <c r="C187" s="29" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D187" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E187" s="10"/>
       <c r="F187" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G187" s="28">
         <v>1830</v>
       </c>
       <c r="I187" s="36" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="K187" s="27" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="188" spans="1:11" ht="13">
       <c r="A188" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B188" s="26">
         <v>99</v>
       </c>
       <c r="C188" s="29" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D188" s="25" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E188" s="10"/>
       <c r="F188" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G188" s="28">
         <v>1830</v>
       </c>
       <c r="J188" s="27" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="K188" s="27" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="189" spans="1:11" ht="13">
       <c r="A189" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B189" s="26">
         <v>100</v>
       </c>
       <c r="C189" s="29" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D189" s="25" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E189" s="10"/>
       <c r="F189" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G189" s="28">
         <v>1830</v>
@@ -7680,60 +7701,60 @@
     </row>
     <row r="190" spans="1:11" ht="15">
       <c r="A190" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B190" s="26">
         <v>101</v>
       </c>
       <c r="C190" s="29" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D190" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E190" s="10"/>
       <c r="F190" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G190" s="28">
         <v>1830</v>
       </c>
       <c r="H190" s="41"/>
       <c r="I190" s="36" t="s">
+        <v>429</v>
+      </c>
+      <c r="J190" s="27" t="s">
+        <v>430</v>
+      </c>
+      <c r="K190" s="42" t="s">
         <v>431</v>
-      </c>
-      <c r="J190" s="27" t="s">
-        <v>432</v>
-      </c>
-      <c r="K190" s="42" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="191" spans="1:11" ht="13">
       <c r="A191" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B191" s="26">
         <v>102</v>
       </c>
       <c r="C191" s="10"/>
       <c r="D191" s="25" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E191" s="10"/>
       <c r="F191" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G191" s="28">
         <v>1830</v>
       </c>
       <c r="K191" s="27" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="192" spans="1:11" ht="13">
       <c r="A192" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B192" s="26">
         <v>103</v>
@@ -7744,21 +7765,21 @@
       </c>
       <c r="E192" s="10"/>
       <c r="F192" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G192" s="28">
         <v>1830</v>
       </c>
       <c r="I192" s="27" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="K192" s="27" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="193" spans="1:11" ht="13">
       <c r="A193" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B193" s="26">
         <v>104</v>
@@ -7767,11 +7788,11 @@
         <v>97</v>
       </c>
       <c r="D193" s="25" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E193" s="10"/>
       <c r="F193" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G193" s="28">
         <v>1830</v>
@@ -7779,71 +7800,71 @@
     </row>
     <row r="194" spans="1:11" ht="13">
       <c r="A194" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B194" s="26">
         <v>105</v>
       </c>
       <c r="C194" s="29" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D194" s="25" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E194" s="10"/>
       <c r="F194" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G194" s="28">
         <v>1830</v>
       </c>
       <c r="H194" s="47" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="K194" s="27" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="195" spans="1:11" ht="13">
       <c r="A195" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B195" s="26">
         <v>106</v>
       </c>
       <c r="C195" s="29" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D195" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E195" s="10"/>
       <c r="F195" s="27" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G195" s="28">
         <v>1830</v>
       </c>
       <c r="I195" s="27" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="196" spans="1:11" ht="13">
       <c r="A196" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B196" s="26">
         <v>107</v>
       </c>
       <c r="C196" s="29" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D196" s="25" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E196" s="10"/>
       <c r="F196" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G196" s="28">
         <v>1830</v>
@@ -7851,20 +7872,20 @@
     </row>
     <row r="197" spans="1:11" ht="13">
       <c r="A197" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B197" s="26">
         <v>108</v>
       </c>
       <c r="C197" s="29" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D197" s="25" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E197" s="10"/>
       <c r="F197" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G197" s="28">
         <v>1830</v>
@@ -7872,18 +7893,18 @@
     </row>
     <row r="198" spans="1:11" ht="13">
       <c r="A198" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B198" s="26">
         <v>109</v>
       </c>
       <c r="C198" s="10"/>
       <c r="D198" s="25" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E198" s="10"/>
       <c r="F198" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G198" s="28">
         <v>1830</v>
@@ -7891,20 +7912,20 @@
     </row>
     <row r="199" spans="1:11" ht="14">
       <c r="A199" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B199" s="26">
         <v>110</v>
       </c>
       <c r="C199" s="29" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D199" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E199" s="10"/>
       <c r="F199" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G199" s="28">
         <v>1830</v>
@@ -7914,25 +7935,25 @@
         <v>98</v>
       </c>
       <c r="K199" s="37" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="200" spans="1:11" ht="13">
       <c r="A200" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B200" s="26">
         <v>111</v>
       </c>
       <c r="C200" s="29" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D200" s="13" t="s">
         <v>27</v>
       </c>
       <c r="E200" s="10"/>
       <c r="F200" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G200" s="28">
         <v>1830</v>
@@ -7941,83 +7962,83 @@
         <v>1909</v>
       </c>
       <c r="I200" s="47" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="K200" s="27" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="201" spans="1:11" ht="13">
       <c r="A201" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B201" s="26">
         <v>112</v>
       </c>
       <c r="C201" s="29" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D201" s="25" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E201" s="10"/>
       <c r="F201" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G201" s="28">
         <v>1830</v>
       </c>
       <c r="H201" s="47" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="K201" s="27" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="202" spans="1:11" ht="15">
       <c r="A202" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B202" s="26">
         <v>113</v>
       </c>
       <c r="C202" s="29" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D202" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E202" s="10"/>
       <c r="F202" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G202" s="28">
         <v>1830</v>
       </c>
       <c r="H202" s="27" t="s">
+        <v>452</v>
+      </c>
+      <c r="I202" s="27" t="s">
+        <v>453</v>
+      </c>
+      <c r="K202" s="36" t="s">
         <v>454</v>
-      </c>
-      <c r="I202" s="27" t="s">
-        <v>455</v>
-      </c>
-      <c r="K202" s="36" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="203" spans="1:11" ht="13">
       <c r="A203" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B203" s="26">
         <v>114</v>
       </c>
       <c r="C203" s="10"/>
       <c r="D203" s="25" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E203" s="10"/>
       <c r="F203" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G203" s="28">
         <v>1830</v>
@@ -8025,70 +8046,70 @@
     </row>
     <row r="204" spans="1:11" ht="15">
       <c r="A204" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B204" s="26">
         <v>115</v>
       </c>
       <c r="C204" s="29" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D204" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E204" s="10"/>
       <c r="F204" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G204" s="28">
         <v>1830</v>
       </c>
       <c r="I204" s="36" t="s">
+        <v>457</v>
+      </c>
+      <c r="J204" s="27" t="s">
+        <v>458</v>
+      </c>
+      <c r="K204" s="27" t="s">
         <v>459</v>
-      </c>
-      <c r="J204" s="27" t="s">
-        <v>460</v>
-      </c>
-      <c r="K204" s="27" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="205" spans="1:11" ht="13">
       <c r="A205" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B205" s="26">
         <v>116</v>
       </c>
       <c r="C205" s="10"/>
       <c r="D205" s="25" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E205" s="10"/>
       <c r="F205" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G205" s="28">
         <v>1830</v>
       </c>
       <c r="K205" s="27" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="206" spans="1:11" ht="15">
       <c r="A206" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B206" s="26">
         <v>117</v>
       </c>
       <c r="C206" s="10"/>
       <c r="D206" s="25" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E206" s="10"/>
       <c r="F206" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G206" s="28">
         <v>1830</v>
@@ -8099,18 +8120,18 @@
     </row>
     <row r="207" spans="1:11" ht="13">
       <c r="A207" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B207" s="26">
         <v>118</v>
       </c>
       <c r="C207" s="10"/>
       <c r="D207" s="25" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E207" s="10"/>
       <c r="F207" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G207" s="28">
         <v>1830</v>
@@ -8121,59 +8142,59 @@
     </row>
     <row r="208" spans="1:11" ht="13">
       <c r="A208" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B208" s="26">
         <v>119</v>
       </c>
       <c r="C208" s="29" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D208" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E208" s="10"/>
       <c r="F208" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G208" s="28">
         <v>1830</v>
       </c>
       <c r="I208" s="27" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="K208" s="30" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="209" spans="1:11" ht="15">
       <c r="A209" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B209" s="26">
         <v>120</v>
       </c>
       <c r="C209" s="29" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D209" s="25" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E209" s="10"/>
       <c r="F209" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G209" s="28">
         <v>1830</v>
       </c>
       <c r="H209" s="44"/>
       <c r="K209" s="37" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="210" spans="1:11" ht="13">
       <c r="A210" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B210" s="26">
         <v>121</v>
@@ -8184,58 +8205,58 @@
       </c>
       <c r="E210" s="10"/>
       <c r="F210" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G210" s="28">
         <v>1830</v>
       </c>
       <c r="H210" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="I210" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="211" spans="1:11" ht="13">
       <c r="A211" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B211" s="26">
         <v>122</v>
       </c>
       <c r="C211" s="29" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D211" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E211" s="10"/>
       <c r="F211" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G211" s="28">
         <v>1830</v>
       </c>
       <c r="I211" s="27" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="212" spans="1:11" ht="13">
       <c r="A212" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B212" s="26">
         <v>123</v>
       </c>
       <c r="C212" s="29" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D212" s="25" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E212" s="10"/>
       <c r="F212" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G212" s="28">
         <v>1830</v>
@@ -8243,31 +8264,31 @@
     </row>
     <row r="213" spans="1:11" ht="13">
       <c r="A213" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B213" s="26">
         <v>124</v>
       </c>
       <c r="C213" s="29" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D213" s="25" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E213" s="10"/>
       <c r="F213" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G213" s="28">
         <v>1830</v>
       </c>
       <c r="H213" s="27" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="214" spans="1:11" ht="13">
       <c r="A214" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B214" s="26">
         <v>125</v>
@@ -8276,11 +8297,11 @@
         <v>97</v>
       </c>
       <c r="D214" s="25" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E214" s="10"/>
       <c r="F214" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G214" s="28">
         <v>1830</v>
@@ -8288,18 +8309,18 @@
     </row>
     <row r="215" spans="1:11" ht="13">
       <c r="A215" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B215" s="26">
         <v>126</v>
       </c>
       <c r="C215" s="10"/>
       <c r="D215" s="25" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E215" s="10"/>
       <c r="F215" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G215" s="28">
         <v>1830</v>
@@ -8307,18 +8328,18 @@
     </row>
     <row r="216" spans="1:11" ht="13">
       <c r="A216" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B216" s="26">
         <v>127</v>
       </c>
       <c r="C216" s="10"/>
       <c r="D216" s="25" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E216" s="10"/>
       <c r="F216" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G216" s="28">
         <v>1830</v>
@@ -8326,18 +8347,18 @@
     </row>
     <row r="217" spans="1:11" ht="13">
       <c r="A217" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B217" s="26">
         <v>128</v>
       </c>
       <c r="C217" s="10"/>
       <c r="D217" s="25" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E217" s="10"/>
       <c r="F217" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G217" s="28">
         <v>1830</v>
@@ -8345,7 +8366,7 @@
     </row>
     <row r="218" spans="1:11" ht="15">
       <c r="A218" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B218" s="26">
         <v>129</v>
@@ -8356,21 +8377,21 @@
       </c>
       <c r="E218" s="10"/>
       <c r="F218" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G218" s="28">
         <v>1830</v>
       </c>
       <c r="H218" s="27" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="I218" s="36" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="219" spans="1:11" ht="13">
       <c r="A219" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B219" s="26">
         <v>130</v>
@@ -8381,18 +8402,18 @@
       </c>
       <c r="E219" s="10"/>
       <c r="F219" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G219" s="28">
         <v>1830</v>
       </c>
       <c r="I219" s="27" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="220" spans="1:11" ht="13">
       <c r="A220" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B220" s="26">
         <v>131</v>
@@ -8403,53 +8424,53 @@
       </c>
       <c r="E220" s="10"/>
       <c r="F220" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G220" s="28">
         <v>1830</v>
       </c>
       <c r="I220" s="27" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="221" spans="1:11" ht="13">
       <c r="A221" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B221" s="26">
         <v>132</v>
       </c>
       <c r="C221" s="10"/>
       <c r="D221" s="25" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E221" s="10"/>
       <c r="F221" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G221" s="28">
         <v>1830</v>
       </c>
       <c r="H221" s="47" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="222" spans="1:11" ht="15">
       <c r="A222" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B222" s="26">
         <v>133</v>
       </c>
       <c r="C222" s="29" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D222" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E222" s="10"/>
       <c r="F222" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G222" s="28">
         <v>1830</v>
@@ -8458,15 +8479,15 @@
         <v>1052</v>
       </c>
       <c r="I222" s="36" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="K222" s="36" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="223" spans="1:11" ht="15">
       <c r="A223" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B223" s="26">
         <v>134</v>
@@ -8477,29 +8498,29 @@
       </c>
       <c r="E223" s="10"/>
       <c r="F223" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G223" s="28">
         <v>1830</v>
       </c>
       <c r="I223" s="36" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="224" spans="1:11" ht="13">
       <c r="A224" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B224" s="26">
         <v>135</v>
       </c>
       <c r="C224" s="10"/>
       <c r="D224" s="25" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E224" s="10"/>
       <c r="F224" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G224" s="28">
         <v>1830</v>
@@ -8507,40 +8528,40 @@
     </row>
     <row r="225" spans="1:11" ht="13">
       <c r="A225" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B225" s="26">
         <v>136</v>
       </c>
       <c r="C225" s="10"/>
       <c r="D225" s="25" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E225" s="10"/>
       <c r="F225" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G225" s="28">
         <v>1830</v>
       </c>
       <c r="H225" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="226" spans="1:11" ht="13">
       <c r="A226" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B226" s="26">
         <v>137</v>
       </c>
       <c r="C226" s="10"/>
       <c r="D226" s="25" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E226" s="10"/>
       <c r="F226" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G226" s="28">
         <v>1830</v>
@@ -8548,56 +8569,56 @@
     </row>
     <row r="227" spans="1:11" ht="13">
       <c r="A227" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B227" s="26">
         <v>138</v>
       </c>
       <c r="C227" s="10"/>
       <c r="D227" s="25" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E227" s="10"/>
       <c r="F227" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G227" s="28">
         <v>1830</v>
       </c>
       <c r="H227" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="228" spans="1:11" ht="15">
       <c r="A228" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B228" s="26">
         <v>139</v>
       </c>
       <c r="C228" s="29" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D228" s="25" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E228" s="10"/>
       <c r="F228" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G228" s="28">
         <v>1830</v>
       </c>
       <c r="H228" s="47" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="K228" s="36" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="229" spans="1:11" ht="15">
       <c r="A229" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B229" s="26">
         <v>140</v>
@@ -8608,43 +8629,43 @@
       </c>
       <c r="E229" s="10"/>
       <c r="F229" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G229" s="28">
         <v>1830</v>
       </c>
       <c r="H229" s="47" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="I229" s="36" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="230" spans="1:11" ht="13">
       <c r="A230" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B230" s="26">
         <v>141</v>
       </c>
       <c r="C230" s="10"/>
       <c r="D230" s="13" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="E230" s="10"/>
       <c r="F230" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G230" s="28">
         <v>1830</v>
       </c>
       <c r="H230" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="231" spans="1:11" ht="14">
       <c r="A231" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B231" s="26">
         <v>142</v>
@@ -8655,42 +8676,45 @@
       </c>
       <c r="E231" s="10"/>
       <c r="F231" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G231" s="28">
         <v>1830</v>
       </c>
       <c r="I231" s="37" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="232" spans="1:11" ht="15">
       <c r="A232" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B232" s="26">
         <v>143</v>
       </c>
       <c r="C232" s="29" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D232" s="25" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E232" s="10"/>
       <c r="F232" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G232" s="28">
         <v>1830</v>
       </c>
+      <c r="H232" t="s">
+        <v>614</v>
+      </c>
       <c r="K232" s="36" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="233" spans="1:11" ht="15">
       <c r="A233" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B233" s="26">
         <v>144</v>
@@ -8701,51 +8725,51 @@
       </c>
       <c r="E233" s="10"/>
       <c r="F233" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G233" s="28">
         <v>1830</v>
       </c>
       <c r="I233" s="36" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="234" spans="1:11" ht="13">
       <c r="A234" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B234" s="26">
         <v>145</v>
       </c>
       <c r="C234" s="10"/>
       <c r="D234" s="25" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E234" s="10"/>
       <c r="F234" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G234" s="28">
         <v>1830</v>
       </c>
       <c r="H234" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="235" spans="1:11" ht="13">
       <c r="A235" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B235" s="26">
         <v>146</v>
       </c>
       <c r="C235" s="10"/>
       <c r="D235" s="25" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E235" s="10"/>
       <c r="F235" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G235" s="28">
         <v>1830</v>
@@ -8753,7 +8777,7 @@
     </row>
     <row r="236" spans="1:11" ht="15">
       <c r="A236" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B236" s="26">
         <v>147</v>
@@ -8764,18 +8788,18 @@
       </c>
       <c r="E236" s="10"/>
       <c r="F236" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G236" s="28">
         <v>1830</v>
       </c>
       <c r="I236" s="36" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="237" spans="1:11" ht="15">
       <c r="A237" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B237" s="26">
         <v>148</v>
@@ -8786,18 +8810,18 @@
       </c>
       <c r="E237" s="10"/>
       <c r="F237" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G237" s="28">
         <v>1830</v>
       </c>
       <c r="I237" s="36" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="238" spans="1:11" ht="13">
       <c r="A238" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B238" s="26">
         <v>149</v>
@@ -8810,7 +8834,7 @@
       </c>
       <c r="E238" s="10"/>
       <c r="F238" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G238" s="28">
         <v>1830</v>
@@ -8821,34 +8845,34 @@
     </row>
     <row r="239" spans="1:11" ht="13">
       <c r="A239" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B239" s="26">
         <v>150</v>
       </c>
       <c r="C239" s="29" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D239" s="25" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E239" s="10"/>
       <c r="F239" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G239" s="28">
         <v>1830</v>
       </c>
       <c r="H239" s="27" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="K239" s="40" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="240" spans="1:11" ht="13">
       <c r="A240" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B240" s="26">
         <v>151</v>
@@ -8861,21 +8885,21 @@
       </c>
       <c r="E240" s="10"/>
       <c r="F240" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G240" s="28">
         <v>1830</v>
       </c>
       <c r="H240" s="47" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="I240" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="241" spans="1:11" ht="15">
       <c r="A241" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B241" s="26">
         <v>152</v>
@@ -8886,7 +8910,7 @@
       </c>
       <c r="E241" s="10"/>
       <c r="F241" s="27" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G241" s="28">
         <v>1830</v>
@@ -8895,15 +8919,15 @@
         <v>84</v>
       </c>
       <c r="I241" s="36" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="K241" s="27" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="242" spans="1:11" ht="13">
       <c r="A242" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B242" s="26">
         <v>153</v>
@@ -8914,29 +8938,29 @@
       </c>
       <c r="E242" s="10"/>
       <c r="F242" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G242" s="28">
         <v>1830</v>
       </c>
       <c r="I242" s="27" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="243" spans="1:11" ht="13">
       <c r="A243" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B243" s="26">
         <v>154</v>
       </c>
       <c r="C243" s="10"/>
       <c r="D243" s="25" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E243" s="10"/>
       <c r="F243" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G243" s="28">
         <v>1830</v>
@@ -8945,18 +8969,18 @@
     </row>
     <row r="244" spans="1:11" ht="13">
       <c r="A244" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B244" s="26">
         <v>155</v>
       </c>
       <c r="C244" s="10"/>
       <c r="D244" s="25" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E244" s="10"/>
       <c r="F244" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G244" s="28">
         <v>1830</v>
@@ -8964,7 +8988,7 @@
     </row>
     <row r="245" spans="1:11" ht="15">
       <c r="A245" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B245" s="26">
         <v>156</v>
@@ -8975,18 +8999,18 @@
       </c>
       <c r="E245" s="10"/>
       <c r="F245" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G245" s="28">
         <v>1830</v>
       </c>
       <c r="I245" s="36" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="246" spans="1:11" ht="13">
       <c r="A246" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B246" s="26">
         <v>157</v>
@@ -8999,7 +9023,7 @@
       </c>
       <c r="E246" s="10"/>
       <c r="F246" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G246" s="28">
         <v>1830</v>
@@ -9010,7 +9034,7 @@
     </row>
     <row r="247" spans="1:11" ht="15">
       <c r="A247" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B247" s="26">
         <v>158</v>
@@ -9023,45 +9047,45 @@
       </c>
       <c r="E247" s="10"/>
       <c r="F247" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G247" s="28">
         <v>1830</v>
       </c>
       <c r="H247" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="I247" s="36" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="248" spans="1:11" ht="15">
       <c r="A248" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B248" s="26">
         <v>159</v>
       </c>
       <c r="C248" s="29" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D248" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E248" s="10"/>
       <c r="F248" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G248" s="28">
         <v>1830</v>
       </c>
       <c r="I248" s="36" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="249" spans="1:11" ht="15">
       <c r="A249" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B249" s="26">
         <v>160</v>
@@ -9072,18 +9096,18 @@
       </c>
       <c r="E249" s="10"/>
       <c r="F249" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G249" s="28">
         <v>1830</v>
       </c>
       <c r="I249" s="36" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="250" spans="1:11" ht="14">
       <c r="A250" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B250" s="26">
         <v>161</v>
@@ -9096,18 +9120,18 @@
       </c>
       <c r="E250" s="10"/>
       <c r="F250" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G250" s="28">
         <v>1830</v>
       </c>
       <c r="I250" s="37" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="251" spans="1:11" ht="15">
       <c r="A251" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B251" s="26">
         <v>162</v>
@@ -9118,18 +9142,18 @@
       </c>
       <c r="E251" s="10"/>
       <c r="F251" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G251" s="28">
         <v>1830</v>
       </c>
       <c r="I251" s="36" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="252" spans="1:11" ht="15">
       <c r="A252" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B252" s="26">
         <v>163</v>
@@ -9140,7 +9164,7 @@
       </c>
       <c r="E252" s="10"/>
       <c r="F252" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G252" s="28">
         <v>1830</v>
@@ -9149,15 +9173,15 @@
         <v>44</v>
       </c>
       <c r="I252" s="36" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="K252" s="27" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="253" spans="1:11" ht="15">
       <c r="A253" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B253" s="26">
         <v>164</v>
@@ -9168,18 +9192,18 @@
       </c>
       <c r="E253" s="10"/>
       <c r="F253" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G253" s="28">
         <v>1830</v>
       </c>
       <c r="I253" s="36" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="254" spans="1:11" ht="15">
       <c r="A254" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B254" s="26">
         <v>165</v>
@@ -9188,53 +9212,53 @@
         <v>46</v>
       </c>
       <c r="D254" s="25" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E254" s="10"/>
       <c r="F254" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G254" s="28">
         <v>1830</v>
       </c>
       <c r="H254" s="47" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="I254" s="27" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="K254" s="36" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="255" spans="1:11" ht="13">
       <c r="A255" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B255" s="26">
         <v>166</v>
       </c>
       <c r="C255" s="10"/>
       <c r="D255" s="25" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E255" s="10"/>
       <c r="F255" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G255" s="28">
         <v>1830</v>
       </c>
       <c r="H255" s="47" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="K255" s="27" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="256" spans="1:11" ht="15">
       <c r="A256" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B256" s="26">
         <v>167</v>
@@ -9245,21 +9269,21 @@
       </c>
       <c r="E256" s="10"/>
       <c r="F256" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G256" s="28">
         <v>1830</v>
       </c>
       <c r="H256" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="I256" s="36" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="257" spans="1:11" ht="15">
       <c r="A257" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B257" s="26">
         <v>168</v>
@@ -9270,21 +9294,21 @@
       </c>
       <c r="E257" s="10"/>
       <c r="F257" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G257" s="28">
         <v>1830</v>
       </c>
       <c r="H257" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="I257" s="36" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="258" spans="1:11" ht="15">
       <c r="A258" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B258" s="26">
         <v>169</v>
@@ -9295,18 +9319,18 @@
       </c>
       <c r="E258" s="10"/>
       <c r="F258" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G258" s="28">
         <v>1830</v>
       </c>
       <c r="I258" s="36" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="259" spans="1:11" ht="15">
       <c r="A259" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B259" s="26">
         <v>170</v>
@@ -9315,35 +9339,35 @@
         <v>97</v>
       </c>
       <c r="D259" s="25" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E259" s="10"/>
       <c r="F259" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G259" s="28">
         <v>1830</v>
       </c>
       <c r="K259" s="36" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="260" spans="1:11" ht="13">
       <c r="A260" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B260" s="26">
         <v>171</v>
       </c>
       <c r="C260" s="29" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D260" s="25" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E260" s="10"/>
       <c r="F260" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G260" s="28">
         <v>1830</v>
@@ -9354,20 +9378,20 @@
     </row>
     <row r="261" spans="1:11" ht="15">
       <c r="A261" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B261" s="26">
         <v>172</v>
       </c>
       <c r="C261" s="29" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D261" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E261" s="10"/>
       <c r="F261" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G261" s="28">
         <v>1830</v>
@@ -9376,12 +9400,12 @@
         <v>440</v>
       </c>
       <c r="I261" s="36" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="262" spans="1:11" ht="13">
       <c r="A262" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B262" s="26">
         <v>173</v>
@@ -9392,72 +9416,78 @@
       </c>
       <c r="E262" s="10"/>
       <c r="F262" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G262" s="28">
         <v>1830</v>
       </c>
       <c r="I262" s="27" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="K262" s="27" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="263" spans="1:11" ht="13">
       <c r="A263" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B263" s="26">
         <v>174</v>
       </c>
       <c r="C263" s="29" t="s">
-        <v>540</v>
-      </c>
-      <c r="D263" s="25" t="s">
-        <v>541</v>
+        <v>538</v>
+      </c>
+      <c r="D263" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="E263" s="10"/>
       <c r="F263" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G263" s="28">
         <v>1830</v>
       </c>
+      <c r="H263" s="47" t="s">
+        <v>616</v>
+      </c>
+      <c r="I263" s="47" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="264" spans="1:11" ht="13">
       <c r="A264" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B264" s="26">
         <v>175</v>
       </c>
       <c r="C264" s="29" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D264" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E264" s="10"/>
       <c r="F264" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G264" s="28">
         <v>1830</v>
       </c>
       <c r="H264" s="24" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="I264" s="24" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="K264" s="27" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="265" spans="1:11" ht="13">
       <c r="A265" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B265" s="26">
         <v>176</v>
@@ -9470,7 +9500,7 @@
         <v>54</v>
       </c>
       <c r="F265" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G265" s="28">
         <v>1830</v>
@@ -9478,7 +9508,7 @@
     </row>
     <row r="266" spans="1:11" ht="13">
       <c r="A266" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B266" s="26">
         <v>177</v>
@@ -9491,7 +9521,7 @@
       </c>
       <c r="E266" s="10"/>
       <c r="F266" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G266" s="28">
         <v>1830</v>
@@ -9499,18 +9529,18 @@
     </row>
     <row r="267" spans="1:11" ht="13">
       <c r="A267" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B267" s="26">
         <v>178</v>
       </c>
       <c r="C267" s="10"/>
       <c r="D267" s="25" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E267" s="10"/>
       <c r="F267" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G267" s="28">
         <v>1830</v>
@@ -9518,261 +9548,267 @@
     </row>
     <row r="268" spans="1:11" ht="13">
       <c r="A268" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B268" s="26">
         <v>179</v>
       </c>
       <c r="C268" s="29" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D268" s="25" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="E268" s="10"/>
       <c r="F268" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G268" s="28">
         <v>1830</v>
       </c>
       <c r="K268" s="27" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="269" spans="1:11" ht="13">
       <c r="A269" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B269" s="26">
         <v>180</v>
       </c>
       <c r="C269" s="10"/>
       <c r="D269" s="25" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="E269" s="10"/>
       <c r="F269" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G269" s="28">
         <v>1830</v>
       </c>
       <c r="H269" s="27" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="270" spans="1:11" ht="13">
       <c r="A270" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B270" s="26">
         <v>181</v>
       </c>
       <c r="C270" s="29" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D270" s="25" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="E270" s="10"/>
       <c r="F270" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G270" s="28">
         <v>1830</v>
       </c>
       <c r="K270" s="27" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="271" spans="1:11" ht="13">
       <c r="A271" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B271" s="26">
         <v>182</v>
       </c>
       <c r="C271" s="10"/>
-      <c r="D271" s="25" t="s">
-        <v>550</v>
+      <c r="D271" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="E271" s="10"/>
       <c r="F271" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G271" s="28">
         <v>1830</v>
       </c>
+      <c r="H271" s="47" t="s">
+        <v>611</v>
+      </c>
+      <c r="I271" s="47" t="s">
+        <v>610</v>
+      </c>
       <c r="K271" s="27" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="272" spans="1:11" ht="13">
       <c r="A272" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B272" s="26">
         <v>183</v>
       </c>
       <c r="C272" s="10"/>
       <c r="D272" s="25" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="E272" s="10"/>
       <c r="F272" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G272" s="28">
         <v>1830</v>
       </c>
       <c r="K272" s="27" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="273" spans="1:11" ht="13">
       <c r="A273" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B273" s="26">
         <v>184</v>
       </c>
       <c r="C273" s="10"/>
       <c r="D273" s="25" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="E273" s="10"/>
       <c r="F273" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G273" s="28">
         <v>1830</v>
       </c>
       <c r="K273" s="27" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="274" spans="1:11" ht="13">
       <c r="A274" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B274" s="26">
         <v>185</v>
       </c>
       <c r="C274" s="10"/>
       <c r="D274" s="25" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="E274" s="10"/>
       <c r="F274" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G274" s="28">
         <v>1830</v>
       </c>
       <c r="K274" s="27" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="275" spans="1:11" ht="13">
       <c r="A275" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B275" s="26">
         <v>186</v>
       </c>
       <c r="C275" s="10"/>
       <c r="D275" s="25" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="E275" s="10"/>
       <c r="F275" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G275" s="28">
         <v>1830</v>
       </c>
       <c r="K275" s="27" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="276" spans="1:11" ht="13">
       <c r="A276" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B276" s="26">
         <v>187</v>
       </c>
       <c r="C276" s="10"/>
       <c r="D276" s="25" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E276" s="10"/>
       <c r="F276" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G276" s="28">
         <v>1830</v>
       </c>
       <c r="K276" s="27" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="277" spans="1:11" ht="13">
       <c r="A277" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B277" s="26">
         <v>188</v>
       </c>
       <c r="C277" s="10"/>
       <c r="D277" s="25" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="E277" s="10"/>
       <c r="F277" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G277" s="28">
         <v>1830</v>
       </c>
       <c r="H277" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="K277" s="27" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="278" spans="1:11" ht="13">
       <c r="A278" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B278" s="26">
         <v>189</v>
       </c>
       <c r="C278" s="29" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D278" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E278" s="10"/>
       <c r="F278" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G278" s="28">
         <v>1830</v>
       </c>
       <c r="J278" s="27" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="K278" s="27" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="279" spans="1:11" ht="13">
       <c r="A279" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B279" s="26">
         <v>190</v>
@@ -9783,7 +9819,7 @@
       </c>
       <c r="E279" s="10"/>
       <c r="F279" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G279" s="28">
         <v>1830</v>
@@ -9792,10 +9828,10 @@
         <v>3678</v>
       </c>
       <c r="I279" s="27" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="K279" s="27" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="280" spans="1:11" ht="13">

--- a/LOCATION SHEETS/1820sLOCATIONS.xlsx
+++ b/LOCATION SHEETS/1820sLOCATIONS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/WR4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE760983-3787-7C47-B7CE-8247430C76E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB6E43F-3834-E948-8FF6-70D6838B173C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="460" windowWidth="28100" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="618">
   <si>
     <t>LOCATIONS IN 1820s onwards</t>
   </si>
@@ -2253,6 +2253,9 @@
   </si>
   <si>
     <t>RR497</t>
+  </si>
+  <si>
+    <t>RR283</t>
   </si>
 </sst>
 </file>
@@ -2856,8 +2859,8 @@
   <dimension ref="A1:AB1006"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I269" sqref="I269"/>
+      <pane ySplit="6" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I140" sqref="I140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -2884,7 +2887,7 @@
       </c>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:28" ht="14">
+    <row r="2" spans="1:28" ht="15">
       <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
@@ -4692,6 +4695,9 @@
       <c r="G72" s="28">
         <v>1820</v>
       </c>
+      <c r="H72" t="s">
+        <v>617</v>
+      </c>
       <c r="K72" s="27" t="s">
         <v>31</v>
       </c>
@@ -6461,6 +6467,9 @@
       </c>
       <c r="G140" s="28">
         <v>1830</v>
+      </c>
+      <c r="H140" t="s">
+        <v>617</v>
       </c>
       <c r="I140" s="36" t="s">
         <v>342</v>

--- a/LOCATION SHEETS/1820sLOCATIONS.xlsx
+++ b/LOCATION SHEETS/1820sLOCATIONS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/WR4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB6E43F-3834-E948-8FF6-70D6838B173C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C155D25C-F5D1-C748-AB8B-637B82C89EFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="460" windowWidth="28100" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -761,9 +761,6 @@
   </si>
   <si>
     <t>20</t>
-  </si>
-  <si>
-    <t>Leith</t>
   </si>
   <si>
     <t>Jan-Dec 1825</t>
@@ -1160,9 +1157,6 @@
   </si>
   <si>
     <t>1827 to end of decade</t>
-  </si>
-  <si>
-    <t>KINFAUNS, PERTH</t>
   </si>
   <si>
     <t>1820 to Oct 1825</t>
@@ -2256,6 +2250,12 @@
   </si>
   <si>
     <t>RR283</t>
+  </si>
+  <si>
+    <t>KINFAUNS MANSE</t>
+  </si>
+  <si>
+    <t>Leith (unknown)</t>
   </si>
 </sst>
 </file>
@@ -2858,9 +2858,9 @@
   </sheetPr>
   <dimension ref="A1:AB1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I140" sqref="I140"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I97" sqref="I97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -3032,7 +3032,7 @@
         <v>1820</v>
       </c>
       <c r="H8" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="K8" s="27" t="s">
         <v>23</v>
@@ -3229,7 +3229,7 @@
         <v>1820</v>
       </c>
       <c r="H16" s="47" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="I16" s="27" t="s">
         <v>37</v>
@@ -3311,7 +3311,7 @@
         <v>1820</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="J19" s="30" t="s">
         <v>48</v>
@@ -3339,7 +3339,7 @@
         <v>1820</v>
       </c>
       <c r="H20" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="K20" s="27" t="s">
         <v>50</v>
@@ -3364,7 +3364,7 @@
         <v>1820</v>
       </c>
       <c r="H21" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="K21" s="27" t="s">
         <v>52</v>
@@ -3391,7 +3391,7 @@
         <v>1820</v>
       </c>
       <c r="H22" s="24" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="K22" s="27" t="s">
         <v>55</v>
@@ -3625,7 +3625,7 @@
         <v>76</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E32" s="10"/>
       <c r="F32" s="27" t="s">
@@ -3635,7 +3635,7 @@
         <v>1820</v>
       </c>
       <c r="H32" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="K32" s="27" t="s">
         <v>77</v>
@@ -3662,10 +3662,10 @@
         <v>1820</v>
       </c>
       <c r="H33" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="I33" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="K33" s="27" t="s">
         <v>52</v>
@@ -3707,7 +3707,7 @@
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="13" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E35" s="31" t="s">
         <v>82</v>
@@ -3746,7 +3746,7 @@
         <v>1820</v>
       </c>
       <c r="H36" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="K36" s="27" t="s">
         <v>31</v>
@@ -3800,7 +3800,7 @@
         <v>1820</v>
       </c>
       <c r="H38" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="K38" s="27" t="s">
         <v>91</v>
@@ -3827,7 +3827,7 @@
         <v>1820</v>
       </c>
       <c r="H39" s="24" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="I39" s="27" t="s">
         <v>93</v>
@@ -3859,7 +3859,7 @@
         <v>1820</v>
       </c>
       <c r="H40" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="I40" s="27" t="s">
         <v>93</v>
@@ -3938,7 +3938,7 @@
         <v>1909</v>
       </c>
       <c r="I43" s="24" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="J43" s="27" t="s">
         <v>101</v>
@@ -3990,7 +3990,7 @@
         <v>1820</v>
       </c>
       <c r="I45" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="K45" s="27" t="s">
         <v>106</v>
@@ -4117,10 +4117,10 @@
         <v>1820</v>
       </c>
       <c r="H50" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="I50" s="36" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="K50" s="27" t="s">
         <v>116</v>
@@ -4145,7 +4145,7 @@
         <v>1820</v>
       </c>
       <c r="I51" s="36" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="K51" s="27" t="s">
         <v>117</v>
@@ -4172,10 +4172,10 @@
         <v>1820</v>
       </c>
       <c r="H52" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="I52" s="24" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="K52" s="27" t="s">
         <v>119</v>
@@ -4218,7 +4218,7 @@
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="13" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E54" s="10"/>
       <c r="F54" s="27" t="s">
@@ -4228,10 +4228,10 @@
         <v>1820</v>
       </c>
       <c r="H54" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="I54" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="K54" s="27" t="s">
         <v>123</v>
@@ -4281,7 +4281,7 @@
         <v>1820</v>
       </c>
       <c r="H56" s="47" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="K56" s="27" t="s">
         <v>127</v>
@@ -4306,7 +4306,7 @@
         <v>1820</v>
       </c>
       <c r="H57" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="K57" s="27" t="s">
         <v>129</v>
@@ -4461,7 +4461,7 @@
         <v>1820</v>
       </c>
       <c r="H63" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="K63" s="27" t="s">
         <v>145</v>
@@ -4488,7 +4488,7 @@
         <v>1820</v>
       </c>
       <c r="H64" s="47" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="J64" s="27" t="s">
         <v>149</v>
@@ -4518,7 +4518,7 @@
         <v>1820</v>
       </c>
       <c r="H65" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K65" s="27" t="s">
         <v>129</v>
@@ -4575,7 +4575,7 @@
         <v>1820</v>
       </c>
       <c r="H67" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="K67" s="27" t="s">
         <v>75</v>
@@ -4649,7 +4649,7 @@
         <v>1820</v>
       </c>
       <c r="H70" s="47" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="K70" s="27" t="s">
         <v>166</v>
@@ -4696,7 +4696,7 @@
         <v>1820</v>
       </c>
       <c r="H72" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="K72" s="27" t="s">
         <v>31</v>
@@ -4894,7 +4894,7 @@
         <v>187</v>
       </c>
       <c r="K80" s="24" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="13">
@@ -4978,7 +4978,7 @@
         <v>1820</v>
       </c>
       <c r="H83" s="47" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="K83" s="27" t="s">
         <v>199</v>
@@ -5238,11 +5238,11 @@
       <c r="G93" s="28">
         <v>1820</v>
       </c>
-      <c r="I93" s="27" t="s">
+      <c r="I93" s="24" t="s">
+        <v>617</v>
+      </c>
+      <c r="K93" s="27" t="s">
         <v>225</v>
-      </c>
-      <c r="K93" s="27" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="13">
@@ -5254,7 +5254,7 @@
       </c>
       <c r="C94" s="10"/>
       <c r="D94" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E94" s="10"/>
       <c r="F94" s="27" t="s">
@@ -5264,7 +5264,7 @@
         <v>1820</v>
       </c>
       <c r="K94" s="27" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="13">
@@ -5275,26 +5275,26 @@
         <v>6</v>
       </c>
       <c r="C95" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="D95" s="25" t="s">
         <v>229</v>
-      </c>
-      <c r="D95" s="25" t="s">
-        <v>230</v>
       </c>
       <c r="E95" s="10"/>
       <c r="F95" s="27" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G95" s="28">
         <v>1820</v>
       </c>
       <c r="H95" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="J95" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="K95" s="27" t="s">
         <v>232</v>
-      </c>
-      <c r="K95" s="27" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="13">
@@ -5306,11 +5306,11 @@
       </c>
       <c r="C96" s="10"/>
       <c r="D96" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E96" s="10"/>
       <c r="F96" s="27" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G96" s="28">
         <v>1820</v>
@@ -5319,10 +5319,10 @@
         <v>5004</v>
       </c>
       <c r="J96" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="K96" s="27" t="s">
         <v>236</v>
-      </c>
-      <c r="K96" s="27" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="13">
@@ -5336,7 +5336,7 @@
         <v>97</v>
       </c>
       <c r="D97" s="25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E97" s="10"/>
       <c r="F97" s="27" t="s">
@@ -5346,7 +5346,7 @@
         <v>1820</v>
       </c>
       <c r="K97" s="27" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="13">
@@ -5357,26 +5357,26 @@
         <v>9</v>
       </c>
       <c r="C98" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D98" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E98" s="10"/>
       <c r="F98" s="27" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G98" s="28">
         <v>1820</v>
       </c>
       <c r="H98" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="I98" s="27" t="s">
         <v>242</v>
       </c>
-      <c r="I98" s="27" t="s">
-        <v>243</v>
-      </c>
       <c r="K98" s="27" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="13">
@@ -5387,10 +5387,10 @@
         <v>10</v>
       </c>
       <c r="C99" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="D99" s="25" t="s">
         <v>244</v>
-      </c>
-      <c r="D99" s="25" t="s">
-        <v>245</v>
       </c>
       <c r="E99" s="10"/>
       <c r="F99" s="27" t="s">
@@ -5400,7 +5400,7 @@
         <v>1820</v>
       </c>
       <c r="K99" s="27" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="13">
@@ -5414,7 +5414,7 @@
         <v>97</v>
       </c>
       <c r="D100" s="25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E100" s="10"/>
       <c r="F100" s="27" t="s">
@@ -5424,7 +5424,7 @@
         <v>1820</v>
       </c>
       <c r="K100" s="27" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="13">
@@ -5435,26 +5435,26 @@
         <v>12</v>
       </c>
       <c r="C101" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="D101" s="25" t="s">
         <v>249</v>
-      </c>
-      <c r="D101" s="25" t="s">
-        <v>250</v>
       </c>
       <c r="E101" s="10"/>
       <c r="F101" s="27" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G101" s="28">
         <v>1820</v>
       </c>
       <c r="H101" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="J101" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="K101" s="27" t="s">
         <v>252</v>
-      </c>
-      <c r="K101" s="27" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="13">
@@ -5468,23 +5468,23 @@
         <v>97</v>
       </c>
       <c r="D102" s="25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E102" s="10"/>
       <c r="F102" s="27" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G102" s="28">
         <v>1820</v>
       </c>
       <c r="H102" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="J102" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="J102" s="33" t="s">
+      <c r="K102" s="27" t="s">
         <v>257</v>
-      </c>
-      <c r="K102" s="27" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="13">
@@ -5502,22 +5502,22 @@
       </c>
       <c r="E103" s="10"/>
       <c r="F103" s="27" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G103" s="28">
         <v>1820</v>
       </c>
       <c r="H103" s="47" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="I103" s="27" t="s">
+        <v>259</v>
+      </c>
+      <c r="J103" s="33" t="s">
         <v>260</v>
       </c>
-      <c r="J103" s="33" t="s">
+      <c r="K103" s="27" t="s">
         <v>261</v>
-      </c>
-      <c r="K103" s="27" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="13">
@@ -5528,29 +5528,29 @@
         <v>15</v>
       </c>
       <c r="C104" s="29" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D104" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E104" s="10"/>
       <c r="F104" s="27" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G104" s="28">
         <v>1820</v>
       </c>
       <c r="H104" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="I104" s="27" t="s">
         <v>265</v>
       </c>
-      <c r="I104" s="27" t="s">
+      <c r="J104" s="33" t="s">
         <v>266</v>
       </c>
-      <c r="J104" s="33" t="s">
+      <c r="K104" s="27" t="s">
         <v>267</v>
-      </c>
-      <c r="K104" s="27" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="13">
@@ -5562,11 +5562,11 @@
       </c>
       <c r="C105" s="10"/>
       <c r="D105" s="25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E105" s="10"/>
       <c r="F105" s="27" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G105" s="28">
         <v>1820</v>
@@ -5575,10 +5575,10 @@
         <v>5385</v>
       </c>
       <c r="J105" s="27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K105" s="27" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="13">
@@ -5590,11 +5590,11 @@
       </c>
       <c r="C106" s="10"/>
       <c r="D106" s="25" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E106" s="10"/>
       <c r="F106" s="27" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G106" s="28">
         <v>1820</v>
@@ -5603,7 +5603,7 @@
         <v>5415</v>
       </c>
       <c r="K106" s="27" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="107" spans="1:11" ht="13">
@@ -5614,26 +5614,26 @@
         <v>18</v>
       </c>
       <c r="C107" s="29" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D107" s="25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E107" s="10"/>
       <c r="F107" s="27" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G107" s="28">
         <v>1820</v>
       </c>
       <c r="H107" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="J107" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="K107" s="27" t="s">
         <v>276</v>
-      </c>
-      <c r="K107" s="27" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="13">
@@ -5644,14 +5644,14 @@
         <v>19</v>
       </c>
       <c r="C108" s="29" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D108" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E108" s="10"/>
       <c r="F108" s="27" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G108" s="28">
         <v>1820</v>
@@ -5660,13 +5660,13 @@
         <v>5440</v>
       </c>
       <c r="I108" s="27" t="s">
+        <v>279</v>
+      </c>
+      <c r="J108" s="33" t="s">
         <v>280</v>
       </c>
-      <c r="J108" s="33" t="s">
+      <c r="K108" s="27" t="s">
         <v>281</v>
-      </c>
-      <c r="K108" s="27" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="13">
@@ -5682,7 +5682,7 @@
       </c>
       <c r="E109" s="10"/>
       <c r="F109" s="27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G109" s="28">
         <v>1820</v>
@@ -5691,10 +5691,10 @@
         <v>5504</v>
       </c>
       <c r="I109" s="27" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K109" s="27" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="13">
@@ -5706,7 +5706,7 @@
       </c>
       <c r="C110" s="10"/>
       <c r="D110" s="25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E110" s="10"/>
       <c r="F110" s="27" t="s">
@@ -5741,10 +5741,10 @@
         <v>1820</v>
       </c>
       <c r="I111" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="K111" s="27" t="s">
         <v>286</v>
-      </c>
-      <c r="K111" s="27" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="112" spans="1:11" ht="13">
@@ -5755,10 +5755,10 @@
         <v>23</v>
       </c>
       <c r="C112" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="D112" s="25" t="s">
         <v>288</v>
-      </c>
-      <c r="D112" s="25" t="s">
-        <v>289</v>
       </c>
       <c r="E112" s="10"/>
       <c r="F112" s="27" t="s">
@@ -5768,7 +5768,7 @@
         <v>1820</v>
       </c>
       <c r="K112" s="27" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="113" spans="1:11" ht="13">
@@ -5781,8 +5781,8 @@
       <c r="C113" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="D113" s="25" t="s">
-        <v>291</v>
+      <c r="D113" s="13" t="s">
+        <v>581</v>
       </c>
       <c r="E113" s="10"/>
       <c r="F113" s="27" t="s">
@@ -5791,11 +5791,12 @@
       <c r="G113" s="28">
         <v>1820</v>
       </c>
-      <c r="H113" s="47" t="s">
-        <v>594</v>
+      <c r="H113" s="47"/>
+      <c r="I113" s="24" t="s">
+        <v>616</v>
       </c>
       <c r="K113" s="27" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="114" spans="1:11" ht="13">
@@ -5809,7 +5810,7 @@
         <v>224</v>
       </c>
       <c r="D114" s="25" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E114" s="10"/>
       <c r="F114" s="27" t="s">
@@ -5819,10 +5820,10 @@
         <v>1820</v>
       </c>
       <c r="H114" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="K114" s="27" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="13">
@@ -5844,10 +5845,10 @@
         <v>1820</v>
       </c>
       <c r="H115" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="I115" s="27" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K115" s="27" t="s">
         <v>75</v>
@@ -5877,10 +5878,10 @@
         <v>5643</v>
       </c>
       <c r="I116" s="27" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K116" s="27" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="13">
@@ -5892,20 +5893,20 @@
       </c>
       <c r="C117" s="10"/>
       <c r="D117" s="25" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E117" s="10"/>
       <c r="F117" s="27" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G117" s="28">
         <v>1820</v>
       </c>
       <c r="H117" s="27" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K117" s="27" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="118" spans="1:11" ht="13">
@@ -5921,7 +5922,7 @@
       </c>
       <c r="E118" s="10"/>
       <c r="F118" s="27" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G118" s="28">
         <v>1820</v>
@@ -5930,10 +5931,10 @@
         <v>5660</v>
       </c>
       <c r="I118" s="27" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K118" s="35" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="13">
@@ -5945,7 +5946,7 @@
       </c>
       <c r="C119" s="10"/>
       <c r="D119" s="25" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E119" s="10"/>
       <c r="F119" s="27" t="s">
@@ -5955,7 +5956,7 @@
         <v>1820</v>
       </c>
       <c r="K119" s="27" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="13">
@@ -5967,7 +5968,7 @@
       </c>
       <c r="C120" s="10"/>
       <c r="D120" s="25" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E120" s="10"/>
       <c r="F120" s="27" t="s">
@@ -5977,7 +5978,7 @@
         <v>1820</v>
       </c>
       <c r="H120" s="27" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K120" s="27" t="s">
         <v>31</v>
@@ -5992,10 +5993,10 @@
       </c>
       <c r="C121" s="10"/>
       <c r="D121" s="25" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E121" s="31" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F121" s="27" t="s">
         <v>20</v>
@@ -6007,7 +6008,7 @@
         <v>5804</v>
       </c>
       <c r="K121" s="27" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="122" spans="1:11" ht="13">
@@ -6019,7 +6020,7 @@
       </c>
       <c r="C122" s="10"/>
       <c r="D122" s="25" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E122" s="10"/>
       <c r="F122" s="27" t="s">
@@ -6044,7 +6045,7 @@
       </c>
       <c r="C123" s="10"/>
       <c r="D123" s="25" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E123" s="10"/>
       <c r="F123" s="27" t="s">
@@ -6057,7 +6058,7 @@
         <v>5828</v>
       </c>
       <c r="K123" s="27" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="124" spans="1:11" ht="13">
@@ -6069,7 +6070,7 @@
       </c>
       <c r="C124" s="10"/>
       <c r="D124" s="25" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E124" s="10"/>
       <c r="F124" s="27" t="s">
@@ -6079,10 +6080,10 @@
         <v>1820</v>
       </c>
       <c r="H124" s="27" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K124" s="27" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="13">
@@ -6104,10 +6105,10 @@
         <v>1820</v>
       </c>
       <c r="H125" s="27" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I125" s="27" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K125" s="27" t="s">
         <v>129</v>
@@ -6132,10 +6133,10 @@
         <v>1820</v>
       </c>
       <c r="I126" s="27" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K126" s="27" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="127" spans="1:11" ht="13">
@@ -6169,7 +6170,7 @@
       </c>
       <c r="C128" s="10"/>
       <c r="D128" s="25" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E128" s="10"/>
       <c r="F128" s="27" t="s">
@@ -6179,7 +6180,7 @@
         <v>1830</v>
       </c>
       <c r="H128" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="K128" s="27" t="s">
         <v>31</v>
@@ -6204,7 +6205,7 @@
         <v>1830</v>
       </c>
       <c r="K129" s="27" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="130" spans="1:11" ht="15">
@@ -6220,16 +6221,16 @@
       </c>
       <c r="E130" s="10"/>
       <c r="F130" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G130" s="28">
         <v>1830</v>
       </c>
       <c r="I130" s="36" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K130" s="36" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="131" spans="1:11" ht="13">
@@ -6266,7 +6267,7 @@
       </c>
       <c r="C132" s="10"/>
       <c r="D132" s="25" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E132" s="10"/>
       <c r="F132" s="27" t="s">
@@ -6276,7 +6277,7 @@
         <v>1830</v>
       </c>
       <c r="K132" s="27" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="133" spans="1:11" ht="13">
@@ -6288,7 +6289,7 @@
       </c>
       <c r="C133" s="10"/>
       <c r="D133" s="25" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E133" s="10"/>
       <c r="F133" s="27" t="s">
@@ -6298,7 +6299,7 @@
         <v>1830</v>
       </c>
       <c r="K133" s="27" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="134" spans="1:11" ht="13">
@@ -6314,19 +6315,19 @@
       </c>
       <c r="E134" s="10"/>
       <c r="F134" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G134" s="28">
         <v>1830</v>
       </c>
       <c r="I134" s="27" t="s">
+        <v>328</v>
+      </c>
+      <c r="J134" s="27" t="s">
+        <v>329</v>
+      </c>
+      <c r="K134" s="27" t="s">
         <v>330</v>
-      </c>
-      <c r="J134" s="27" t="s">
-        <v>331</v>
-      </c>
-      <c r="K134" s="27" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="135" spans="1:11" ht="13">
@@ -6338,20 +6339,20 @@
       </c>
       <c r="C135" s="10"/>
       <c r="D135" s="25" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E135" s="10"/>
       <c r="F135" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G135" s="28">
         <v>1830</v>
       </c>
       <c r="J135" s="27" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K135" s="27" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="136" spans="1:11" ht="13">
@@ -6362,20 +6363,20 @@
         <v>47</v>
       </c>
       <c r="C136" s="29" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D136" s="25" t="s">
         <v>161</v>
       </c>
       <c r="E136" s="10"/>
       <c r="F136" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G136" s="28">
         <v>1830</v>
       </c>
       <c r="K136" s="27" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="137" spans="1:11" ht="15">
@@ -6393,7 +6394,7 @@
       </c>
       <c r="E137" s="10"/>
       <c r="F137" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G137" s="28">
         <v>1830</v>
@@ -6403,7 +6404,7 @@
       </c>
       <c r="J137" s="27"/>
       <c r="K137" s="35" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="138" spans="1:11" ht="13">
@@ -6415,17 +6416,17 @@
       </c>
       <c r="C138" s="10"/>
       <c r="D138" s="25" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E138" s="10"/>
       <c r="F138" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G138" s="28">
         <v>1830</v>
       </c>
       <c r="K138" s="27" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="139" spans="1:11" ht="13">
@@ -6437,17 +6438,17 @@
       </c>
       <c r="C139" s="10"/>
       <c r="D139" s="25" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E139" s="10"/>
       <c r="F139" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G139" s="28">
         <v>1830</v>
       </c>
       <c r="K139" s="27" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="140" spans="1:11" ht="15">
@@ -6463,19 +6464,19 @@
       </c>
       <c r="E140" s="10"/>
       <c r="F140" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G140" s="28">
         <v>1830</v>
       </c>
       <c r="H140" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="I140" s="36" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K140" s="27" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="141" spans="1:11" ht="13">
@@ -6489,19 +6490,19 @@
         <v>97</v>
       </c>
       <c r="D141" s="25" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E141" s="31" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F141" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G141" s="28">
         <v>1830</v>
       </c>
       <c r="K141" s="27" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="142" spans="1:11" ht="13">
@@ -6515,20 +6516,20 @@
         <v>39</v>
       </c>
       <c r="D142" s="25" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E142" s="10"/>
       <c r="F142" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G142" s="28">
         <v>1830</v>
       </c>
       <c r="H142" s="27" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="K142" s="27" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="143" spans="1:11" ht="15">
@@ -6539,26 +6540,26 @@
         <v>54</v>
       </c>
       <c r="C143" s="29" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D143" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E143" s="10"/>
       <c r="F143" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G143" s="28">
         <v>1830</v>
       </c>
       <c r="H143" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="I143" s="36" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="K143" s="27" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="144" spans="1:11" ht="13">
@@ -6569,20 +6570,20 @@
         <v>55</v>
       </c>
       <c r="C144" s="29" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D144" s="25" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E144" s="10"/>
       <c r="F144" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G144" s="28">
         <v>1830</v>
       </c>
       <c r="K144" s="27" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="145" spans="1:11" ht="15">
@@ -6593,14 +6594,14 @@
         <v>56</v>
       </c>
       <c r="C145" s="29" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D145" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E145" s="10"/>
       <c r="F145" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G145" s="28">
         <v>1830</v>
@@ -6609,7 +6610,7 @@
         <v>3559</v>
       </c>
       <c r="I145" s="36" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K145" s="27"/>
     </row>
@@ -6626,16 +6627,16 @@
       </c>
       <c r="E146" s="10"/>
       <c r="F146" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G146" s="28">
         <v>1830</v>
       </c>
       <c r="H146" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="K146" s="27" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="147" spans="1:11" ht="13">
@@ -6647,17 +6648,17 @@
       </c>
       <c r="C147" s="10"/>
       <c r="D147" s="25" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E147" s="10"/>
       <c r="F147" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G147" s="28">
         <v>1830</v>
       </c>
       <c r="K147" s="27" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="148" spans="1:11" ht="13">
@@ -6669,17 +6670,17 @@
       </c>
       <c r="C148" s="10"/>
       <c r="D148" s="25" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E148" s="10"/>
       <c r="F148" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G148" s="28">
         <v>1830</v>
       </c>
       <c r="K148" s="27" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="149" spans="1:11" ht="13">
@@ -6693,20 +6694,20 @@
         <v>158</v>
       </c>
       <c r="D149" s="25" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E149" s="10"/>
       <c r="F149" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G149" s="28">
         <v>1830</v>
       </c>
       <c r="H149" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="K149" s="27" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="150" spans="1:11" ht="15">
@@ -6724,19 +6725,19 @@
       </c>
       <c r="E150" s="10"/>
       <c r="F150" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G150" s="28">
         <v>1830</v>
       </c>
       <c r="I150" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="J150" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="K150" s="27" t="s">
         <v>364</v>
-      </c>
-      <c r="J150" s="27" t="s">
-        <v>365</v>
-      </c>
-      <c r="K150" s="27" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="151" spans="1:11" ht="13">
@@ -6748,17 +6749,17 @@
       </c>
       <c r="C151" s="10"/>
       <c r="D151" s="25" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E151" s="10"/>
       <c r="F151" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G151" s="28">
         <v>1830</v>
       </c>
       <c r="K151" s="27" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="152" spans="1:11" ht="13">
@@ -6770,11 +6771,11 @@
       </c>
       <c r="C152" s="10"/>
       <c r="D152" s="25" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E152" s="10"/>
       <c r="F152" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G152" s="28">
         <v>1830</v>
@@ -6783,7 +6784,7 @@
         <v>3176</v>
       </c>
       <c r="K152" s="27" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="153" spans="1:11" ht="13">
@@ -6795,11 +6796,11 @@
       </c>
       <c r="C153" s="10"/>
       <c r="D153" s="25" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E153" s="10"/>
       <c r="F153" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G153" s="28">
         <v>1830</v>
@@ -6808,7 +6809,7 @@
         <v>3112</v>
       </c>
       <c r="K153" s="27" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="154" spans="1:11" ht="13">
@@ -6824,13 +6825,13 @@
       </c>
       <c r="E154" s="10"/>
       <c r="F154" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G154" s="28">
         <v>1830</v>
       </c>
       <c r="K154" s="27" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="155" spans="1:11" ht="14">
@@ -6848,7 +6849,7 @@
       </c>
       <c r="E155" s="10"/>
       <c r="F155" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G155" s="28">
         <v>1830</v>
@@ -6857,7 +6858,7 @@
         <v>155</v>
       </c>
       <c r="K155" s="37" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="156" spans="1:11" ht="15">
@@ -6871,11 +6872,11 @@
         <v>97</v>
       </c>
       <c r="D156" s="25" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E156" s="10"/>
       <c r="F156" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G156" s="28">
         <v>1830</v>
@@ -6884,7 +6885,7 @@
         <v>112</v>
       </c>
       <c r="K156" s="27" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="157" spans="1:11" ht="15">
@@ -6902,19 +6903,19 @@
       </c>
       <c r="E157" s="10"/>
       <c r="F157" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G157" s="28">
         <v>1830</v>
       </c>
       <c r="H157" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="I157" s="36" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="K157" s="27" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="158" spans="1:11" ht="15">
@@ -6932,7 +6933,7 @@
       </c>
       <c r="E158" s="10"/>
       <c r="F158" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G158" s="28">
         <v>1830</v>
@@ -6941,10 +6942,10 @@
         <v>2529</v>
       </c>
       <c r="I158" s="36" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="K158" s="30" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="159" spans="1:11" ht="13">
@@ -6958,23 +6959,23 @@
         <v>118</v>
       </c>
       <c r="D159" s="13" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E159" s="10"/>
       <c r="F159" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G159" s="28">
         <v>1830</v>
       </c>
       <c r="H159" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="I159" s="47" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="K159" s="30" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="160" spans="1:11" ht="13">
@@ -6986,11 +6987,11 @@
       </c>
       <c r="C160" s="10"/>
       <c r="D160" s="25" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E160" s="10"/>
       <c r="F160" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G160" s="28">
         <v>1830</v>
@@ -7009,16 +7010,16 @@
       </c>
       <c r="E161" s="10"/>
       <c r="F161" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G161" s="28">
         <v>1830</v>
       </c>
       <c r="I161" s="36" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="K161" s="27" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="162" spans="1:11" ht="13">
@@ -7029,14 +7030,14 @@
         <v>73</v>
       </c>
       <c r="C162" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D162" s="25" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E162" s="10"/>
       <c r="F162" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G162" s="28">
         <v>1830</v>
@@ -7045,7 +7046,7 @@
         <v>2630</v>
       </c>
       <c r="K162" s="27" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="163" spans="1:11" ht="13">
@@ -7057,17 +7058,17 @@
       </c>
       <c r="C163" s="10"/>
       <c r="D163" s="25" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E163" s="10"/>
       <c r="F163" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G163" s="28">
         <v>1830</v>
       </c>
       <c r="K163" s="27" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="164" spans="1:11" ht="15">
@@ -7078,23 +7079,23 @@
         <v>75</v>
       </c>
       <c r="C164" s="29" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D164" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E164" s="10"/>
       <c r="F164" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G164" s="28">
         <v>1830</v>
       </c>
       <c r="I164" s="36" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K164" s="36" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="165" spans="1:11" ht="13">
@@ -7106,17 +7107,17 @@
       </c>
       <c r="C165" s="10"/>
       <c r="D165" s="25" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E165" s="10"/>
       <c r="F165" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G165" s="28">
         <v>1830</v>
       </c>
       <c r="K165" s="27" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="166" spans="1:11" ht="13">
@@ -7127,20 +7128,20 @@
         <v>77</v>
       </c>
       <c r="C166" s="29" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D166" s="25" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E166" s="10"/>
       <c r="F166" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G166" s="28">
         <v>1830</v>
       </c>
       <c r="K166" s="27" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="167" spans="1:11" ht="13">
@@ -7151,23 +7152,23 @@
         <v>78</v>
       </c>
       <c r="C167" s="29" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D167" s="13" t="s">
         <v>27</v>
       </c>
       <c r="E167" s="10"/>
       <c r="F167" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G167" s="28">
         <v>1830</v>
       </c>
       <c r="I167" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="K167" s="27" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="168" spans="1:11" ht="13">
@@ -7183,16 +7184,16 @@
       </c>
       <c r="E168" s="10"/>
       <c r="F168" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G168" s="28">
         <v>1830</v>
       </c>
       <c r="I168" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="K168" s="27" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="169" spans="1:11" ht="15">
@@ -7210,17 +7211,17 @@
       </c>
       <c r="E169" s="10"/>
       <c r="F169" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G169" s="28">
         <v>1830</v>
       </c>
       <c r="I169" s="36" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="J169" s="39"/>
       <c r="K169" s="37" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="170" spans="1:11" ht="14">
@@ -7238,13 +7239,13 @@
       </c>
       <c r="E170" s="10"/>
       <c r="F170" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G170" s="28">
         <v>1830</v>
       </c>
       <c r="K170" s="37" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="171" spans="1:11" ht="13">
@@ -7255,20 +7256,20 @@
         <v>82</v>
       </c>
       <c r="C171" s="29" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D171" s="25" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E171" s="10"/>
       <c r="F171" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G171" s="28">
         <v>1830</v>
       </c>
       <c r="K171" s="27" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="172" spans="1:11" ht="13">
@@ -7280,17 +7281,17 @@
       </c>
       <c r="C172" s="10"/>
       <c r="D172" s="25" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E172" s="10"/>
       <c r="F172" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G172" s="28">
         <v>1830</v>
       </c>
       <c r="K172" s="27" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="173" spans="1:11" ht="15">
@@ -7306,7 +7307,7 @@
       </c>
       <c r="E173" s="10"/>
       <c r="F173" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G173" s="28">
         <v>1830</v>
@@ -7318,7 +7319,7 @@
         <v>185</v>
       </c>
       <c r="K173" s="27" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="174" spans="1:11" ht="13">
@@ -7330,20 +7331,20 @@
       </c>
       <c r="C174" s="10"/>
       <c r="D174" s="25" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E174" s="10"/>
       <c r="F174" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G174" s="28">
         <v>1830</v>
       </c>
       <c r="H174" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="K174" s="27" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="175" spans="1:11" ht="14">
@@ -7359,19 +7360,19 @@
       </c>
       <c r="E175" s="10"/>
       <c r="F175" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G175" s="28">
         <v>1830</v>
       </c>
       <c r="I175" s="37" t="s">
+        <v>401</v>
+      </c>
+      <c r="J175" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="K175" s="27" t="s">
         <v>403</v>
-      </c>
-      <c r="J175" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="K175" s="27" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="176" spans="1:11" ht="15">
@@ -7387,13 +7388,13 @@
       </c>
       <c r="E176" s="10"/>
       <c r="F176" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G176" s="28">
         <v>1830</v>
       </c>
       <c r="I176" s="36" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="177" spans="1:11" ht="15">
@@ -7409,13 +7410,13 @@
       </c>
       <c r="E177" s="10"/>
       <c r="F177" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G177" s="28">
         <v>1830</v>
       </c>
       <c r="I177" s="36" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="178" spans="1:11" ht="15">
@@ -7431,13 +7432,13 @@
       </c>
       <c r="E178" s="10"/>
       <c r="F178" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G178" s="28">
         <v>1830</v>
       </c>
       <c r="I178" s="36" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="179" spans="1:11" ht="13">
@@ -7449,11 +7450,11 @@
       </c>
       <c r="C179" s="10"/>
       <c r="D179" s="25" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E179" s="10"/>
       <c r="F179" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G179" s="28">
         <v>1830</v>
@@ -7468,17 +7469,17 @@
       </c>
       <c r="C180" s="10"/>
       <c r="D180" s="25" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E180" s="10"/>
       <c r="F180" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G180" s="28">
         <v>1830</v>
       </c>
       <c r="K180" s="27" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="181" spans="1:11" ht="13">
@@ -7496,16 +7497,16 @@
       </c>
       <c r="E181" s="10"/>
       <c r="F181" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G181" s="28">
         <v>1830</v>
       </c>
       <c r="H181" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="K181" s="27" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="182" spans="1:11" ht="14">
@@ -7523,14 +7524,14 @@
       </c>
       <c r="E182" s="10"/>
       <c r="F182" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G182" s="28">
         <v>1830</v>
       </c>
       <c r="H182" s="40"/>
       <c r="K182" s="37" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="183" spans="1:11" ht="15">
@@ -7546,19 +7547,19 @@
       </c>
       <c r="E183" s="10"/>
       <c r="F183" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G183" s="28">
         <v>1830</v>
       </c>
       <c r="H183" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="I183" s="36" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="K183" s="27" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="184" spans="1:11" ht="13">
@@ -7569,20 +7570,20 @@
         <v>95</v>
       </c>
       <c r="C184" s="29" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D184" s="25" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E184" s="10"/>
       <c r="F184" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G184" s="28">
         <v>1830</v>
       </c>
       <c r="K184" s="27" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="185" spans="1:11" ht="13">
@@ -7596,17 +7597,17 @@
         <v>146</v>
       </c>
       <c r="D185" s="25" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E185" s="10"/>
       <c r="F185" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G185" s="28">
         <v>1830</v>
       </c>
       <c r="K185" s="27" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="186" spans="1:11" ht="13">
@@ -7617,20 +7618,20 @@
         <v>97</v>
       </c>
       <c r="C186" s="29" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D186" s="25" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E186" s="10"/>
       <c r="F186" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G186" s="28">
         <v>1830</v>
       </c>
       <c r="K186" s="27" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="187" spans="1:11" ht="15">
@@ -7641,23 +7642,23 @@
         <v>98</v>
       </c>
       <c r="C187" s="29" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D187" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E187" s="10"/>
       <c r="F187" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G187" s="28">
         <v>1830</v>
       </c>
       <c r="I187" s="36" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="K187" s="27" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="188" spans="1:11" ht="13">
@@ -7668,23 +7669,23 @@
         <v>99</v>
       </c>
       <c r="C188" s="29" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D188" s="25" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E188" s="10"/>
       <c r="F188" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G188" s="28">
         <v>1830</v>
       </c>
       <c r="J188" s="27" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="K188" s="27" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="189" spans="1:11" ht="13">
@@ -7695,14 +7696,14 @@
         <v>100</v>
       </c>
       <c r="C189" s="29" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D189" s="25" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E189" s="10"/>
       <c r="F189" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G189" s="28">
         <v>1830</v>
@@ -7723,20 +7724,20 @@
       </c>
       <c r="E190" s="10"/>
       <c r="F190" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G190" s="28">
         <v>1830</v>
       </c>
       <c r="H190" s="41"/>
       <c r="I190" s="36" t="s">
+        <v>427</v>
+      </c>
+      <c r="J190" s="27" t="s">
+        <v>428</v>
+      </c>
+      <c r="K190" s="42" t="s">
         <v>429</v>
-      </c>
-      <c r="J190" s="27" t="s">
-        <v>430</v>
-      </c>
-      <c r="K190" s="42" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="191" spans="1:11" ht="13">
@@ -7748,17 +7749,17 @@
       </c>
       <c r="C191" s="10"/>
       <c r="D191" s="25" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E191" s="10"/>
       <c r="F191" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G191" s="28">
         <v>1830</v>
       </c>
       <c r="K191" s="27" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="192" spans="1:11" ht="13">
@@ -7774,16 +7775,16 @@
       </c>
       <c r="E192" s="10"/>
       <c r="F192" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G192" s="28">
         <v>1830</v>
       </c>
       <c r="I192" s="27" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="K192" s="27" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="193" spans="1:11" ht="13">
@@ -7797,11 +7798,11 @@
         <v>97</v>
       </c>
       <c r="D193" s="25" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E193" s="10"/>
       <c r="F193" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G193" s="28">
         <v>1830</v>
@@ -7818,20 +7819,20 @@
         <v>146</v>
       </c>
       <c r="D194" s="25" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E194" s="10"/>
       <c r="F194" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G194" s="28">
         <v>1830</v>
       </c>
       <c r="H194" s="47" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="K194" s="27" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="195" spans="1:11" ht="13">
@@ -7842,20 +7843,20 @@
         <v>106</v>
       </c>
       <c r="C195" s="29" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D195" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E195" s="10"/>
       <c r="F195" s="27" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G195" s="28">
         <v>1830</v>
       </c>
       <c r="I195" s="27" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="196" spans="1:11" ht="13">
@@ -7866,14 +7867,14 @@
         <v>107</v>
       </c>
       <c r="C196" s="29" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D196" s="25" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E196" s="10"/>
       <c r="F196" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G196" s="28">
         <v>1830</v>
@@ -7887,14 +7888,14 @@
         <v>108</v>
       </c>
       <c r="C197" s="29" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D197" s="25" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E197" s="10"/>
       <c r="F197" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G197" s="28">
         <v>1830</v>
@@ -7909,11 +7910,11 @@
       </c>
       <c r="C198" s="10"/>
       <c r="D198" s="25" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E198" s="10"/>
       <c r="F198" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G198" s="28">
         <v>1830</v>
@@ -7927,14 +7928,14 @@
         <v>110</v>
       </c>
       <c r="C199" s="29" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D199" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E199" s="10"/>
       <c r="F199" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G199" s="28">
         <v>1830</v>
@@ -7944,7 +7945,7 @@
         <v>98</v>
       </c>
       <c r="K199" s="37" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="200" spans="1:11" ht="13">
@@ -7955,14 +7956,14 @@
         <v>111</v>
       </c>
       <c r="C200" s="29" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D200" s="13" t="s">
         <v>27</v>
       </c>
       <c r="E200" s="10"/>
       <c r="F200" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G200" s="28">
         <v>1830</v>
@@ -7971,10 +7972,10 @@
         <v>1909</v>
       </c>
       <c r="I200" s="47" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="K200" s="27" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="201" spans="1:11" ht="13">
@@ -7985,23 +7986,23 @@
         <v>112</v>
       </c>
       <c r="C201" s="29" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D201" s="25" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E201" s="10"/>
       <c r="F201" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G201" s="28">
         <v>1830</v>
       </c>
       <c r="H201" s="47" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="K201" s="27" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="202" spans="1:11" ht="15">
@@ -8012,26 +8013,26 @@
         <v>113</v>
       </c>
       <c r="C202" s="29" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D202" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E202" s="10"/>
       <c r="F202" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G202" s="28">
         <v>1830</v>
       </c>
       <c r="H202" s="27" t="s">
+        <v>450</v>
+      </c>
+      <c r="I202" s="27" t="s">
+        <v>451</v>
+      </c>
+      <c r="K202" s="36" t="s">
         <v>452</v>
-      </c>
-      <c r="I202" s="27" t="s">
-        <v>453</v>
-      </c>
-      <c r="K202" s="36" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="203" spans="1:11" ht="13">
@@ -8043,11 +8044,11 @@
       </c>
       <c r="C203" s="10"/>
       <c r="D203" s="25" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E203" s="10"/>
       <c r="F203" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G203" s="28">
         <v>1830</v>
@@ -8061,26 +8062,26 @@
         <v>115</v>
       </c>
       <c r="C204" s="29" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D204" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E204" s="10"/>
       <c r="F204" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G204" s="28">
         <v>1830</v>
       </c>
       <c r="I204" s="36" t="s">
+        <v>455</v>
+      </c>
+      <c r="J204" s="27" t="s">
+        <v>456</v>
+      </c>
+      <c r="K204" s="27" t="s">
         <v>457</v>
-      </c>
-      <c r="J204" s="27" t="s">
-        <v>458</v>
-      </c>
-      <c r="K204" s="27" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="205" spans="1:11" ht="13">
@@ -8092,17 +8093,17 @@
       </c>
       <c r="C205" s="10"/>
       <c r="D205" s="25" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E205" s="10"/>
       <c r="F205" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G205" s="28">
         <v>1830</v>
       </c>
       <c r="K205" s="27" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="206" spans="1:11" ht="15">
@@ -8114,11 +8115,11 @@
       </c>
       <c r="C206" s="10"/>
       <c r="D206" s="25" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E206" s="10"/>
       <c r="F206" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G206" s="28">
         <v>1830</v>
@@ -8136,11 +8137,11 @@
       </c>
       <c r="C207" s="10"/>
       <c r="D207" s="25" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E207" s="10"/>
       <c r="F207" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G207" s="28">
         <v>1830</v>
@@ -8157,23 +8158,23 @@
         <v>119</v>
       </c>
       <c r="C208" s="29" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D208" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E208" s="10"/>
       <c r="F208" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G208" s="28">
         <v>1830</v>
       </c>
       <c r="I208" s="27" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="K208" s="30" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="209" spans="1:11" ht="15">
@@ -8184,21 +8185,21 @@
         <v>120</v>
       </c>
       <c r="C209" s="29" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D209" s="25" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E209" s="10"/>
       <c r="F209" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G209" s="28">
         <v>1830</v>
       </c>
       <c r="H209" s="44"/>
       <c r="K209" s="37" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="210" spans="1:11" ht="13">
@@ -8214,16 +8215,16 @@
       </c>
       <c r="E210" s="10"/>
       <c r="F210" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G210" s="28">
         <v>1830</v>
       </c>
       <c r="H210" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="I210" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="211" spans="1:11" ht="13">
@@ -8234,20 +8235,20 @@
         <v>122</v>
       </c>
       <c r="C211" s="29" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D211" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E211" s="10"/>
       <c r="F211" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G211" s="28">
         <v>1830</v>
       </c>
       <c r="I211" s="27" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="212" spans="1:11" ht="13">
@@ -8258,14 +8259,14 @@
         <v>123</v>
       </c>
       <c r="C212" s="29" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D212" s="25" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E212" s="10"/>
       <c r="F212" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G212" s="28">
         <v>1830</v>
@@ -8279,20 +8280,20 @@
         <v>124</v>
       </c>
       <c r="C213" s="29" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D213" s="25" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E213" s="10"/>
       <c r="F213" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G213" s="28">
         <v>1830</v>
       </c>
       <c r="H213" s="27" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="214" spans="1:11" ht="13">
@@ -8306,11 +8307,11 @@
         <v>97</v>
       </c>
       <c r="D214" s="25" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E214" s="10"/>
       <c r="F214" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G214" s="28">
         <v>1830</v>
@@ -8325,11 +8326,11 @@
       </c>
       <c r="C215" s="10"/>
       <c r="D215" s="25" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E215" s="10"/>
       <c r="F215" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G215" s="28">
         <v>1830</v>
@@ -8344,11 +8345,11 @@
       </c>
       <c r="C216" s="10"/>
       <c r="D216" s="25" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E216" s="10"/>
       <c r="F216" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G216" s="28">
         <v>1830</v>
@@ -8363,11 +8364,11 @@
       </c>
       <c r="C217" s="10"/>
       <c r="D217" s="25" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E217" s="10"/>
       <c r="F217" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G217" s="28">
         <v>1830</v>
@@ -8386,16 +8387,16 @@
       </c>
       <c r="E218" s="10"/>
       <c r="F218" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G218" s="28">
         <v>1830</v>
       </c>
       <c r="H218" s="27" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="I218" s="36" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="219" spans="1:11" ht="13">
@@ -8411,13 +8412,13 @@
       </c>
       <c r="E219" s="10"/>
       <c r="F219" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G219" s="28">
         <v>1830</v>
       </c>
       <c r="I219" s="27" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="220" spans="1:11" ht="13">
@@ -8433,13 +8434,13 @@
       </c>
       <c r="E220" s="10"/>
       <c r="F220" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G220" s="28">
         <v>1830</v>
       </c>
       <c r="I220" s="27" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="221" spans="1:11" ht="13">
@@ -8451,17 +8452,17 @@
       </c>
       <c r="C221" s="10"/>
       <c r="D221" s="25" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E221" s="10"/>
       <c r="F221" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G221" s="28">
         <v>1830</v>
       </c>
       <c r="H221" s="47" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="222" spans="1:11" ht="15">
@@ -8472,14 +8473,14 @@
         <v>133</v>
       </c>
       <c r="C222" s="29" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D222" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E222" s="10"/>
       <c r="F222" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G222" s="28">
         <v>1830</v>
@@ -8488,10 +8489,10 @@
         <v>1052</v>
       </c>
       <c r="I222" s="36" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="K222" s="36" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="223" spans="1:11" ht="15">
@@ -8507,13 +8508,13 @@
       </c>
       <c r="E223" s="10"/>
       <c r="F223" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G223" s="28">
         <v>1830</v>
       </c>
       <c r="I223" s="36" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="224" spans="1:11" ht="13">
@@ -8525,11 +8526,11 @@
       </c>
       <c r="C224" s="10"/>
       <c r="D224" s="25" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E224" s="10"/>
       <c r="F224" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G224" s="28">
         <v>1830</v>
@@ -8544,17 +8545,17 @@
       </c>
       <c r="C225" s="10"/>
       <c r="D225" s="25" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E225" s="10"/>
       <c r="F225" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G225" s="28">
         <v>1830</v>
       </c>
       <c r="H225" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="226" spans="1:11" ht="13">
@@ -8566,11 +8567,11 @@
       </c>
       <c r="C226" s="10"/>
       <c r="D226" s="25" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E226" s="10"/>
       <c r="F226" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G226" s="28">
         <v>1830</v>
@@ -8585,17 +8586,17 @@
       </c>
       <c r="C227" s="10"/>
       <c r="D227" s="25" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E227" s="10"/>
       <c r="F227" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G227" s="28">
         <v>1830</v>
       </c>
       <c r="H227" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="228" spans="1:11" ht="15">
@@ -8606,23 +8607,23 @@
         <v>139</v>
       </c>
       <c r="C228" s="29" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D228" s="25" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E228" s="10"/>
       <c r="F228" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G228" s="28">
         <v>1830</v>
       </c>
       <c r="H228" s="47" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="K228" s="36" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="229" spans="1:11" ht="15">
@@ -8638,16 +8639,16 @@
       </c>
       <c r="E229" s="10"/>
       <c r="F229" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G229" s="28">
         <v>1830</v>
       </c>
       <c r="H229" s="47" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="I229" s="36" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="230" spans="1:11" ht="13">
@@ -8659,17 +8660,17 @@
       </c>
       <c r="C230" s="10"/>
       <c r="D230" s="13" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E230" s="10"/>
       <c r="F230" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G230" s="28">
         <v>1830</v>
       </c>
       <c r="H230" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="231" spans="1:11" ht="14">
@@ -8685,13 +8686,13 @@
       </c>
       <c r="E231" s="10"/>
       <c r="F231" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G231" s="28">
         <v>1830</v>
       </c>
       <c r="I231" s="37" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="232" spans="1:11" ht="15">
@@ -8702,23 +8703,23 @@
         <v>143</v>
       </c>
       <c r="C232" s="29" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D232" s="25" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E232" s="10"/>
       <c r="F232" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G232" s="28">
         <v>1830</v>
       </c>
       <c r="H232" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="K232" s="36" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="233" spans="1:11" ht="15">
@@ -8734,13 +8735,13 @@
       </c>
       <c r="E233" s="10"/>
       <c r="F233" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G233" s="28">
         <v>1830</v>
       </c>
       <c r="I233" s="36" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="234" spans="1:11" ht="13">
@@ -8752,17 +8753,17 @@
       </c>
       <c r="C234" s="10"/>
       <c r="D234" s="25" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E234" s="10"/>
       <c r="F234" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G234" s="28">
         <v>1830</v>
       </c>
       <c r="H234" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="235" spans="1:11" ht="13">
@@ -8774,11 +8775,11 @@
       </c>
       <c r="C235" s="10"/>
       <c r="D235" s="25" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E235" s="10"/>
       <c r="F235" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G235" s="28">
         <v>1830</v>
@@ -8797,13 +8798,13 @@
       </c>
       <c r="E236" s="10"/>
       <c r="F236" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G236" s="28">
         <v>1830</v>
       </c>
       <c r="I236" s="36" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="237" spans="1:11" ht="15">
@@ -8819,13 +8820,13 @@
       </c>
       <c r="E237" s="10"/>
       <c r="F237" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G237" s="28">
         <v>1830</v>
       </c>
       <c r="I237" s="36" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="238" spans="1:11" ht="13">
@@ -8843,7 +8844,7 @@
       </c>
       <c r="E238" s="10"/>
       <c r="F238" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G238" s="28">
         <v>1830</v>
@@ -8860,23 +8861,23 @@
         <v>150</v>
       </c>
       <c r="C239" s="29" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D239" s="25" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E239" s="10"/>
       <c r="F239" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G239" s="28">
         <v>1830</v>
       </c>
       <c r="H239" s="27" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="K239" s="40" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="240" spans="1:11" ht="13">
@@ -8894,16 +8895,16 @@
       </c>
       <c r="E240" s="10"/>
       <c r="F240" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G240" s="28">
         <v>1830</v>
       </c>
       <c r="H240" s="47" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="I240" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="241" spans="1:11" ht="15">
@@ -8919,7 +8920,7 @@
       </c>
       <c r="E241" s="10"/>
       <c r="F241" s="27" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G241" s="28">
         <v>1830</v>
@@ -8928,10 +8929,10 @@
         <v>84</v>
       </c>
       <c r="I241" s="36" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="K241" s="27" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="242" spans="1:11" ht="13">
@@ -8947,13 +8948,13 @@
       </c>
       <c r="E242" s="10"/>
       <c r="F242" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G242" s="28">
         <v>1830</v>
       </c>
       <c r="I242" s="27" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="243" spans="1:11" ht="13">
@@ -8965,11 +8966,11 @@
       </c>
       <c r="C243" s="10"/>
       <c r="D243" s="25" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E243" s="10"/>
       <c r="F243" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G243" s="28">
         <v>1830</v>
@@ -8985,11 +8986,11 @@
       </c>
       <c r="C244" s="10"/>
       <c r="D244" s="25" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E244" s="10"/>
       <c r="F244" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G244" s="28">
         <v>1830</v>
@@ -9008,13 +9009,13 @@
       </c>
       <c r="E245" s="10"/>
       <c r="F245" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G245" s="28">
         <v>1830</v>
       </c>
       <c r="I245" s="36" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="246" spans="1:11" ht="13">
@@ -9032,7 +9033,7 @@
       </c>
       <c r="E246" s="10"/>
       <c r="F246" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G246" s="28">
         <v>1830</v>
@@ -9056,16 +9057,16 @@
       </c>
       <c r="E247" s="10"/>
       <c r="F247" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G247" s="28">
         <v>1830</v>
       </c>
       <c r="H247" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="I247" s="36" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="248" spans="1:11" ht="15">
@@ -9076,20 +9077,20 @@
         <v>159</v>
       </c>
       <c r="C248" s="29" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D248" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E248" s="10"/>
       <c r="F248" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G248" s="28">
         <v>1830</v>
       </c>
       <c r="I248" s="36" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="249" spans="1:11" ht="15">
@@ -9105,13 +9106,13 @@
       </c>
       <c r="E249" s="10"/>
       <c r="F249" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G249" s="28">
         <v>1830</v>
       </c>
       <c r="I249" s="36" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="250" spans="1:11" ht="14">
@@ -9129,13 +9130,13 @@
       </c>
       <c r="E250" s="10"/>
       <c r="F250" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G250" s="28">
         <v>1830</v>
       </c>
       <c r="I250" s="37" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="251" spans="1:11" ht="15">
@@ -9151,13 +9152,13 @@
       </c>
       <c r="E251" s="10"/>
       <c r="F251" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G251" s="28">
         <v>1830</v>
       </c>
       <c r="I251" s="36" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="252" spans="1:11" ht="15">
@@ -9173,7 +9174,7 @@
       </c>
       <c r="E252" s="10"/>
       <c r="F252" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G252" s="28">
         <v>1830</v>
@@ -9182,10 +9183,10 @@
         <v>44</v>
       </c>
       <c r="I252" s="36" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="K252" s="27" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="253" spans="1:11" ht="15">
@@ -9201,13 +9202,13 @@
       </c>
       <c r="E253" s="10"/>
       <c r="F253" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G253" s="28">
         <v>1830</v>
       </c>
       <c r="I253" s="36" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="254" spans="1:11" ht="15">
@@ -9221,23 +9222,23 @@
         <v>46</v>
       </c>
       <c r="D254" s="25" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E254" s="10"/>
       <c r="F254" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G254" s="28">
         <v>1830</v>
       </c>
       <c r="H254" s="47" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I254" s="27" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="K254" s="36" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="255" spans="1:11" ht="13">
@@ -9249,20 +9250,20 @@
       </c>
       <c r="C255" s="10"/>
       <c r="D255" s="25" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E255" s="10"/>
       <c r="F255" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G255" s="28">
         <v>1830</v>
       </c>
       <c r="H255" s="47" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K255" s="27" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="256" spans="1:11" ht="15">
@@ -9278,16 +9279,16 @@
       </c>
       <c r="E256" s="10"/>
       <c r="F256" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G256" s="28">
         <v>1830</v>
       </c>
       <c r="H256" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="I256" s="36" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="257" spans="1:11" ht="15">
@@ -9303,16 +9304,16 @@
       </c>
       <c r="E257" s="10"/>
       <c r="F257" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G257" s="28">
         <v>1830</v>
       </c>
       <c r="H257" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="I257" s="36" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="258" spans="1:11" ht="15">
@@ -9328,13 +9329,13 @@
       </c>
       <c r="E258" s="10"/>
       <c r="F258" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G258" s="28">
         <v>1830</v>
       </c>
       <c r="I258" s="36" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="259" spans="1:11" ht="15">
@@ -9348,17 +9349,17 @@
         <v>97</v>
       </c>
       <c r="D259" s="25" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E259" s="10"/>
       <c r="F259" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G259" s="28">
         <v>1830</v>
       </c>
       <c r="K259" s="36" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="260" spans="1:11" ht="13">
@@ -9369,14 +9370,14 @@
         <v>171</v>
       </c>
       <c r="C260" s="29" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D260" s="25" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E260" s="10"/>
       <c r="F260" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G260" s="28">
         <v>1830</v>
@@ -9393,14 +9394,14 @@
         <v>172</v>
       </c>
       <c r="C261" s="29" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D261" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E261" s="10"/>
       <c r="F261" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G261" s="28">
         <v>1830</v>
@@ -9409,7 +9410,7 @@
         <v>440</v>
       </c>
       <c r="I261" s="36" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="262" spans="1:11" ht="13">
@@ -9425,16 +9426,16 @@
       </c>
       <c r="E262" s="10"/>
       <c r="F262" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G262" s="28">
         <v>1830</v>
       </c>
       <c r="I262" s="27" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="K262" s="27" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="263" spans="1:11" ht="13">
@@ -9445,23 +9446,23 @@
         <v>174</v>
       </c>
       <c r="C263" s="29" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D263" s="13" t="s">
         <v>27</v>
       </c>
       <c r="E263" s="10"/>
       <c r="F263" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G263" s="28">
         <v>1830</v>
       </c>
       <c r="H263" s="47" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="I263" s="47" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="264" spans="1:11" ht="13">
@@ -9479,19 +9480,19 @@
       </c>
       <c r="E264" s="10"/>
       <c r="F264" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G264" s="28">
         <v>1830</v>
       </c>
       <c r="H264" s="24" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="I264" s="24" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="K264" s="27" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="265" spans="1:11" ht="13">
@@ -9509,7 +9510,7 @@
         <v>54</v>
       </c>
       <c r="F265" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G265" s="28">
         <v>1830</v>
@@ -9530,7 +9531,7 @@
       </c>
       <c r="E266" s="10"/>
       <c r="F266" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G266" s="28">
         <v>1830</v>
@@ -9545,11 +9546,11 @@
       </c>
       <c r="C267" s="10"/>
       <c r="D267" s="25" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E267" s="10"/>
       <c r="F267" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G267" s="28">
         <v>1830</v>
@@ -9563,20 +9564,20 @@
         <v>179</v>
       </c>
       <c r="C268" s="29" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D268" s="25" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E268" s="10"/>
       <c r="F268" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G268" s="28">
         <v>1830</v>
       </c>
       <c r="K268" s="27" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="269" spans="1:11" ht="13">
@@ -9588,17 +9589,17 @@
       </c>
       <c r="C269" s="10"/>
       <c r="D269" s="25" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E269" s="10"/>
       <c r="F269" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G269" s="28">
         <v>1830</v>
       </c>
       <c r="H269" s="27" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="270" spans="1:11" ht="13">
@@ -9609,20 +9610,20 @@
         <v>181</v>
       </c>
       <c r="C270" s="29" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D270" s="25" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E270" s="10"/>
       <c r="F270" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G270" s="28">
         <v>1830</v>
       </c>
       <c r="K270" s="27" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="271" spans="1:11" ht="13">
@@ -9638,19 +9639,19 @@
       </c>
       <c r="E271" s="10"/>
       <c r="F271" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G271" s="28">
         <v>1830</v>
       </c>
       <c r="H271" s="47" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I271" s="47" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="K271" s="27" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="272" spans="1:11" ht="13">
@@ -9662,17 +9663,17 @@
       </c>
       <c r="C272" s="10"/>
       <c r="D272" s="25" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E272" s="10"/>
       <c r="F272" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G272" s="28">
         <v>1830</v>
       </c>
       <c r="K272" s="27" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="273" spans="1:11" ht="13">
@@ -9684,17 +9685,17 @@
       </c>
       <c r="C273" s="10"/>
       <c r="D273" s="25" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E273" s="10"/>
       <c r="F273" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G273" s="28">
         <v>1830</v>
       </c>
       <c r="K273" s="27" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="274" spans="1:11" ht="13">
@@ -9706,17 +9707,17 @@
       </c>
       <c r="C274" s="10"/>
       <c r="D274" s="25" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E274" s="10"/>
       <c r="F274" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G274" s="28">
         <v>1830</v>
       </c>
       <c r="K274" s="27" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="275" spans="1:11" ht="13">
@@ -9728,17 +9729,17 @@
       </c>
       <c r="C275" s="10"/>
       <c r="D275" s="25" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E275" s="10"/>
       <c r="F275" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G275" s="28">
         <v>1830</v>
       </c>
       <c r="K275" s="27" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="276" spans="1:11" ht="13">
@@ -9750,17 +9751,17 @@
       </c>
       <c r="C276" s="10"/>
       <c r="D276" s="25" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E276" s="10"/>
       <c r="F276" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G276" s="28">
         <v>1830</v>
       </c>
       <c r="K276" s="27" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="277" spans="1:11" ht="13">
@@ -9772,20 +9773,20 @@
       </c>
       <c r="C277" s="10"/>
       <c r="D277" s="25" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E277" s="10"/>
       <c r="F277" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G277" s="28">
         <v>1830</v>
       </c>
       <c r="H277" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="K277" s="27" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="278" spans="1:11" ht="13">
@@ -9803,16 +9804,16 @@
       </c>
       <c r="E278" s="10"/>
       <c r="F278" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G278" s="28">
         <v>1830</v>
       </c>
       <c r="J278" s="27" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="K278" s="27" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="279" spans="1:11" ht="13">
@@ -9828,7 +9829,7 @@
       </c>
       <c r="E279" s="10"/>
       <c r="F279" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G279" s="28">
         <v>1830</v>
@@ -9837,10 +9838,10 @@
         <v>3678</v>
       </c>
       <c r="I279" s="27" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="K279" s="27" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="280" spans="1:11" ht="13">

--- a/LOCATION SHEETS/1820sLOCATIONS.xlsx
+++ b/LOCATION SHEETS/1820sLOCATIONS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/WR4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C155D25C-F5D1-C748-AB8B-637B82C89EFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F315090-D2A7-F845-8AAD-8CA623465E07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="460" windowWidth="28100" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="460" windowWidth="28100" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1820sLOCATIONS" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="618">
   <si>
     <t>LOCATIONS IN 1820s onwards</t>
   </si>
@@ -1568,9 +1568,6 @@
     <t>HALLSTEADS THE KNOTTS" CUMBERLAND"</t>
   </si>
   <si>
-    <t>WHITEHAVEN</t>
-  </si>
-  <si>
     <t>1833 to 1839</t>
   </si>
   <si>
@@ -1726,9 +1723,6 @@
     <t>226</t>
   </si>
   <si>
-    <t>SWAISWICK</t>
-  </si>
-  <si>
     <t>ST756685</t>
   </si>
   <si>
@@ -1859,9 +1853,6 @@
   </si>
   <si>
     <t>DICKLEBOROUGH, NORFOLK</t>
-  </si>
-  <si>
-    <t>NORWICH</t>
   </si>
   <si>
     <t>HAVERLAND Nr NORWICH</t>
@@ -2114,9 +2105,6 @@
   </si>
   <si>
     <t>RR301</t>
-  </si>
-  <si>
-    <t>RR324</t>
   </si>
   <si>
     <t>DERBY (SWANWICK)</t>
@@ -2256,6 +2244,18 @@
   </si>
   <si>
     <t>Leith (unknown)</t>
+  </si>
+  <si>
+    <t>RR1257</t>
+  </si>
+  <si>
+    <t>SWAINSWICK</t>
+  </si>
+  <si>
+    <t>NORWICH BROOKE</t>
+  </si>
+  <si>
+    <t>WHITEHAVEN HIGH ST?</t>
   </si>
 </sst>
 </file>
@@ -2859,8 +2859,8 @@
   <dimension ref="A1:AB1006"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I97" sqref="I97"/>
+      <pane ySplit="6" topLeftCell="A238" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I180" sqref="I180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -3032,7 +3032,7 @@
         <v>1820</v>
       </c>
       <c r="H8" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="K8" s="27" t="s">
         <v>23</v>
@@ -3229,7 +3229,7 @@
         <v>1820</v>
       </c>
       <c r="H16" s="47" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="I16" s="27" t="s">
         <v>37</v>
@@ -3311,7 +3311,7 @@
         <v>1820</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="J19" s="30" t="s">
         <v>48</v>
@@ -3339,7 +3339,7 @@
         <v>1820</v>
       </c>
       <c r="H20" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="K20" s="27" t="s">
         <v>50</v>
@@ -3364,7 +3364,7 @@
         <v>1820</v>
       </c>
       <c r="H21" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="K21" s="27" t="s">
         <v>52</v>
@@ -3391,7 +3391,7 @@
         <v>1820</v>
       </c>
       <c r="H22" s="24" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="K22" s="27" t="s">
         <v>55</v>
@@ -3625,7 +3625,7 @@
         <v>76</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="E32" s="10"/>
       <c r="F32" s="27" t="s">
@@ -3635,7 +3635,7 @@
         <v>1820</v>
       </c>
       <c r="H32" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="K32" s="27" t="s">
         <v>77</v>
@@ -3662,10 +3662,10 @@
         <v>1820</v>
       </c>
       <c r="H33" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="I33" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="K33" s="27" t="s">
         <v>52</v>
@@ -3707,7 +3707,7 @@
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="13" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="E35" s="31" t="s">
         <v>82</v>
@@ -3746,7 +3746,7 @@
         <v>1820</v>
       </c>
       <c r="H36" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="K36" s="27" t="s">
         <v>31</v>
@@ -3800,7 +3800,7 @@
         <v>1820</v>
       </c>
       <c r="H38" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="K38" s="27" t="s">
         <v>91</v>
@@ -3827,7 +3827,7 @@
         <v>1820</v>
       </c>
       <c r="H39" s="24" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="I39" s="27" t="s">
         <v>93</v>
@@ -3859,7 +3859,7 @@
         <v>1820</v>
       </c>
       <c r="H40" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="I40" s="27" t="s">
         <v>93</v>
@@ -3938,7 +3938,7 @@
         <v>1909</v>
       </c>
       <c r="I43" s="24" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="J43" s="27" t="s">
         <v>101</v>
@@ -3990,7 +3990,7 @@
         <v>1820</v>
       </c>
       <c r="I45" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="K45" s="27" t="s">
         <v>106</v>
@@ -4117,10 +4117,10 @@
         <v>1820</v>
       </c>
       <c r="H50" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="I50" s="36" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="K50" s="27" t="s">
         <v>116</v>
@@ -4145,7 +4145,7 @@
         <v>1820</v>
       </c>
       <c r="I51" s="36" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="K51" s="27" t="s">
         <v>117</v>
@@ -4172,10 +4172,10 @@
         <v>1820</v>
       </c>
       <c r="H52" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="I52" s="24" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="K52" s="27" t="s">
         <v>119</v>
@@ -4218,7 +4218,7 @@
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="13" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="E54" s="10"/>
       <c r="F54" s="27" t="s">
@@ -4228,10 +4228,10 @@
         <v>1820</v>
       </c>
       <c r="H54" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="I54" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="K54" s="27" t="s">
         <v>123</v>
@@ -4281,7 +4281,7 @@
         <v>1820</v>
       </c>
       <c r="H56" s="47" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="K56" s="27" t="s">
         <v>127</v>
@@ -4306,7 +4306,7 @@
         <v>1820</v>
       </c>
       <c r="H57" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="K57" s="27" t="s">
         <v>129</v>
@@ -4461,7 +4461,7 @@
         <v>1820</v>
       </c>
       <c r="H63" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="K63" s="27" t="s">
         <v>145</v>
@@ -4488,7 +4488,7 @@
         <v>1820</v>
       </c>
       <c r="H64" s="47" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="J64" s="27" t="s">
         <v>149</v>
@@ -4518,7 +4518,7 @@
         <v>1820</v>
       </c>
       <c r="H65" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="K65" s="27" t="s">
         <v>129</v>
@@ -4575,7 +4575,7 @@
         <v>1820</v>
       </c>
       <c r="H67" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="K67" s="27" t="s">
         <v>75</v>
@@ -4649,7 +4649,7 @@
         <v>1820</v>
       </c>
       <c r="H70" s="47" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="K70" s="27" t="s">
         <v>166</v>
@@ -4696,7 +4696,7 @@
         <v>1820</v>
       </c>
       <c r="H72" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="K72" s="27" t="s">
         <v>31</v>
@@ -4894,7 +4894,7 @@
         <v>187</v>
       </c>
       <c r="K80" s="24" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="13">
@@ -4978,7 +4978,7 @@
         <v>1820</v>
       </c>
       <c r="H83" s="47" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="K83" s="27" t="s">
         <v>199</v>
@@ -5239,7 +5239,7 @@
         <v>1820</v>
       </c>
       <c r="I93" s="24" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="K93" s="27" t="s">
         <v>225</v>
@@ -5288,7 +5288,7 @@
         <v>1820</v>
       </c>
       <c r="H95" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="J95" s="33" t="s">
         <v>231</v>
@@ -5448,7 +5448,7 @@
         <v>1820</v>
       </c>
       <c r="H101" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="J101" s="33" t="s">
         <v>251</v>
@@ -5507,9 +5507,7 @@
       <c r="G103" s="28">
         <v>1820</v>
       </c>
-      <c r="H103" s="47" t="s">
-        <v>579</v>
-      </c>
+      <c r="H103" s="47"/>
       <c r="I103" s="27" t="s">
         <v>259</v>
       </c>
@@ -5627,7 +5625,7 @@
         <v>1820</v>
       </c>
       <c r="H107" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="J107" s="33" t="s">
         <v>275</v>
@@ -5782,7 +5780,7 @@
         <v>95</v>
       </c>
       <c r="D113" s="13" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="E113" s="10"/>
       <c r="F113" s="27" t="s">
@@ -5793,7 +5791,7 @@
       </c>
       <c r="H113" s="47"/>
       <c r="I113" s="24" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="K113" s="27" t="s">
         <v>290</v>
@@ -5820,7 +5818,7 @@
         <v>1820</v>
       </c>
       <c r="H114" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="K114" s="27" t="s">
         <v>292</v>
@@ -5845,7 +5843,7 @@
         <v>1820</v>
       </c>
       <c r="H115" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="I115" s="27" t="s">
         <v>293</v>
@@ -6180,7 +6178,7 @@
         <v>1830</v>
       </c>
       <c r="H128" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="K128" s="27" t="s">
         <v>31</v>
@@ -6470,7 +6468,7 @@
         <v>1830</v>
       </c>
       <c r="H140" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="I140" s="36" t="s">
         <v>340</v>
@@ -6553,7 +6551,7 @@
         <v>1830</v>
       </c>
       <c r="H143" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="I143" s="36" t="s">
         <v>349</v>
@@ -6633,7 +6631,7 @@
         <v>1830</v>
       </c>
       <c r="H146" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="K146" s="27" t="s">
         <v>356</v>
@@ -6704,7 +6702,7 @@
         <v>1830</v>
       </c>
       <c r="H149" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="K149" s="27" t="s">
         <v>361</v>
@@ -6909,10 +6907,10 @@
         <v>1830</v>
       </c>
       <c r="H157" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="I157" s="36" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="K157" s="27" t="s">
         <v>341</v>
@@ -6959,7 +6957,7 @@
         <v>118</v>
       </c>
       <c r="D159" s="13" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="E159" s="10"/>
       <c r="F159" s="27" t="s">
@@ -6969,10 +6967,10 @@
         <v>1830</v>
       </c>
       <c r="H159" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="I159" s="47" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="K159" s="30" t="s">
         <v>374</v>
@@ -7165,7 +7163,7 @@
         <v>1830</v>
       </c>
       <c r="I167" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="K167" s="27" t="s">
         <v>390</v>
@@ -7190,7 +7188,7 @@
         <v>1830</v>
       </c>
       <c r="I168" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="K168" s="27" t="s">
         <v>391</v>
@@ -7341,7 +7339,7 @@
         <v>1830</v>
       </c>
       <c r="H174" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="K174" s="27" t="s">
         <v>400</v>
@@ -7460,7 +7458,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="180" spans="1:11" ht="13">
+    <row r="180" spans="1:11" ht="15">
       <c r="A180" s="25" t="s">
         <v>216</v>
       </c>
@@ -7468,8 +7466,8 @@
         <v>91</v>
       </c>
       <c r="C180" s="10"/>
-      <c r="D180" s="25" t="s">
-        <v>408</v>
+      <c r="D180" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="E180" s="10"/>
       <c r="F180" s="27" t="s">
@@ -7478,8 +7476,11 @@
       <c r="G180" s="28">
         <v>1830</v>
       </c>
+      <c r="I180" s="36" t="s">
+        <v>617</v>
+      </c>
       <c r="K180" s="27" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="181" spans="1:11" ht="13">
@@ -7503,10 +7504,10 @@
         <v>1830</v>
       </c>
       <c r="H181" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="K181" s="27" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="182" spans="1:11" ht="14">
@@ -7531,7 +7532,7 @@
       </c>
       <c r="H182" s="40"/>
       <c r="K182" s="37" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="183" spans="1:11" ht="15">
@@ -7553,13 +7554,13 @@
         <v>1830</v>
       </c>
       <c r="H183" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="I183" s="36" t="s">
+        <v>411</v>
+      </c>
+      <c r="K183" s="27" t="s">
         <v>412</v>
-      </c>
-      <c r="K183" s="27" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="184" spans="1:11" ht="13">
@@ -7570,10 +7571,10 @@
         <v>95</v>
       </c>
       <c r="C184" s="29" t="s">
+        <v>413</v>
+      </c>
+      <c r="D184" s="25" t="s">
         <v>414</v>
-      </c>
-      <c r="D184" s="25" t="s">
-        <v>415</v>
       </c>
       <c r="E184" s="10"/>
       <c r="F184" s="27" t="s">
@@ -7583,7 +7584,7 @@
         <v>1830</v>
       </c>
       <c r="K184" s="27" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="185" spans="1:11" ht="13">
@@ -7597,7 +7598,7 @@
         <v>146</v>
       </c>
       <c r="D185" s="25" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E185" s="10"/>
       <c r="F185" s="27" t="s">
@@ -7618,10 +7619,10 @@
         <v>97</v>
       </c>
       <c r="C186" s="29" t="s">
+        <v>417</v>
+      </c>
+      <c r="D186" s="25" t="s">
         <v>418</v>
-      </c>
-      <c r="D186" s="25" t="s">
-        <v>419</v>
       </c>
       <c r="E186" s="10"/>
       <c r="F186" s="27" t="s">
@@ -7642,7 +7643,7 @@
         <v>98</v>
       </c>
       <c r="C187" s="29" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D187" s="25" t="s">
         <v>27</v>
@@ -7655,10 +7656,10 @@
         <v>1830</v>
       </c>
       <c r="I187" s="36" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="K187" s="27" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="188" spans="1:11" ht="13">
@@ -7669,10 +7670,10 @@
         <v>99</v>
       </c>
       <c r="C188" s="29" t="s">
+        <v>421</v>
+      </c>
+      <c r="D188" s="25" t="s">
         <v>422</v>
-      </c>
-      <c r="D188" s="25" t="s">
-        <v>423</v>
       </c>
       <c r="E188" s="10"/>
       <c r="F188" s="27" t="s">
@@ -7682,10 +7683,10 @@
         <v>1830</v>
       </c>
       <c r="J188" s="27" t="s">
+        <v>423</v>
+      </c>
+      <c r="K188" s="27" t="s">
         <v>424</v>
-      </c>
-      <c r="K188" s="27" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="189" spans="1:11" ht="13">
@@ -7699,7 +7700,7 @@
         <v>395</v>
       </c>
       <c r="D189" s="25" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E189" s="10"/>
       <c r="F189" s="27" t="s">
@@ -7731,13 +7732,13 @@
       </c>
       <c r="H190" s="41"/>
       <c r="I190" s="36" t="s">
+        <v>426</v>
+      </c>
+      <c r="J190" s="27" t="s">
         <v>427</v>
       </c>
-      <c r="J190" s="27" t="s">
+      <c r="K190" s="42" t="s">
         <v>428</v>
-      </c>
-      <c r="K190" s="42" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="191" spans="1:11" ht="13">
@@ -7749,7 +7750,7 @@
       </c>
       <c r="C191" s="10"/>
       <c r="D191" s="25" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E191" s="10"/>
       <c r="F191" s="27" t="s">
@@ -7759,7 +7760,7 @@
         <v>1830</v>
       </c>
       <c r="K191" s="27" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="192" spans="1:11" ht="13">
@@ -7781,10 +7782,10 @@
         <v>1830</v>
       </c>
       <c r="I192" s="27" t="s">
+        <v>431</v>
+      </c>
+      <c r="K192" s="27" t="s">
         <v>432</v>
-      </c>
-      <c r="K192" s="27" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="193" spans="1:11" ht="13">
@@ -7798,7 +7799,7 @@
         <v>97</v>
       </c>
       <c r="D193" s="25" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E193" s="10"/>
       <c r="F193" s="27" t="s">
@@ -7819,7 +7820,7 @@
         <v>146</v>
       </c>
       <c r="D194" s="25" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E194" s="10"/>
       <c r="F194" s="27" t="s">
@@ -7829,10 +7830,10 @@
         <v>1830</v>
       </c>
       <c r="H194" s="47" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="K194" s="27" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="195" spans="1:11" ht="13">
@@ -7843,20 +7844,20 @@
         <v>106</v>
       </c>
       <c r="C195" s="29" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D195" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E195" s="10"/>
       <c r="F195" s="27" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G195" s="28">
         <v>1830</v>
       </c>
       <c r="I195" s="27" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="196" spans="1:11" ht="13">
@@ -7867,10 +7868,10 @@
         <v>107</v>
       </c>
       <c r="C196" s="29" t="s">
+        <v>438</v>
+      </c>
+      <c r="D196" s="25" t="s">
         <v>439</v>
-      </c>
-      <c r="D196" s="25" t="s">
-        <v>440</v>
       </c>
       <c r="E196" s="10"/>
       <c r="F196" s="27" t="s">
@@ -7888,10 +7889,10 @@
         <v>108</v>
       </c>
       <c r="C197" s="29" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D197" s="25" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E197" s="10"/>
       <c r="F197" s="27" t="s">
@@ -7910,7 +7911,7 @@
       </c>
       <c r="C198" s="10"/>
       <c r="D198" s="25" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E198" s="10"/>
       <c r="F198" s="27" t="s">
@@ -7928,7 +7929,7 @@
         <v>110</v>
       </c>
       <c r="C199" s="29" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D199" s="25" t="s">
         <v>27</v>
@@ -7945,7 +7946,7 @@
         <v>98</v>
       </c>
       <c r="K199" s="37" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="200" spans="1:11" ht="13">
@@ -7956,7 +7957,7 @@
         <v>111</v>
       </c>
       <c r="C200" s="29" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D200" s="13" t="s">
         <v>27</v>
@@ -7972,10 +7973,10 @@
         <v>1909</v>
       </c>
       <c r="I200" s="47" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="K200" s="27" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="201" spans="1:11" ht="13">
@@ -7989,7 +7990,7 @@
         <v>243</v>
       </c>
       <c r="D201" s="25" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E201" s="10"/>
       <c r="F201" s="27" t="s">
@@ -7999,10 +8000,10 @@
         <v>1830</v>
       </c>
       <c r="H201" s="47" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="K201" s="27" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="202" spans="1:11" ht="15">
@@ -8013,7 +8014,7 @@
         <v>113</v>
       </c>
       <c r="C202" s="29" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D202" s="25" t="s">
         <v>27</v>
@@ -8026,13 +8027,13 @@
         <v>1830</v>
       </c>
       <c r="H202" s="27" t="s">
+        <v>449</v>
+      </c>
+      <c r="I202" s="27" t="s">
         <v>450</v>
       </c>
-      <c r="I202" s="27" t="s">
+      <c r="K202" s="36" t="s">
         <v>451</v>
-      </c>
-      <c r="K202" s="36" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="203" spans="1:11" ht="13">
@@ -8044,7 +8045,7 @@
       </c>
       <c r="C203" s="10"/>
       <c r="D203" s="25" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E203" s="10"/>
       <c r="F203" s="27" t="s">
@@ -8062,7 +8063,7 @@
         <v>115</v>
       </c>
       <c r="C204" s="29" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D204" s="25" t="s">
         <v>27</v>
@@ -8074,14 +8075,17 @@
       <c r="G204" s="28">
         <v>1830</v>
       </c>
+      <c r="H204" t="s">
+        <v>614</v>
+      </c>
       <c r="I204" s="36" t="s">
+        <v>615</v>
+      </c>
+      <c r="J204" s="27" t="s">
+        <v>454</v>
+      </c>
+      <c r="K204" s="24" t="s">
         <v>455</v>
-      </c>
-      <c r="J204" s="27" t="s">
-        <v>456</v>
-      </c>
-      <c r="K204" s="27" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="205" spans="1:11" ht="13">
@@ -8093,7 +8097,7 @@
       </c>
       <c r="C205" s="10"/>
       <c r="D205" s="25" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E205" s="10"/>
       <c r="F205" s="27" t="s">
@@ -8103,7 +8107,7 @@
         <v>1830</v>
       </c>
       <c r="K205" s="27" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="206" spans="1:11" ht="15">
@@ -8115,7 +8119,7 @@
       </c>
       <c r="C206" s="10"/>
       <c r="D206" s="25" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E206" s="10"/>
       <c r="F206" s="27" t="s">
@@ -8137,7 +8141,7 @@
       </c>
       <c r="C207" s="10"/>
       <c r="D207" s="25" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E207" s="10"/>
       <c r="F207" s="27" t="s">
@@ -8171,10 +8175,10 @@
         <v>1830</v>
       </c>
       <c r="I208" s="27" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="K208" s="30" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="209" spans="1:11" ht="15">
@@ -8185,10 +8189,10 @@
         <v>120</v>
       </c>
       <c r="C209" s="29" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D209" s="25" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E209" s="10"/>
       <c r="F209" s="27" t="s">
@@ -8199,7 +8203,7 @@
       </c>
       <c r="H209" s="44"/>
       <c r="K209" s="37" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="210" spans="1:11" ht="13">
@@ -8221,10 +8225,10 @@
         <v>1830</v>
       </c>
       <c r="H210" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="I210" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="211" spans="1:11" ht="13">
@@ -8235,7 +8239,7 @@
         <v>122</v>
       </c>
       <c r="C211" s="29" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D211" s="25" t="s">
         <v>27</v>
@@ -8248,7 +8252,7 @@
         <v>1830</v>
       </c>
       <c r="I211" s="27" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="212" spans="1:11" ht="13">
@@ -8259,10 +8263,10 @@
         <v>123</v>
       </c>
       <c r="C212" s="29" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D212" s="25" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E212" s="10"/>
       <c r="F212" s="27" t="s">
@@ -8280,10 +8284,10 @@
         <v>124</v>
       </c>
       <c r="C213" s="29" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D213" s="25" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E213" s="10"/>
       <c r="F213" s="27" t="s">
@@ -8293,7 +8297,7 @@
         <v>1830</v>
       </c>
       <c r="H213" s="27" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="214" spans="1:11" ht="13">
@@ -8307,7 +8311,7 @@
         <v>97</v>
       </c>
       <c r="D214" s="25" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E214" s="10"/>
       <c r="F214" s="27" t="s">
@@ -8326,7 +8330,7 @@
       </c>
       <c r="C215" s="10"/>
       <c r="D215" s="25" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E215" s="10"/>
       <c r="F215" s="27" t="s">
@@ -8345,7 +8349,7 @@
       </c>
       <c r="C216" s="10"/>
       <c r="D216" s="25" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E216" s="10"/>
       <c r="F216" s="27" t="s">
@@ -8364,7 +8368,7 @@
       </c>
       <c r="C217" s="10"/>
       <c r="D217" s="25" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E217" s="10"/>
       <c r="F217" s="27" t="s">
@@ -8393,10 +8397,10 @@
         <v>1830</v>
       </c>
       <c r="H218" s="27" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="I218" s="36" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="219" spans="1:11" ht="13">
@@ -8418,7 +8422,7 @@
         <v>1830</v>
       </c>
       <c r="I219" s="27" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="220" spans="1:11" ht="13">
@@ -8440,7 +8444,7 @@
         <v>1830</v>
       </c>
       <c r="I220" s="27" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="221" spans="1:11" ht="13">
@@ -8452,7 +8456,7 @@
       </c>
       <c r="C221" s="10"/>
       <c r="D221" s="25" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E221" s="10"/>
       <c r="F221" s="27" t="s">
@@ -8462,7 +8466,7 @@
         <v>1830</v>
       </c>
       <c r="H221" s="47" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="222" spans="1:11" ht="15">
@@ -8473,7 +8477,7 @@
         <v>133</v>
       </c>
       <c r="C222" s="29" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D222" s="25" t="s">
         <v>27</v>
@@ -8489,10 +8493,10 @@
         <v>1052</v>
       </c>
       <c r="I222" s="36" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="K222" s="36" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="223" spans="1:11" ht="15">
@@ -8514,7 +8518,7 @@
         <v>1830</v>
       </c>
       <c r="I223" s="36" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="224" spans="1:11" ht="13">
@@ -8526,7 +8530,7 @@
       </c>
       <c r="C224" s="10"/>
       <c r="D224" s="25" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E224" s="10"/>
       <c r="F224" s="27" t="s">
@@ -8545,7 +8549,7 @@
       </c>
       <c r="C225" s="10"/>
       <c r="D225" s="25" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E225" s="10"/>
       <c r="F225" s="27" t="s">
@@ -8555,7 +8559,7 @@
         <v>1830</v>
       </c>
       <c r="H225" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="226" spans="1:11" ht="13">
@@ -8567,7 +8571,7 @@
       </c>
       <c r="C226" s="10"/>
       <c r="D226" s="25" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E226" s="10"/>
       <c r="F226" s="27" t="s">
@@ -8586,7 +8590,7 @@
       </c>
       <c r="C227" s="10"/>
       <c r="D227" s="25" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E227" s="10"/>
       <c r="F227" s="27" t="s">
@@ -8596,7 +8600,7 @@
         <v>1830</v>
       </c>
       <c r="H227" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="228" spans="1:11" ht="15">
@@ -8607,10 +8611,10 @@
         <v>139</v>
       </c>
       <c r="C228" s="29" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D228" s="25" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E228" s="10"/>
       <c r="F228" s="27" t="s">
@@ -8620,10 +8624,10 @@
         <v>1830</v>
       </c>
       <c r="H228" s="47" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="K228" s="36" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="229" spans="1:11" ht="15">
@@ -8645,10 +8649,10 @@
         <v>1830</v>
       </c>
       <c r="H229" s="47" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="I229" s="36" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="230" spans="1:11" ht="13">
@@ -8660,7 +8664,7 @@
       </c>
       <c r="C230" s="10"/>
       <c r="D230" s="13" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="E230" s="10"/>
       <c r="F230" s="27" t="s">
@@ -8670,7 +8674,7 @@
         <v>1830</v>
       </c>
       <c r="H230" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="231" spans="1:11" ht="14">
@@ -8692,7 +8696,7 @@
         <v>1830</v>
       </c>
       <c r="I231" s="37" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="232" spans="1:11" ht="15">
@@ -8706,7 +8710,7 @@
         <v>382</v>
       </c>
       <c r="D232" s="25" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E232" s="10"/>
       <c r="F232" s="27" t="s">
@@ -8716,10 +8720,10 @@
         <v>1830</v>
       </c>
       <c r="H232" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="K232" s="36" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="233" spans="1:11" ht="15">
@@ -8741,7 +8745,7 @@
         <v>1830</v>
       </c>
       <c r="I233" s="36" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="234" spans="1:11" ht="13">
@@ -8753,7 +8757,7 @@
       </c>
       <c r="C234" s="10"/>
       <c r="D234" s="25" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E234" s="10"/>
       <c r="F234" s="27" t="s">
@@ -8763,7 +8767,7 @@
         <v>1830</v>
       </c>
       <c r="H234" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="235" spans="1:11" ht="13">
@@ -8774,8 +8778,8 @@
         <v>146</v>
       </c>
       <c r="C235" s="10"/>
-      <c r="D235" s="25" t="s">
-        <v>500</v>
+      <c r="D235" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="E235" s="10"/>
       <c r="F235" s="27" t="s">
@@ -8784,6 +8788,9 @@
       <c r="G235" s="28">
         <v>1830</v>
       </c>
+      <c r="I235" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="236" spans="1:11" ht="15">
       <c r="A236" s="25" t="s">
@@ -8804,7 +8811,7 @@
         <v>1830</v>
       </c>
       <c r="I236" s="36" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="237" spans="1:11" ht="15">
@@ -8826,7 +8833,7 @@
         <v>1830</v>
       </c>
       <c r="I237" s="36" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="238" spans="1:11" ht="13">
@@ -8861,10 +8868,10 @@
         <v>150</v>
       </c>
       <c r="C239" s="29" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D239" s="25" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E239" s="10"/>
       <c r="F239" s="27" t="s">
@@ -8874,7 +8881,7 @@
         <v>1830</v>
       </c>
       <c r="H239" s="27" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="K239" s="40" t="s">
         <v>372</v>
@@ -8901,10 +8908,10 @@
         <v>1830</v>
       </c>
       <c r="H240" s="47" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="I240" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="241" spans="1:11" ht="15">
@@ -8920,7 +8927,7 @@
       </c>
       <c r="E241" s="10"/>
       <c r="F241" s="27" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G241" s="28">
         <v>1830</v>
@@ -8929,10 +8936,10 @@
         <v>84</v>
       </c>
       <c r="I241" s="36" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="K241" s="27" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="242" spans="1:11" ht="13">
@@ -8954,7 +8961,7 @@
         <v>1830</v>
       </c>
       <c r="I242" s="27" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="243" spans="1:11" ht="13">
@@ -8966,7 +8973,7 @@
       </c>
       <c r="C243" s="10"/>
       <c r="D243" s="25" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="E243" s="10"/>
       <c r="F243" s="27" t="s">
@@ -8986,7 +8993,7 @@
       </c>
       <c r="C244" s="10"/>
       <c r="D244" s="25" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E244" s="10"/>
       <c r="F244" s="27" t="s">
@@ -9015,7 +9022,7 @@
         <v>1830</v>
       </c>
       <c r="I245" s="36" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="246" spans="1:11" ht="13">
@@ -9063,10 +9070,10 @@
         <v>1830</v>
       </c>
       <c r="H247" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="I247" s="36" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="248" spans="1:11" ht="15">
@@ -9077,7 +9084,7 @@
         <v>159</v>
       </c>
       <c r="C248" s="29" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D248" s="25" t="s">
         <v>27</v>
@@ -9090,7 +9097,7 @@
         <v>1830</v>
       </c>
       <c r="I248" s="36" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="249" spans="1:11" ht="15">
@@ -9112,7 +9119,7 @@
         <v>1830</v>
       </c>
       <c r="I249" s="36" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="250" spans="1:11" ht="14">
@@ -9136,7 +9143,7 @@
         <v>1830</v>
       </c>
       <c r="I250" s="37" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="251" spans="1:11" ht="15">
@@ -9158,7 +9165,7 @@
         <v>1830</v>
       </c>
       <c r="I251" s="36" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="252" spans="1:11" ht="15">
@@ -9183,10 +9190,10 @@
         <v>44</v>
       </c>
       <c r="I252" s="36" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="K252" s="27" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="253" spans="1:11" ht="15">
@@ -9208,7 +9215,7 @@
         <v>1830</v>
       </c>
       <c r="I253" s="36" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="254" spans="1:11" ht="15">
@@ -9222,7 +9229,7 @@
         <v>46</v>
       </c>
       <c r="D254" s="25" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E254" s="10"/>
       <c r="F254" s="27" t="s">
@@ -9232,13 +9239,13 @@
         <v>1830</v>
       </c>
       <c r="H254" s="47" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="I254" s="27" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="K254" s="36" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="255" spans="1:11" ht="13">
@@ -9250,7 +9257,7 @@
       </c>
       <c r="C255" s="10"/>
       <c r="D255" s="25" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E255" s="10"/>
       <c r="F255" s="27" t="s">
@@ -9260,10 +9267,10 @@
         <v>1830</v>
       </c>
       <c r="H255" s="47" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="K255" s="27" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="256" spans="1:11" ht="15">
@@ -9285,10 +9292,10 @@
         <v>1830</v>
       </c>
       <c r="H256" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="I256" s="36" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="257" spans="1:11" ht="15">
@@ -9310,10 +9317,10 @@
         <v>1830</v>
       </c>
       <c r="H257" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="I257" s="36" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="258" spans="1:11" ht="15">
@@ -9335,7 +9342,7 @@
         <v>1830</v>
       </c>
       <c r="I258" s="36" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="259" spans="1:11" ht="15">
@@ -9349,7 +9356,7 @@
         <v>97</v>
       </c>
       <c r="D259" s="25" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E259" s="10"/>
       <c r="F259" s="27" t="s">
@@ -9359,7 +9366,7 @@
         <v>1830</v>
       </c>
       <c r="K259" s="36" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="260" spans="1:11" ht="13">
@@ -9370,10 +9377,10 @@
         <v>171</v>
       </c>
       <c r="C260" s="29" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D260" s="25" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E260" s="10"/>
       <c r="F260" s="27" t="s">
@@ -9394,7 +9401,7 @@
         <v>172</v>
       </c>
       <c r="C261" s="29" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D261" s="25" t="s">
         <v>27</v>
@@ -9410,7 +9417,7 @@
         <v>440</v>
       </c>
       <c r="I261" s="36" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="262" spans="1:11" ht="13">
@@ -9432,10 +9439,10 @@
         <v>1830</v>
       </c>
       <c r="I262" s="27" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="K262" s="27" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="263" spans="1:11" ht="13">
@@ -9446,7 +9453,7 @@
         <v>174</v>
       </c>
       <c r="C263" s="29" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D263" s="13" t="s">
         <v>27</v>
@@ -9459,10 +9466,10 @@
         <v>1830</v>
       </c>
       <c r="H263" s="47" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="I263" s="47" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="264" spans="1:11" ht="13">
@@ -9486,13 +9493,13 @@
         <v>1830</v>
       </c>
       <c r="H264" s="24" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="I264" s="24" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="K264" s="27" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="265" spans="1:11" ht="13">
@@ -9546,7 +9553,7 @@
       </c>
       <c r="C267" s="10"/>
       <c r="D267" s="25" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="E267" s="10"/>
       <c r="F267" s="27" t="s">
@@ -9564,10 +9571,10 @@
         <v>179</v>
       </c>
       <c r="C268" s="29" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D268" s="25" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="E268" s="10"/>
       <c r="F268" s="27" t="s">
@@ -9577,7 +9584,7 @@
         <v>1830</v>
       </c>
       <c r="K268" s="27" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="269" spans="1:11" ht="13">
@@ -9589,7 +9596,7 @@
       </c>
       <c r="C269" s="10"/>
       <c r="D269" s="25" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="E269" s="10"/>
       <c r="F269" s="27" t="s">
@@ -9599,7 +9606,7 @@
         <v>1830</v>
       </c>
       <c r="H269" s="27" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="270" spans="1:11" ht="13">
@@ -9613,7 +9620,7 @@
         <v>395</v>
       </c>
       <c r="D270" s="25" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E270" s="10"/>
       <c r="F270" s="27" t="s">
@@ -9623,7 +9630,7 @@
         <v>1830</v>
       </c>
       <c r="K270" s="27" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="271" spans="1:11" ht="13">
@@ -9645,13 +9652,13 @@
         <v>1830</v>
       </c>
       <c r="H271" s="47" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="I271" s="47" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="K271" s="27" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="272" spans="1:11" ht="13">
@@ -9663,7 +9670,7 @@
       </c>
       <c r="C272" s="10"/>
       <c r="D272" s="25" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E272" s="10"/>
       <c r="F272" s="27" t="s">
@@ -9673,7 +9680,7 @@
         <v>1830</v>
       </c>
       <c r="K272" s="27" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="273" spans="1:11" ht="13">
@@ -9685,7 +9692,7 @@
       </c>
       <c r="C273" s="10"/>
       <c r="D273" s="25" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="E273" s="10"/>
       <c r="F273" s="27" t="s">
@@ -9695,7 +9702,7 @@
         <v>1830</v>
       </c>
       <c r="K273" s="27" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="274" spans="1:11" ht="13">
@@ -9707,7 +9714,7 @@
       </c>
       <c r="C274" s="10"/>
       <c r="D274" s="25" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="E274" s="10"/>
       <c r="F274" s="27" t="s">
@@ -9717,7 +9724,7 @@
         <v>1830</v>
       </c>
       <c r="K274" s="27" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="275" spans="1:11" ht="13">
@@ -9729,7 +9736,7 @@
       </c>
       <c r="C275" s="10"/>
       <c r="D275" s="25" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="E275" s="10"/>
       <c r="F275" s="27" t="s">
@@ -9739,7 +9746,7 @@
         <v>1830</v>
       </c>
       <c r="K275" s="27" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="276" spans="1:11" ht="13">
@@ -9751,7 +9758,7 @@
       </c>
       <c r="C276" s="10"/>
       <c r="D276" s="25" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="E276" s="10"/>
       <c r="F276" s="27" t="s">
@@ -9761,7 +9768,7 @@
         <v>1830</v>
       </c>
       <c r="K276" s="27" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="277" spans="1:11" ht="13">
@@ -9773,7 +9780,7 @@
       </c>
       <c r="C277" s="10"/>
       <c r="D277" s="25" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="E277" s="10"/>
       <c r="F277" s="27" t="s">
@@ -9783,10 +9790,10 @@
         <v>1830</v>
       </c>
       <c r="H277" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="K277" s="27" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="278" spans="1:11" ht="13">
@@ -9810,10 +9817,10 @@
         <v>1830</v>
       </c>
       <c r="J278" s="27" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="K278" s="27" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="279" spans="1:11" ht="13">
@@ -9838,10 +9845,10 @@
         <v>3678</v>
       </c>
       <c r="I279" s="27" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="K279" s="27" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="280" spans="1:11" ht="13">
